--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="基础数据" sheetId="6" r:id="rId6"/>
     <sheet name="日志模块" sheetId="7" r:id="rId7"/>
     <sheet name="教练" sheetId="8" r:id="rId8"/>
+    <sheet name="产品" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474">
   <si>
     <t>表名</t>
   </si>
@@ -284,6 +285,12 @@
     <t></t>
   </si>
   <si>
+    <t>lastlogintime</t>
+  </si>
+  <si>
+    <t>最晚登录时间</t>
+  </si>
+  <si>
     <t>tomemberId</t>
   </si>
   <si>
@@ -491,9 +498,6 @@
     <t>操作备注</t>
   </si>
   <si>
-    <t>lastlogintime</t>
-  </si>
-  <si>
     <t>最后登录时间</t>
   </si>
   <si>
@@ -1055,9 +1059,48 @@
     <t>姓名</t>
   </si>
   <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>t_sysusermenu</t>
+  </si>
+  <si>
+    <t>系统用户菜单表</t>
+  </si>
+  <si>
     <t>sysUserStatus</t>
   </si>
   <si>
+    <t>sysUserId</t>
+  </si>
+  <si>
+    <t>系统用户id</t>
+  </si>
+  <si>
+    <t>menuId</t>
+  </si>
+  <si>
+    <t>菜单id</t>
+  </si>
+  <si>
+    <t>t_sysmenu</t>
+  </si>
+  <si>
+    <t>系统菜单表</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>父级id</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
     <t>t_leavingmsg</t>
   </si>
   <si>
@@ -1067,9 +1110,6 @@
     <t>称呼</t>
   </si>
   <si>
-    <t>mobile</t>
-  </si>
-  <si>
     <t>手机号码</t>
   </si>
   <si>
@@ -1103,6 +1143,48 @@
     <t>赛事评分表</t>
   </si>
   <si>
+    <t>t_vote</t>
+  </si>
+  <si>
+    <t>投票表</t>
+  </si>
+  <si>
+    <t>t_votedetail</t>
+  </si>
+  <si>
+    <t>投票详情表</t>
+  </si>
+  <si>
+    <t>辩题</t>
+  </si>
+  <si>
+    <t>voteId</t>
+  </si>
+  <si>
+    <t>投票id</t>
+  </si>
+  <si>
+    <t>辩题描述</t>
+  </si>
+  <si>
+    <t>voteStartTime</t>
+  </si>
+  <si>
+    <t>投票开始时间</t>
+  </si>
+  <si>
+    <t>numberOfVotes</t>
+  </si>
+  <si>
+    <t>投票数</t>
+  </si>
+  <si>
+    <t>voteEndTime</t>
+  </si>
+  <si>
+    <t>投票结束时间</t>
+  </si>
+  <si>
     <t>t_order</t>
   </si>
   <si>
@@ -1214,15 +1296,21 @@
     <t>退款记录</t>
   </si>
   <si>
+    <t>payAccount</t>
+  </si>
+  <si>
+    <t>支付账号</t>
+  </si>
+  <si>
+    <t>退款金额</t>
+  </si>
+  <si>
     <t>payType</t>
   </si>
   <si>
     <t>支付方式</t>
   </si>
   <si>
-    <t>退款金额</t>
-  </si>
-  <si>
     <t>refundStatus</t>
   </si>
   <si>
@@ -1241,6 +1329,18 @@
     <t>支付密钥</t>
   </si>
   <si>
+    <t>t_orderpaycallback</t>
+  </si>
+  <si>
+    <t>支付回调记录</t>
+  </si>
+  <si>
+    <t>callbackjson</t>
+  </si>
+  <si>
+    <t>回调集合</t>
+  </si>
+  <si>
     <t>t_province</t>
   </si>
   <si>
@@ -1323,6 +1423,27 @@
   </si>
   <si>
     <t>系统管理员Id</t>
+  </si>
+  <si>
+    <t>产品特性表</t>
+  </si>
+  <si>
+    <t>t_product</t>
+  </si>
+  <si>
+    <t>产品表</t>
+  </si>
+  <si>
+    <t>t_productimg</t>
+  </si>
+  <si>
+    <t>产品图片表</t>
+  </si>
+  <si>
+    <t>t_productprice</t>
+  </si>
+  <si>
+    <t>产品价格表</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1451,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1363,7 +1484,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,87 +1571,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1486,21 +1597,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1527,13 +1648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,85 +1672,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,37 +1702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1683,7 +1720,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,7 +1816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,7 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,15 +1881,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1784,17 +1896,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1816,6 +1946,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1826,34 +1965,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1863,10 +1984,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1875,137 +1996,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2019,6 +2140,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2028,28 +2163,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2377,8 +2501,8 @@
   <sheetPr/>
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2426,52 +2550,52 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2676,7 +2800,9 @@
       <c r="D8" s="9">
         <v>50</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
@@ -2786,7 +2912,9 @@
       <c r="D11" s="9">
         <v>100</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2860,7 +2988,9 @@
       <c r="D14" s="9">
         <v>200</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2900,28 +3030,28 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="15" t="s">
+      <c r="O15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2938,7 +3068,9 @@
       <c r="D16" s="9">
         <v>20</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2976,26 +3108,28 @@
       <c r="D17" s="9">
         <v>50</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="11">
-        <v>11</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="L17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="9">
+        <v>11</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
@@ -3016,22 +3150,22 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="9">
         <v>4</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
@@ -3046,62 +3180,64 @@
       <c r="D19" s="9">
         <v>200</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="9">
         <v>100</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>4</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="J20" s="10" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="9">
         <v>100</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
@@ -3122,65 +3258,67 @@
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="9">
         <v>20</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="J22" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="11">
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="9">
         <v>11</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>39</v>
@@ -3188,43 +3326,43 @@
       <c r="D23" s="9">
         <v>0</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="J23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" s="10" t="s">
+      <c r="J23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="9">
         <v>4</v>
       </c>
       <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -3245,7 +3383,23 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="10:17">
+    <row r="25" spans="1:17">
+      <c r="A25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
         <v>51</v>
       </c>
@@ -3288,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3302,41 +3456,41 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -3364,28 +3518,28 @@
         <v>18</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="15" t="s">
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3434,7 +3588,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>39</v>
@@ -3446,10 +3600,10 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="8" t="s">
@@ -3458,10 +3612,10 @@
       <c r="M31" s="9">
         <v>11</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
@@ -3480,11 +3634,11 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="J32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>97</v>
+      <c r="J32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>31</v>
@@ -3492,17 +3646,17 @@
       <c r="M32" s="9">
         <v>4</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>16</v>
@@ -3516,22 +3670,22 @@
       <c r="H33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L33" s="10" t="s">
+      <c r="J33" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="9">
         <v>200</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
@@ -3550,22 +3704,22 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="J34" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L34" s="10" t="s">
+      <c r="J34" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="9">
         <v>1</v>
       </c>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
@@ -3640,8 +3794,8 @@
       <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="4:17">
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
       <c r="J37" s="8" t="s">
         <v>55</v>
       </c>
@@ -3664,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3678,28 +3832,28 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3747,13 +3901,13 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D43" s="9">
         <v>8</v>
@@ -3765,13 +3919,13 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="D44" s="9">
         <v>8</v>
@@ -3783,13 +3937,13 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D45" s="9">
         <v>8</v>
@@ -3856,21 +4010,21 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -3878,28 +4032,28 @@
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="F52" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3947,10 +4101,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>16</v>
@@ -3967,13 +4121,13 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D56" s="9">
         <v>8</v>
@@ -4040,21 +4194,21 @@
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="4:5">
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -4062,28 +4216,28 @@
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="F63" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4111,10 +4265,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -4147,10 +4301,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>16</v>
@@ -4165,10 +4319,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>16</v>
@@ -4183,13 +4337,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D69" s="9">
         <v>8</v>
@@ -4201,10 +4355,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>21</v>
@@ -4274,21 +4428,21 @@
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="4:5">
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -4296,28 +4450,28 @@
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="15" t="s">
+      <c r="F77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4345,10 +4499,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -4363,10 +4517,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>16</v>
@@ -4384,7 +4538,7 @@
         <v>22</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>16</v>
@@ -4399,13 +4553,13 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D82" s="9">
         <v>6</v>
@@ -4417,10 +4571,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>21</v>
@@ -4492,21 +4646,21 @@
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="4:5">
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -4514,28 +4668,28 @@
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="15" t="s">
+      <c r="F90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="13" t="s">
+      <c r="H90" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4563,10 +4717,10 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>16</v>
@@ -4602,31 +4756,31 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="18" t="s">
+      <c r="A94" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="9">
         <v>11</v>
       </c>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18" t="s">
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>16</v>
@@ -4643,10 +4797,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>31</v>
@@ -4661,10 +4815,10 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>31</v>
@@ -4773,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -4787,28 +4941,28 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4836,10 +4990,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -4876,10 +5030,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -4894,10 +5048,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -4980,8 +5134,8 @@
   <sheetPr/>
   <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:Q9"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5001,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5017,13 +5171,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -5031,52 +5185,52 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5140,10 +5294,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>16</v>
@@ -5176,10 +5330,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>21</v>
@@ -5196,7 +5350,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>85</v>
@@ -5212,10 +5366,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -5232,10 +5386,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>39</v>
@@ -5271,7 +5425,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -5306,7 +5460,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>30</v>
@@ -5597,13 +5751,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -5613,13 +5767,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -5627,52 +5781,52 @@
       <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="15" t="s">
+      <c r="O27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5720,10 +5874,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>16</v>
@@ -5738,10 +5892,10 @@
         <v>24</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>16</v>
@@ -5761,7 +5915,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>21</v>
@@ -5776,10 +5930,10 @@
         <v>42</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>21</v>
@@ -5797,7 +5951,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -5810,10 +5964,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>16</v>
@@ -5830,10 +5984,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>39</v>
@@ -5864,10 +6018,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>39</v>
@@ -5900,10 +6054,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>39</v>
@@ -5934,10 +6088,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>39</v>
@@ -5952,10 +6106,10 @@
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>39</v>
@@ -5971,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -5986,10 +6140,10 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>21</v>
@@ -6001,37 +6155,37 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="M37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P37" s="15" t="s">
+      <c r="O37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q37" s="13" t="s">
+      <c r="Q37" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>21</v>
@@ -6066,10 +6220,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -6082,10 +6236,10 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>16</v>
@@ -6102,10 +6256,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -6118,10 +6272,10 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>21</v>
@@ -6136,10 +6290,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>31</v>
@@ -6170,10 +6324,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -6206,10 +6360,10 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>31</v>
@@ -6240,13 +6394,13 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D44" s="9">
         <v>6</v>
@@ -6258,10 +6412,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -6278,13 +6432,13 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D46" s="9">
         <v>4</v>
@@ -6351,21 +6505,21 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="4:5">
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -6375,13 +6529,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -6389,52 +6543,52 @@
       <c r="Q52" s="4"/>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="15" t="s">
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="N53" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P53" s="7" t="s">
+      <c r="O53" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P53" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q53" s="5" t="s">
+      <c r="Q53" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6482,10 +6636,10 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>16</v>
@@ -6500,10 +6654,10 @@
         <v>24</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>16</v>
@@ -6520,10 +6674,10 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>16</v>
@@ -6536,10 +6690,10 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="J56" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>31</v>
@@ -6554,10 +6708,10 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>31</v>
@@ -6572,10 +6726,10 @@
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="J57" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>16</v>
@@ -6590,10 +6744,10 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>31</v>
@@ -6608,10 +6762,10 @@
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="J58" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L58" s="8" t="s">
         <v>39</v>
@@ -6626,13 +6780,13 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D59" s="9">
         <v>6</v>
@@ -6644,10 +6798,10 @@
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="J59" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L59" s="8" t="s">
         <v>39</v>
@@ -6662,13 +6816,13 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D60" s="9">
         <v>6</v>
@@ -6680,10 +6834,10 @@
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="J60" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>39</v>
@@ -6698,10 +6852,10 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>16</v>
@@ -6716,7 +6870,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="J61" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>33</v>
@@ -6734,10 +6888,10 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>16</v>
@@ -6770,10 +6924,10 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>16</v>
@@ -6806,10 +6960,10 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -6895,21 +7049,21 @@
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="4:5">
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -6919,13 +7073,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -6933,52 +7087,52 @@
       <c r="Q70" s="4"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="15" t="s">
+      <c r="F71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="J71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K71" s="13" t="s">
+      <c r="K71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L71" s="14" t="s">
+      <c r="L71" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M71" s="15" t="s">
+      <c r="M71" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N71" s="15" t="s">
+      <c r="N71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O71" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P71" s="15" t="s">
+      <c r="O71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P71" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q71" s="13" t="s">
+      <c r="Q71" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7026,10 +7180,10 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>16</v>
@@ -7044,10 +7198,10 @@
         <v>24</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L73" s="8" t="s">
         <v>16</v>
@@ -7067,7 +7221,7 @@
         <v>40</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>21</v>
@@ -7085,7 +7239,7 @@
         <v>22</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L74" s="8" t="s">
         <v>16</v>
@@ -7105,7 +7259,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>21</v>
@@ -7118,10 +7272,10 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="J75" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L75" s="8" t="s">
         <v>16</v>
@@ -7138,10 +7292,10 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>16</v>
@@ -7172,7 +7326,7 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>33</v>
@@ -7279,21 +7433,21 @@
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="4:5">
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" ht="22.5" spans="1:26">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -7303,13 +7457,13 @@
         <v>0</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -7319,13 +7473,13 @@
         <v>0</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
@@ -7333,76 +7487,76 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="15" t="s">
+      <c r="F83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J83" s="13" t="s">
+      <c r="J83" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K83" s="13" t="s">
+      <c r="K83" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L83" s="14" t="s">
+      <c r="L83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="15" t="s">
+      <c r="M83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N83" s="15" t="s">
+      <c r="N83" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O83" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P83" s="15" t="s">
+      <c r="O83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P83" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q83" s="13" t="s">
+      <c r="Q83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S83" s="13" t="s">
+      <c r="S83" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T83" s="13" t="s">
+      <c r="T83" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U83" s="14" t="s">
+      <c r="U83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="V83" s="15" t="s">
+      <c r="V83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W83" s="15" t="s">
+      <c r="W83" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="X83" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y83" s="15" t="s">
+      <c r="X83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y83" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Z83" s="13" t="s">
+      <c r="Z83" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7470,10 +7624,10 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>16</v>
@@ -7488,10 +7642,10 @@
         <v>24</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L85" s="8" t="s">
         <v>16</v>
@@ -7506,10 +7660,10 @@
         <v>24</v>
       </c>
       <c r="S85" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T85" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U85" s="8" t="s">
         <v>16</v>
@@ -7518,7 +7672,7 @@
         <v>11</v>
       </c>
       <c r="W85" s="8"/>
-      <c r="X85" s="19"/>
+      <c r="X85" s="20"/>
       <c r="Y85" s="8"/>
       <c r="Z85" s="8" t="s">
         <v>24</v>
@@ -7526,10 +7680,10 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>57</v>
@@ -7542,10 +7696,10 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L86" s="8" t="s">
         <v>31</v>
@@ -7558,10 +7712,10 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="S86" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T86" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U86" s="8" t="s">
         <v>31</v>
@@ -7570,16 +7724,16 @@
         <v>4</v>
       </c>
       <c r="W86" s="8"/>
-      <c r="X86" s="19"/>
+      <c r="X86" s="20"/>
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>31</v>
@@ -7592,10 +7746,10 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L87" s="8" t="s">
         <v>31</v>
@@ -7608,10 +7762,10 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="S87" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T87" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="U87" s="8" t="s">
         <v>31</v>
@@ -7620,16 +7774,16 @@
         <v>4</v>
       </c>
       <c r="W87" s="8"/>
-      <c r="X87" s="19"/>
+      <c r="X87" s="20"/>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>31</v>
@@ -7676,10 +7830,10 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>16</v>
@@ -7730,10 +7884,10 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>57</v>
@@ -7744,8 +7898,8 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="18" t="s">
-        <v>265</v>
+      <c r="H90" s="19" t="s">
+        <v>266</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>55</v>
@@ -7781,21 +7935,21 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B91" s="18" t="s">
+      <c r="A91" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="9">
         <v>4</v>
       </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
       <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
@@ -7859,13 +8013,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -7875,13 +8029,13 @@
         <v>0</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -7889,52 +8043,52 @@
       <c r="Q97" s="4"/>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="15" t="s">
+      <c r="F98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="13" t="s">
+      <c r="H98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J98" s="13" t="s">
+      <c r="J98" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K98" s="13" t="s">
+      <c r="K98" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L98" s="14" t="s">
+      <c r="L98" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M98" s="15" t="s">
+      <c r="M98" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N98" s="15" t="s">
+      <c r="N98" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O98" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P98" s="15" t="s">
+      <c r="O98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P98" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q98" s="13" t="s">
+      <c r="Q98" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7982,10 +8136,10 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>16</v>
@@ -8000,10 +8154,10 @@
         <v>24</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>16</v>
@@ -8020,10 +8174,10 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>16</v>
@@ -8038,10 +8192,10 @@
         <v>24</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>16</v>
@@ -8058,10 +8212,10 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>31</v>
@@ -8074,10 +8228,10 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="J102" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>16</v>
@@ -8094,10 +8248,10 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>16</v>
@@ -8110,10 +8264,10 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="J103" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L103" s="8" t="s">
         <v>31</v>
@@ -8128,10 +8282,10 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>16</v>
@@ -8144,7 +8298,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="J104" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K104" s="8" t="s">
         <v>38</v>
@@ -8162,10 +8316,10 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>31</v>
@@ -8178,7 +8332,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="J105" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>44</v>
@@ -8305,13 +8459,13 @@
         <v>0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -8321,13 +8475,13 @@
         <v>0</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -8335,52 +8489,52 @@
       <c r="Q110" s="4"/>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E111" s="15" t="s">
+      <c r="E111" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="15" t="s">
+      <c r="F111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="13" t="s">
+      <c r="H111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J111" s="13" t="s">
+      <c r="J111" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K111" s="13" t="s">
+      <c r="K111" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L111" s="14" t="s">
+      <c r="L111" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M111" s="15" t="s">
+      <c r="M111" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N111" s="15" t="s">
+      <c r="N111" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O111" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P111" s="15" t="s">
+      <c r="O111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P111" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q111" s="13" t="s">
+      <c r="Q111" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8428,10 +8582,10 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>16</v>
@@ -8446,10 +8600,10 @@
         <v>24</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L113" s="8" t="s">
         <v>16</v>
@@ -8466,10 +8620,10 @@
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>16</v>
@@ -8484,10 +8638,10 @@
         <v>24</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L114" s="8" t="s">
         <v>16</v>
@@ -8504,10 +8658,10 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>31</v>
@@ -8520,10 +8674,10 @@
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="J115" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L115" s="8" t="s">
         <v>16</v>
@@ -8532,7 +8686,7 @@
         <v>11</v>
       </c>
       <c r="N115" s="8"/>
-      <c r="O115" s="19"/>
+      <c r="O115" s="20"/>
       <c r="P115" s="8"/>
       <c r="Q115" s="8" t="s">
         <v>24</v>
@@ -8540,7 +8694,7 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>38</v>
@@ -8556,10 +8710,10 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
       <c r="J116" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L116" s="8" t="s">
         <v>16</v>
@@ -8568,13 +8722,13 @@
         <v>11</v>
       </c>
       <c r="N116" s="8"/>
-      <c r="O116" s="19"/>
+      <c r="O116" s="20"/>
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>44</v>
@@ -8590,10 +8744,10 @@
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
       <c r="J117" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L117" s="8" t="s">
         <v>31</v>
@@ -8602,16 +8756,16 @@
         <v>4</v>
       </c>
       <c r="N117" s="8"/>
-      <c r="O117" s="19"/>
+      <c r="O117" s="20"/>
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>16</v>
@@ -8642,7 +8796,7 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>33</v>
@@ -8754,13 +8908,13 @@
         <v>0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -8770,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -8784,52 +8938,52 @@
       <c r="Q124" s="4"/>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="7" t="s">
+      <c r="F125" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H125" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J125" s="13" t="s">
+      <c r="J125" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K125" s="13" t="s">
+      <c r="K125" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L125" s="14" t="s">
+      <c r="L125" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M125" s="15" t="s">
+      <c r="M125" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N125" s="15" t="s">
+      <c r="N125" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O125" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P125" s="15" t="s">
+      <c r="O125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P125" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q125" s="13" t="s">
+      <c r="Q125" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8877,10 +9031,10 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>16</v>
@@ -8895,10 +9049,10 @@
         <v>24</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L127" s="8" t="s">
         <v>16</v>
@@ -8915,10 +9069,10 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>16</v>
@@ -8933,10 +9087,10 @@
         <v>24</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L128" s="8" t="s">
         <v>16</v>
@@ -8953,10 +9107,10 @@
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>16</v>
@@ -8971,10 +9125,10 @@
         <v>24</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L129" s="8" t="s">
         <v>16</v>
@@ -8991,10 +9145,10 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>16</v>
@@ -9029,10 +9183,10 @@
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>16</v>
@@ -9065,10 +9219,10 @@
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>31</v>
@@ -9101,10 +9255,10 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>16</v>
@@ -9135,7 +9289,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>38</v>
@@ -9153,7 +9307,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>44</v>
@@ -9171,10 +9325,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>16</v>
@@ -9250,13 +9404,13 @@
         <v>0</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
@@ -9266,13 +9420,13 @@
         <v>0</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V140" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W140" s="4"/>
       <c r="X140" s="4"/>
@@ -9284,90 +9438,90 @@
         <v>0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
-      <c r="J141" s="5" t="s">
+      <c r="J141" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K141" s="5" t="s">
+      <c r="K141" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L141" s="6" t="s">
+      <c r="L141" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M141" s="7" t="s">
+      <c r="M141" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N141" s="7" t="s">
+      <c r="N141" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O141" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P141" s="7" t="s">
+      <c r="O141" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P141" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q141" s="5" t="s">
+      <c r="Q141" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S141" s="5" t="s">
+      <c r="S141" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T141" s="5" t="s">
+      <c r="T141" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U141" s="6" t="s">
+      <c r="U141" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V141" s="7" t="s">
+      <c r="V141" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="W141" s="7" t="s">
+      <c r="W141" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="X141" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y141" s="7" t="s">
+      <c r="X141" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y141" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z141" s="5" t="s">
+      <c r="Z141" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:26">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E142" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F142" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="7" t="s">
+      <c r="F142" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="H142" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J142" s="8" t="s">
@@ -9433,10 +9587,10 @@
       </c>
       <c r="H143" s="8"/>
       <c r="J143" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L143" s="8" t="s">
         <v>16</v>
@@ -9451,10 +9605,10 @@
         <v>24</v>
       </c>
       <c r="S143" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T143" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U143" s="8" t="s">
         <v>16</v>
@@ -9471,10 +9625,10 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>16</v>
@@ -9489,10 +9643,10 @@
         <v>24</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L144" s="8" t="s">
         <v>16</v>
@@ -9507,10 +9661,10 @@
         <v>24</v>
       </c>
       <c r="S144" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T144" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U144" s="8" t="s">
         <v>16</v>
@@ -9527,10 +9681,10 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>16</v>
@@ -9545,10 +9699,10 @@
         <v>24</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L145" s="8" t="s">
         <v>16</v>
@@ -9566,7 +9720,7 @@
         <v>27</v>
       </c>
       <c r="T145" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U145" s="8" t="s">
         <v>16</v>
@@ -9583,10 +9737,10 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>16</v>
@@ -9604,7 +9758,7 @@
         <v>22</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L146" s="8" t="s">
         <v>16</v>
@@ -9622,7 +9776,7 @@
         <v>22</v>
       </c>
       <c r="T146" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U146" s="8" t="s">
         <v>16</v>
@@ -9639,10 +9793,10 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>16</v>
@@ -9655,10 +9809,10 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="J147" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L147" s="8" t="s">
         <v>16</v>
@@ -9671,10 +9825,10 @@
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="S147" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T147" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="U147" s="8" t="s">
         <v>16</v>
@@ -9689,13 +9843,13 @@
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:26">
       <c r="A148" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D148" s="9">
         <v>6</v>
@@ -9705,13 +9859,13 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="J148" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M148" s="9">
         <v>6</v>
@@ -9721,13 +9875,13 @@
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="S148" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T148" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U148" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V148" s="9">
         <v>6</v>
@@ -9898,13 +10052,13 @@
         <v>0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -9914,13 +10068,13 @@
         <v>0</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
@@ -9928,52 +10082,52 @@
       <c r="Q154" s="4"/>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F155" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" s="7" t="s">
+      <c r="F155" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="H155" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J155" s="5" t="s">
+      <c r="J155" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K155" s="5" t="s">
+      <c r="K155" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L155" s="6" t="s">
+      <c r="L155" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M155" s="7" t="s">
+      <c r="M155" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N155" s="7" t="s">
+      <c r="N155" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O155" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P155" s="7" t="s">
+      <c r="O155" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P155" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q155" s="5" t="s">
+      <c r="Q155" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10021,10 +10175,10 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>16</v>
@@ -10039,10 +10193,10 @@
         <v>24</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L157" s="8" t="s">
         <v>16</v>
@@ -10059,10 +10213,10 @@
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>16</v>
@@ -10077,10 +10231,10 @@
         <v>24</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L158" s="8" t="s">
         <v>31</v>
@@ -10095,10 +10249,10 @@
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>31</v>
@@ -10114,7 +10268,7 @@
         <v>49</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L159" s="8" t="s">
         <v>21</v>
@@ -10129,10 +10283,10 @@
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>16</v>
@@ -10147,10 +10301,10 @@
         <v>24</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L160" s="8" t="s">
         <v>16</v>
@@ -10181,10 +10335,10 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="J161" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L161" s="8" t="s">
         <v>21</v>
@@ -10322,19 +10476,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H34" sqref="A25:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="9" style="12"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="9" style="14"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
     <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="20" max="20" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10342,13 +10497,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="16"/>
@@ -10356,28 +10511,28 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10408,7 +10563,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10423,10 +10578,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10441,10 +10596,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10516,24 +10671,24 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="4:14">
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="16"/>
@@ -10541,28 +10696,28 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10593,7 +10748,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10608,10 +10763,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>31</v>
@@ -10626,10 +10781,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -10699,8 +10854,8 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21"/>
     </row>
     <row r="23" spans="1:8">
@@ -10708,13 +10863,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="16"/>
@@ -10722,28 +10877,28 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10810,7 +10965,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -10823,50 +10978,88 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="1:17">
+      <c r="A29" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="17">
+        <v>100</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="J29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>4</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E30" s="8"/>
       <c r="F30" s="9"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>39</v>
@@ -10874,17 +11067,39 @@
       <c r="D31" s="9">
         <v>0</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
+      <c r="E31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="9">
+        <v>11</v>
+      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="8"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>39</v>
@@ -10892,53 +11107,153 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E32" s="9"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="9">
+        <v>11</v>
+      </c>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J33" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="9">
+        <v>11</v>
+      </c>
+      <c r="N33" s="8"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="J34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+    </row>
+    <row r="35" spans="4:17">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35"/>
+      <c r="J35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="16"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
+      <c r="J36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M36" s="9">
+        <v>1</v>
+      </c>
+      <c r="N36" s="9"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
@@ -10990,72 +11305,72 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>49</v>
+        <v>356</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39" s="9">
-        <v>200</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="9"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>83</v>
+        <v>358</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="9">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>348</v>
+        <v>47</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>349</v>
+        <v>48</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D41" s="9">
-        <v>20</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>351</v>
+        <v>52</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D42" s="9">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>17</v>
@@ -11066,186 +11381,206 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D43" s="9">
-        <v>4</v>
-      </c>
-      <c r="E43" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="A46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="9">
+        <v>11</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="9">
+        <v>200</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="A49" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="9">
+        <v>200</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A50" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="9">
+        <v>20</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>14</v>
+        <v>363</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D51" s="9">
-        <v>11</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="11">
-        <v>200</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="A52" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="9">
+        <v>4</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="11">
-        <v>400</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="A53" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>39</v>
@@ -11253,233 +11588,733 @@
       <c r="D54" s="9">
         <v>0</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D55" s="9">
-        <v>0</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E55" s="9"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="9">
-        <v>1</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="A59" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="A60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="9">
+        <v>11</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="8" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D61" s="9">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="11">
-        <v>11</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+      <c r="A62" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="9">
+        <v>400</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="11">
-        <v>200</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="A63" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="11">
-        <v>200</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
+      <c r="A64" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D65" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="8" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="9">
+        <v>11</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="9">
+        <v>11</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="9">
+        <v>200</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="9">
+        <v>200</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="9">
-        <v>0</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="8" t="s">
+      <c r="D75" s="9">
+        <v>0</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B76" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D76" s="9">
         <v>1</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="J79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="9">
+        <v>11</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="J81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" s="9">
+        <v>11</v>
+      </c>
+      <c r="N81" s="8"/>
+      <c r="O81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q81" s="8"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="J82" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="17">
+        <v>11</v>
+      </c>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="10">
+        <v>8000</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="J83" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" s="17">
+        <v>2000</v>
+      </c>
+      <c r="N83" s="10"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="10">
+        <v>4</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="J84" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="17">
+        <v>11</v>
+      </c>
+      <c r="N84" s="10"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="10"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="10">
+        <v>4</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="J85" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M85" s="9">
+        <v>0</v>
+      </c>
+      <c r="N85" s="9"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="J86" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M86" s="9">
+        <v>0</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="J87" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M87" s="9">
+        <v>1</v>
+      </c>
+      <c r="N87" s="9"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="9">
+        <v>1</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D23:H23"/>
+    <mergeCell ref="M29:Q29"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="M79:Q79"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -11489,10 +12324,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11508,13 +12343,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -11524,13 +12359,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -11538,52 +12373,52 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11631,10 +12466,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -11649,7 +12484,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>23</v>
@@ -11669,10 +12504,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -11684,34 +12519,34 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="11">
-        <v>11</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10" t="s">
+      <c r="J5" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="9">
+        <v>11</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D6" s="9">
         <v>8</v>
@@ -11720,29 +12555,29 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="L6" s="10" t="s">
+      <c r="K6" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>200</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -11754,131 +12589,131 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="J7" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="11">
-        <v>11</v>
-      </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="J7" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="9">
+        <v>11</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="J8" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="9">
         <v>8</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>381</v>
+      <c r="A9" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="11">
+        <v>110</v>
+      </c>
+      <c r="D9" s="9">
         <v>8</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="J9" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" s="11">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="9">
         <v>8</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>385</v>
+      <c r="A10" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="11">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9">
         <v>8</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="J10" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="11">
-        <v>11</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="9">
+        <v>11</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -11892,22 +12727,22 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="J11" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="J11" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="9">
         <v>8</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
@@ -11926,22 +12761,22 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="J12" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" s="11">
+      <c r="J12" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="9">
         <v>8</v>
       </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
@@ -12038,13 +12873,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -12054,13 +12889,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -12068,52 +12903,52 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="O18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12161,7 +12996,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>23</v>
@@ -12179,10 +13014,10 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>16</v>
@@ -12199,10 +13034,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -12217,10 +13052,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>16</v>
@@ -12236,30 +13071,26 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="8" t="s">
+      <c r="A22" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="9">
-        <v>4</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="J22" s="8" t="s">
-        <v>370</v>
-      </c>
       <c r="K22" s="8" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M22" s="9">
         <v>8</v>
@@ -12271,23 +13102,23 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="D23" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>33</v>
@@ -12305,23 +13136,23 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="D24" s="9">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>13</v>
@@ -12339,16 +13170,16 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D25" s="9">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -12373,16 +13204,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D26" s="9">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -12409,16 +13240,16 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D27" s="9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -12443,16 +13274,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>100</v>
+        <v>404</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>405</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D28" s="9">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -12461,28 +13292,28 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>2000</v>
+      </c>
+      <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>39</v>
@@ -12490,37 +13321,216 @@
       <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D31" s="9">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="9">
+        <v>11</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="9">
+        <v>11</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="9">
+        <v>20000</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="D34:H34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -12532,15 +13542,15 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="4" max="5" width="9" style="12"/>
+    <col min="4" max="5" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12548,13 +13558,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -12562,28 +13572,28 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12614,7 +13624,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -12686,13 +13696,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -12700,28 +13710,28 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12749,10 +13759,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -12772,7 +13782,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -12846,13 +13856,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -12860,28 +13870,28 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12909,10 +13919,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -12929,10 +13939,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>16</v>
@@ -12949,10 +13959,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -12967,10 +13977,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -12985,10 +13995,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>57</v>
@@ -13062,13 +14072,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -13076,28 +14086,28 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="15" t="s">
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13125,10 +14135,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>31</v>
@@ -13143,10 +14153,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>21</v>
@@ -13161,10 +14171,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>21</v>
@@ -13265,13 +14275,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13279,28 +14289,28 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13331,7 +14341,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -13347,29 +14357,29 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>4</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -13386,10 +14396,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -13460,18 +14470,18 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="13" ht="22.5" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -13479,28 +14489,28 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13528,10 +14538,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>16</v>
@@ -13548,10 +14558,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -13568,10 +14578,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>21</v>
@@ -13666,4 +14676,566 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H29" sqref="A25:H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="9">
+        <v>11</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="9">
+        <v>11</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D31:H31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477">
   <si>
     <t>表名</t>
   </si>
@@ -324,7 +324,7 @@
     <t>角色</t>
   </si>
   <si>
-    <t>schoolld</t>
+    <t>schoolId</t>
   </si>
   <si>
     <t>学校id</t>
@@ -336,6 +336,12 @@
     <t>审核备注</t>
   </si>
   <si>
+    <t>reserveName</t>
+  </si>
+  <si>
+    <t>备用学校名称</t>
+  </si>
+  <si>
     <t>memberExtendStatus</t>
   </si>
   <si>
@@ -1132,6 +1138,9 @@
   </si>
   <si>
     <t>标题</t>
+  </si>
+  <si>
+    <t>描述</t>
   </si>
   <si>
     <t>路径</t>
@@ -2501,8 +2510,8 @@
   <sheetPr/>
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3630,7 +3639,9 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -3688,27 +3699,27 @@
       <c r="Q33" s="8"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="A34" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="17">
+        <v>200</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
       <c r="J34" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>31</v>
@@ -3723,10 +3734,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>39</v>
@@ -3734,9 +3745,7 @@
       <c r="D35" s="9">
         <v>0</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -3759,18 +3768,20 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -3793,9 +3804,23 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="4:17">
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+    <row r="37" spans="1:17">
+      <c r="A37" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
       <c r="J37" s="8" t="s">
         <v>55</v>
       </c>
@@ -3818,13 +3843,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3901,13 +3926,13 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D43" s="9">
         <v>8</v>
@@ -3919,13 +3944,13 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="D44" s="9">
         <v>8</v>
@@ -3937,13 +3962,13 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D45" s="9">
         <v>8</v>
@@ -4018,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -4101,10 +4126,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>16</v>
@@ -4121,13 +4146,13 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D56" s="9">
         <v>8</v>
@@ -4202,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -4265,10 +4290,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -4301,10 +4326,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>16</v>
@@ -4319,10 +4344,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>16</v>
@@ -4337,13 +4362,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D69" s="9">
         <v>8</v>
@@ -4358,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>21</v>
@@ -4436,13 +4461,13 @@
         <v>0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -4499,10 +4524,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -4517,10 +4542,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>16</v>
@@ -4538,7 +4563,7 @@
         <v>22</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>16</v>
@@ -4553,13 +4578,13 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D82" s="9">
         <v>6</v>
@@ -4571,10 +4596,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>21</v>
@@ -4654,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -4717,10 +4742,10 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>16</v>
@@ -4757,10 +4782,10 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>16</v>
@@ -4777,10 +4802,10 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>16</v>
@@ -4797,10 +4822,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>31</v>
@@ -4815,10 +4840,10 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>31</v>
@@ -4927,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -4990,10 +5015,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -5030,10 +5055,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -5048,10 +5073,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5155,13 +5180,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5171,13 +5196,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -5294,10 +5319,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>16</v>
@@ -5330,10 +5355,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>21</v>
@@ -5350,7 +5375,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>85</v>
@@ -5366,10 +5391,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -5389,7 +5414,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>39</v>
@@ -5425,7 +5450,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -5460,7 +5485,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>30</v>
@@ -5751,13 +5776,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -5767,13 +5792,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -5874,10 +5899,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>16</v>
@@ -5892,10 +5917,10 @@
         <v>24</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>16</v>
@@ -5915,7 +5940,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>21</v>
@@ -5933,7 +5958,7 @@
         <v>102</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>21</v>
@@ -5951,7 +5976,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -5964,10 +5989,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>16</v>
@@ -5984,10 +6009,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>39</v>
@@ -6018,10 +6043,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>39</v>
@@ -6054,10 +6079,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>39</v>
@@ -6088,10 +6113,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>39</v>
@@ -6106,10 +6131,10 @@
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>39</v>
@@ -6125,13 +6150,13 @@
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -6143,7 +6168,7 @@
         <v>102</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>21</v>
@@ -6182,10 +6207,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>21</v>
@@ -6220,10 +6245,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -6236,10 +6261,10 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>16</v>
@@ -6256,10 +6281,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -6272,10 +6297,10 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>21</v>
@@ -6290,10 +6315,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>31</v>
@@ -6324,10 +6349,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -6360,10 +6385,10 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>31</v>
@@ -6394,13 +6419,13 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D44" s="9">
         <v>6</v>
@@ -6412,10 +6437,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -6432,13 +6457,13 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D46" s="9">
         <v>4</v>
@@ -6513,13 +6538,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -6529,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -6636,10 +6661,10 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>16</v>
@@ -6654,10 +6679,10 @@
         <v>24</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>16</v>
@@ -6674,10 +6699,10 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>16</v>
@@ -6690,10 +6715,10 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="J56" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>31</v>
@@ -6708,10 +6733,10 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>31</v>
@@ -6726,10 +6751,10 @@
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="J57" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>16</v>
@@ -6744,10 +6769,10 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>31</v>
@@ -6762,10 +6787,10 @@
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="J58" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L58" s="8" t="s">
         <v>39</v>
@@ -6780,13 +6805,13 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D59" s="9">
         <v>6</v>
@@ -6798,10 +6823,10 @@
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="J59" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L59" s="8" t="s">
         <v>39</v>
@@ -6816,13 +6841,13 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D60" s="9">
         <v>6</v>
@@ -6834,10 +6859,10 @@
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="J60" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>39</v>
@@ -6852,10 +6877,10 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>16</v>
@@ -6870,7 +6895,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="J61" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>33</v>
@@ -6888,10 +6913,10 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>16</v>
@@ -6924,10 +6949,10 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>16</v>
@@ -6960,10 +6985,10 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -7057,13 +7082,13 @@
         <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -7073,13 +7098,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -7180,10 +7205,10 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>16</v>
@@ -7198,10 +7223,10 @@
         <v>24</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L73" s="8" t="s">
         <v>16</v>
@@ -7221,7 +7246,7 @@
         <v>40</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>21</v>
@@ -7239,7 +7264,7 @@
         <v>22</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L74" s="8" t="s">
         <v>16</v>
@@ -7259,7 +7284,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>21</v>
@@ -7272,10 +7297,10 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="J75" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L75" s="8" t="s">
         <v>16</v>
@@ -7292,10 +7317,10 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>16</v>
@@ -7326,7 +7351,7 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>33</v>
@@ -7441,13 +7466,13 @@
         <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -7457,13 +7482,13 @@
         <v>0</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -7473,13 +7498,13 @@
         <v>0</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
@@ -7624,10 +7649,10 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>16</v>
@@ -7642,10 +7667,10 @@
         <v>24</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L85" s="8" t="s">
         <v>16</v>
@@ -7660,10 +7685,10 @@
         <v>24</v>
       </c>
       <c r="S85" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T85" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U85" s="8" t="s">
         <v>16</v>
@@ -7680,10 +7705,10 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>57</v>
@@ -7696,10 +7721,10 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L86" s="8" t="s">
         <v>31</v>
@@ -7712,10 +7737,10 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="S86" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="T86" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U86" s="8" t="s">
         <v>31</v>
@@ -7730,10 +7755,10 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>31</v>
@@ -7746,10 +7771,10 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L87" s="8" t="s">
         <v>31</v>
@@ -7762,10 +7787,10 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="S87" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="T87" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="U87" s="8" t="s">
         <v>31</v>
@@ -7780,10 +7805,10 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>31</v>
@@ -7830,10 +7855,10 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>16</v>
@@ -7884,10 +7909,10 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>57</v>
@@ -7899,7 +7924,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>55</v>
@@ -7936,10 +7961,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>16</v>
@@ -8013,13 +8038,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -8029,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -8136,10 +8161,10 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>16</v>
@@ -8154,10 +8179,10 @@
         <v>24</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>16</v>
@@ -8174,10 +8199,10 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>16</v>
@@ -8192,10 +8217,10 @@
         <v>24</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>16</v>
@@ -8212,10 +8237,10 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>31</v>
@@ -8228,10 +8253,10 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="J102" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>16</v>
@@ -8248,10 +8273,10 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>16</v>
@@ -8264,10 +8289,10 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="J103" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L103" s="8" t="s">
         <v>31</v>
@@ -8282,10 +8307,10 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>16</v>
@@ -8298,7 +8323,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="J104" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K104" s="8" t="s">
         <v>38</v>
@@ -8316,10 +8341,10 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>31</v>
@@ -8332,7 +8357,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="J105" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>44</v>
@@ -8459,13 +8484,13 @@
         <v>0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -8475,13 +8500,13 @@
         <v>0</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -8582,10 +8607,10 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>16</v>
@@ -8600,10 +8625,10 @@
         <v>24</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L113" s="8" t="s">
         <v>16</v>
@@ -8620,10 +8645,10 @@
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>16</v>
@@ -8638,10 +8663,10 @@
         <v>24</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L114" s="8" t="s">
         <v>16</v>
@@ -8658,10 +8683,10 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>31</v>
@@ -8674,10 +8699,10 @@
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="J115" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L115" s="8" t="s">
         <v>16</v>
@@ -8694,7 +8719,7 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>38</v>
@@ -8710,10 +8735,10 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
       <c r="J116" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L116" s="8" t="s">
         <v>16</v>
@@ -8728,7 +8753,7 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>44</v>
@@ -8744,10 +8769,10 @@
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
       <c r="J117" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L117" s="8" t="s">
         <v>31</v>
@@ -8762,10 +8787,10 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>16</v>
@@ -8796,7 +8821,7 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>33</v>
@@ -8908,13 +8933,13 @@
         <v>0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -8924,13 +8949,13 @@
         <v>0</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -9031,10 +9056,10 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>16</v>
@@ -9049,10 +9074,10 @@
         <v>24</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L127" s="8" t="s">
         <v>16</v>
@@ -9069,10 +9094,10 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>16</v>
@@ -9087,10 +9112,10 @@
         <v>24</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L128" s="8" t="s">
         <v>16</v>
@@ -9107,10 +9132,10 @@
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>16</v>
@@ -9125,10 +9150,10 @@
         <v>24</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L129" s="8" t="s">
         <v>16</v>
@@ -9145,10 +9170,10 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>16</v>
@@ -9183,10 +9208,10 @@
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>16</v>
@@ -9219,10 +9244,10 @@
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>31</v>
@@ -9255,10 +9280,10 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>16</v>
@@ -9289,7 +9314,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>38</v>
@@ -9307,7 +9332,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>44</v>
@@ -9325,10 +9350,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>16</v>
@@ -9404,13 +9429,13 @@
         <v>0</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
@@ -9420,13 +9445,13 @@
         <v>0</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="U140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V140" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="W140" s="4"/>
       <c r="X140" s="4"/>
@@ -9438,13 +9463,13 @@
         <v>0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -9587,10 +9612,10 @@
       </c>
       <c r="H143" s="8"/>
       <c r="J143" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L143" s="8" t="s">
         <v>16</v>
@@ -9605,10 +9630,10 @@
         <v>24</v>
       </c>
       <c r="S143" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T143" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="U143" s="8" t="s">
         <v>16</v>
@@ -9625,10 +9650,10 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>16</v>
@@ -9643,10 +9668,10 @@
         <v>24</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L144" s="8" t="s">
         <v>16</v>
@@ -9661,10 +9686,10 @@
         <v>24</v>
       </c>
       <c r="S144" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="T144" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="U144" s="8" t="s">
         <v>16</v>
@@ -9681,10 +9706,10 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>16</v>
@@ -9699,10 +9724,10 @@
         <v>24</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L145" s="8" t="s">
         <v>16</v>
@@ -9720,7 +9745,7 @@
         <v>27</v>
       </c>
       <c r="T145" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="U145" s="8" t="s">
         <v>16</v>
@@ -9737,10 +9762,10 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>16</v>
@@ -9758,7 +9783,7 @@
         <v>22</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L146" s="8" t="s">
         <v>16</v>
@@ -9776,7 +9801,7 @@
         <v>22</v>
       </c>
       <c r="T146" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="U146" s="8" t="s">
         <v>16</v>
@@ -9793,10 +9818,10 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>16</v>
@@ -9809,10 +9834,10 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="J147" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L147" s="8" t="s">
         <v>16</v>
@@ -9825,10 +9850,10 @@
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="S147" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="T147" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="U147" s="8" t="s">
         <v>16</v>
@@ -9843,13 +9868,13 @@
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:26">
       <c r="A148" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D148" s="9">
         <v>6</v>
@@ -9859,13 +9884,13 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="J148" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M148" s="9">
         <v>6</v>
@@ -9875,13 +9900,13 @@
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="S148" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="T148" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="U148" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V148" s="9">
         <v>6</v>
@@ -10052,13 +10077,13 @@
         <v>0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -10068,13 +10093,13 @@
         <v>0</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
@@ -10175,10 +10200,10 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>16</v>
@@ -10193,10 +10218,10 @@
         <v>24</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L157" s="8" t="s">
         <v>16</v>
@@ -10213,10 +10238,10 @@
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>16</v>
@@ -10231,10 +10256,10 @@
         <v>24</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L158" s="8" t="s">
         <v>31</v>
@@ -10249,10 +10274,10 @@
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>31</v>
@@ -10268,7 +10293,7 @@
         <v>49</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L159" s="8" t="s">
         <v>21</v>
@@ -10283,10 +10308,10 @@
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>16</v>
@@ -10301,10 +10326,10 @@
         <v>24</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L160" s="8" t="s">
         <v>16</v>
@@ -10338,7 +10363,7 @@
         <v>102</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L161" s="8" t="s">
         <v>21</v>
@@ -10476,10 +10501,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H34" sqref="A25:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10497,13 +10522,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="16"/>
@@ -10563,7 +10588,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10578,10 +10603,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10596,10 +10621,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10682,13 +10707,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="16"/>
@@ -10748,7 +10773,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10763,10 +10788,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>31</v>
@@ -10781,10 +10806,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -10863,13 +10888,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="16"/>
@@ -10965,7 +10990,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -10980,10 +11005,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>21</v>
@@ -10999,13 +11024,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="16"/>
@@ -11014,7 +11039,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>85</v>
@@ -11059,7 +11084,7 @@
         <v>87</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>39</v>
@@ -11112,10 +11137,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>16</v>
@@ -11148,10 +11173,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>16</v>
@@ -11226,13 +11251,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="16"/>
@@ -11305,10 +11330,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -11328,7 +11353,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>21</v>
@@ -11402,13 +11427,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="16"/>
@@ -11468,7 +11493,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>21</v>
@@ -11501,10 +11526,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>21</v>
@@ -11521,10 +11546,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
@@ -11541,7 +11566,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>33</v>
@@ -11618,13 +11643,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="16"/>
@@ -11681,10 +11706,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>21</v>
@@ -11699,16 +11724,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="8" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="9">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
@@ -11717,28 +11742,28 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="8" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D63" s="9">
-        <v>0</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="8"/>
+        <v>1000</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>39</v>
@@ -11746,103 +11771,99 @@
       <c r="D64" s="9">
         <v>0</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E64" s="9"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D65" s="9">
-        <v>1</v>
-      </c>
-      <c r="E65" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C68" s="1" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="5" t="s">
+      <c r="D69" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="F70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H70" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="9">
-        <v>11</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -11851,22 +11872,26 @@
         <v>11</v>
       </c>
       <c r="E71" s="8"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="8"/>
+      <c r="F71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8" t="s">
-        <v>368</v>
+        <v>168</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>369</v>
+        <v>120</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D72" s="9">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
@@ -11875,10 +11900,10 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="8" t="s">
-        <v>191</v>
+        <v>370</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>21</v>
@@ -11891,227 +11916,223 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="9">
-        <v>0</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
+        <v>372</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="8" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>52</v>
+        <v>373</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D75" s="9">
-        <v>0</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D76" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C79" s="1" t="s">
+    <row r="77" spans="1:8">
+      <c r="A77" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="J79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="L79" s="1" t="s">
+      <c r="D80" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="J80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M79" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="5" t="s">
+      <c r="M80" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="7" t="s">
+      <c r="F81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="J81" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="K81" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L80" s="6" t="s">
+      <c r="L81" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M80" s="7" t="s">
+      <c r="M81" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N80" s="7" t="s">
+      <c r="N81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P80" s="7" t="s">
+      <c r="O81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q80" s="5" t="s">
+      <c r="Q81" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="8" t="s">
+    <row r="82" spans="1:17">
+      <c r="A82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="9">
-        <v>11</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="9" t="s">
+      <c r="C82" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="9">
+        <v>11</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="J81" s="8" t="s">
+      <c r="H82" s="8"/>
+      <c r="J82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K82" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M81" s="9">
-        <v>11</v>
-      </c>
-      <c r="N81" s="8"/>
-      <c r="O81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P81" s="9" t="s">
+      <c r="L82" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="9">
+        <v>11</v>
+      </c>
+      <c r="N82" s="8"/>
+      <c r="O82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P82" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q81" s="8"/>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="10">
-        <v>2000</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="J82" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="K82" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="L82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M82" s="17">
-        <v>11</v>
-      </c>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q82" s="8"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="10" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>380</v>
@@ -12120,71 +12141,71 @@
         <v>21</v>
       </c>
       <c r="D83" s="10">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="18"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="J83" s="10" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M83" s="17">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="N83" s="10"/>
-      <c r="O83" s="18"/>
+      <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
+      <c r="Q83" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="10" t="s">
-        <v>381</v>
+        <v>102</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>39</v>
+        <v>383</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D84" s="10">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="18"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="J84" s="10" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M84" s="17">
-        <v>11</v>
+        <v>2000</v>
       </c>
       <c r="N84" s="10"/>
       <c r="O84" s="18"/>
-      <c r="P84" s="10">
-        <v>0</v>
-      </c>
+      <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>386</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>39</v>
@@ -12196,45 +12217,47 @@
       <c r="F85" s="18"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
-      <c r="J85" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M85" s="9">
-        <v>0</v>
-      </c>
-      <c r="N85" s="9"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
+      <c r="J85" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="17">
+        <v>11</v>
+      </c>
+      <c r="N85" s="10"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="10"/>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>48</v>
+      <c r="A86" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="9">
-        <v>0</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
+      <c r="D86" s="10">
+        <v>4</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
       <c r="J86" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L86" s="8" t="s">
         <v>39</v>
@@ -12242,19 +12265,17 @@
       <c r="M86" s="9">
         <v>0</v>
       </c>
-      <c r="N86" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N86" s="9"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>39</v>
@@ -12262,46 +12283,82 @@
       <c r="D87" s="9">
         <v>0</v>
       </c>
-      <c r="E87" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E87" s="9"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M87" s="9">
-        <v>1</v>
-      </c>
-      <c r="N87" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:17">
       <c r="A88" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D88" s="9">
-        <v>1</v>
-      </c>
-      <c r="E88" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
+      <c r="J88" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M88" s="9">
+        <v>1</v>
+      </c>
+      <c r="N88" s="9"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="9">
+        <v>1</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12312,9 +12369,9 @@
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="M79:Q79"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="M80:Q80"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -12343,13 +12400,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -12359,13 +12416,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -12466,10 +12523,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -12484,7 +12541,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>23</v>
@@ -12504,10 +12561,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -12520,10 +12577,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>16</v>
@@ -12540,13 +12597,13 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D6" s="9">
         <v>8</v>
@@ -12559,7 +12616,7 @@
         <v>49</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -12574,10 +12631,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -12590,10 +12647,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>16</v>
@@ -12608,10 +12665,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>39</v>
@@ -12624,13 +12681,13 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M8" s="9">
         <v>8</v>
@@ -12642,13 +12699,13 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
@@ -12658,13 +12715,13 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M9" s="9">
         <v>8</v>
@@ -12676,13 +12733,13 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D10" s="9">
         <v>8</v>
@@ -12692,10 +12749,10 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>16</v>
@@ -12713,7 +12770,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -12728,13 +12785,13 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M11" s="9">
         <v>8</v>
@@ -12762,13 +12819,13 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M12" s="9">
         <v>8</v>
@@ -12873,13 +12930,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -12889,13 +12946,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -12996,7 +13053,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>23</v>
@@ -13014,10 +13071,10 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>16</v>
@@ -13034,10 +13091,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -13052,10 +13109,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>16</v>
@@ -13072,10 +13129,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B22" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -13084,13 +13141,13 @@
         <v>2000</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M22" s="9">
         <v>8</v>
@@ -13102,10 +13159,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -13118,7 +13175,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>33</v>
@@ -13136,13 +13193,13 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D24" s="9">
         <v>8</v>
@@ -13170,10 +13227,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -13204,10 +13261,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>31</v>
@@ -13240,10 +13297,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -13274,10 +13331,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>39</v>
@@ -13369,13 +13426,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -13432,10 +13489,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>16</v>
@@ -13452,10 +13509,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>21</v>
@@ -13542,8 +13599,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -13558,13 +13615,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13624,7 +13681,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -13696,13 +13753,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -13759,10 +13816,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -13782,7 +13839,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -13856,13 +13913,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -13919,10 +13976,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -13939,10 +13996,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>16</v>
@@ -13959,16 +14016,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
@@ -13977,16 +14034,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="9">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="8"/>
@@ -13995,10 +14052,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>57</v>
@@ -14072,13 +14129,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -14135,10 +14192,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>31</v>
@@ -14153,10 +14210,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>21</v>
@@ -14171,10 +14228,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>21</v>
@@ -14275,13 +14332,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -14341,7 +14398,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -14361,7 +14418,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -14376,10 +14433,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -14396,10 +14453,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -14475,13 +14532,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -14538,10 +14595,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>16</v>
@@ -14558,10 +14615,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -14578,10 +14635,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>21</v>
@@ -14701,7 +14758,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -14837,13 +14894,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -14969,13 +15026,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -15101,13 +15158,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="5"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474">
   <si>
     <t>表名</t>
   </si>
@@ -36,7 +36,7 @@
     <t>会员表</t>
   </si>
   <si>
-    <t>t_member_trainer</t>
+    <t>t_player_trainer</t>
   </si>
   <si>
     <t>会员教练表</t>
@@ -135,10 +135,10 @@
     <t>id/passport</t>
   </si>
   <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>是否是主动</t>
+    <t>IsPositive</t>
+  </si>
+  <si>
+    <t>是否正面 1 选手绑定教练 2. 教练绑定选手</t>
   </si>
   <si>
     <t>bit</t>
@@ -153,6 +153,12 @@
     <t>系统生成</t>
   </si>
   <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>姓</t>
+  </si>
+  <si>
     <t>startdate</t>
   </si>
   <si>
@@ -162,10 +168,10 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>姓</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>名</t>
   </si>
   <si>
     <t>enddate</t>
@@ -174,10 +180,10 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>名</t>
+    <t>completename</t>
+  </si>
+  <si>
+    <t>完整姓名</t>
   </si>
   <si>
     <t>createtime</t>
@@ -186,10 +192,10 @@
     <t>创建时间</t>
   </si>
   <si>
-    <t>completename</t>
-  </si>
-  <si>
-    <t>完整姓名</t>
+    <t>pinyinsurname</t>
+  </si>
+  <si>
+    <t>拼音姓</t>
   </si>
   <si>
     <t>updatetime</t>
@@ -198,10 +204,10 @@
     <t>更新时间</t>
   </si>
   <si>
-    <t>pinyinsurname</t>
-  </si>
-  <si>
-    <t>拼音姓</t>
+    <t>pinyinname</t>
+  </si>
+  <si>
+    <t>拼音名</t>
   </si>
   <si>
     <t>isdelete</t>
@@ -210,30 +216,24 @@
     <t>是否删除</t>
   </si>
   <si>
-    <t>pinyinname</t>
-  </si>
-  <si>
-    <t>拼音名</t>
-  </si>
-  <si>
     <t>completepinyin</t>
   </si>
   <si>
     <t>完整拼音姓名</t>
   </si>
   <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>年级</t>
+  </si>
+  <si>
     <t>t_membertemp</t>
   </si>
   <si>
     <t>会员临时表</t>
   </si>
   <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>年级</t>
-  </si>
-  <si>
     <t>contactmobile</t>
   </si>
   <si>
@@ -246,13 +246,19 @@
     <t>紧急联系人</t>
   </si>
   <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
     <t>临时会员id</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>性别</t>
+    <t>contactaddress</t>
+  </si>
+  <si>
+    <t>联系地址</t>
   </si>
   <si>
     <t>tempType</t>
@@ -261,19 +267,22 @@
     <t>临时会员类型</t>
   </si>
   <si>
-    <t>contactaddress</t>
-  </si>
-  <si>
-    <t>联系地址</t>
+    <t>memberType</t>
+  </si>
+  <si>
+    <t>会员类型</t>
   </si>
   <si>
     <t>队伍编码/临时裁判编码</t>
   </si>
   <si>
-    <t>memberType</t>
-  </si>
-  <si>
-    <t>会员类型</t>
+    <t>memberStatus</t>
+  </si>
+  <si>
+    <t>账号状态</t>
+  </si>
+  <si>
+    <t></t>
   </si>
   <si>
     <t>email</t>
@@ -282,15 +291,6 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>memberStatus</t>
-  </si>
-  <si>
-    <t>账号状态</t>
-  </si>
-  <si>
-    <t></t>
-  </si>
-  <si>
     <t>lastlogintime</t>
   </si>
   <si>
@@ -309,7 +309,7 @@
     <t>临时状态</t>
   </si>
   <si>
-    <t>t_membereduexper</t>
+    <t>t_playereduexper</t>
   </si>
   <si>
     <t>学生教育经历表</t>
@@ -324,16 +324,22 @@
     <t>起始时间</t>
   </si>
   <si>
+    <t>schoolId</t>
+  </si>
+  <si>
+    <t>学校id</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
     <t>角色</t>
   </si>
   <si>
-    <t>schoolId</t>
-  </si>
-  <si>
-    <t>学校id</t>
+    <t>reserveName</t>
+  </si>
+  <si>
+    <t>备用学校名称</t>
   </si>
   <si>
     <t>remark</t>
@@ -342,12 +348,6 @@
     <t>审核备注</t>
   </si>
   <si>
-    <t>reserveName</t>
-  </si>
-  <si>
-    <t>备用学校名称</t>
-  </si>
-  <si>
     <t>memberExtendStatus</t>
   </si>
   <si>
@@ -420,7 +420,7 @@
     <t>获取积分备注</t>
   </si>
   <si>
-    <t>t_signupform_member</t>
+    <t>t_signupform_player</t>
   </si>
   <si>
     <t>会员报名表</t>
@@ -444,7 +444,7 @@
     <t>组队编码</t>
   </si>
   <si>
-    <t>t_signupform_member_detail</t>
+    <t>t_signupform_player_detail</t>
   </si>
   <si>
     <t>报名详情表</t>
@@ -1024,9 +1024,6 @@
   </si>
   <si>
     <t>邮件日志表</t>
-  </si>
-  <si>
-    <t>发送类型</t>
   </si>
   <si>
     <t>content</t>
@@ -1454,9 +1451,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1493,31 +1490,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1531,30 +1506,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1568,17 +1528,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1593,7 +1544,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1608,23 +1606,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,7 +1648,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,49 +1678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,13 +1702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,7 +1720,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,61 +1750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,13 +1768,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1884,69 +1881,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1968,6 +1908,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1981,16 +1963,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1999,133 +1996,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2494,8 +2491,8 @@
   <sheetPr/>
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2780,7 +2777,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -2801,29 +2798,13 @@
       <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -2838,13 +2819,13 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
@@ -2856,10 +2837,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>21</v>
@@ -2874,28 +2855,28 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M10" s="9">
         <v>0</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -2910,30 +2891,28 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M11" s="9">
         <v>0</v>
       </c>
-      <c r="N11" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N11" s="9"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>21</v>
@@ -2948,28 +2927,30 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M12" s="9">
-        <v>1</v>
-      </c>
-      <c r="N12" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -2983,8 +2964,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="J13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -3003,29 +3000,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="J14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
@@ -3039,30 +3020,22 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="J15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
@@ -3083,26 +3056,30 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="J16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="9">
-        <v>11</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="8"/>
+      <c r="J16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
@@ -3124,10 +3101,10 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>16</v>
@@ -3136,16 +3113,20 @@
         <v>11</v>
       </c>
       <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="O17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>31</v>
@@ -3160,16 +3141,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="J18" s="8" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M18" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -3178,10 +3159,10 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -3196,16 +3177,16 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="J19" s="8" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M19" s="9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -3214,10 +3195,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>31</v>
@@ -3230,10 +3211,10 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="J20" s="8" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>21</v>
@@ -3241,19 +3222,17 @@
       <c r="M20" s="9">
         <v>100</v>
       </c>
-      <c r="N20" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -3263,23 +3242,25 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="J21" s="8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="9">
-        <v>20</v>
-      </c>
-      <c r="N21" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
@@ -3292,7 +3273,7 @@
         <v>90</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -3304,33 +3285,31 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9">
-        <v>11</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -3340,31 +3319,33 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M23" s="9">
-        <v>4</v>
-      </c>
-      <c r="N23" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
@@ -3376,16 +3357,16 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M24" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="8"/>
@@ -3394,10 +3375,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>39</v>
@@ -3410,43 +3391,43 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M25" s="9">
         <v>0</v>
       </c>
-      <c r="N25" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N25" s="9"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M26" s="9">
-        <v>1</v>
-      </c>
-      <c r="N26" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3463,8 +3444,24 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="J27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="9">
+        <v>1</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
@@ -3489,22 +3486,6 @@
       <c r="H28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
@@ -3527,30 +3508,22 @@
         <v>18</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="J29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
@@ -3571,36 +3544,40 @@
       <c r="H30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" s="9">
-        <v>11</v>
-      </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="8"/>
+      <c r="J30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
@@ -3610,10 +3587,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>16</v>
@@ -3622,19 +3599,23 @@
         <v>11</v>
       </c>
       <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="O31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D32" s="9">
         <v>0</v>
@@ -3646,16 +3627,16 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M32" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -3664,10 +3645,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>16</v>
@@ -3682,16 +3663,16 @@
         <v>24</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M33" s="9">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -3700,10 +3681,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>21</v>
@@ -3716,16 +3697,16 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M34" s="9">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -3734,13 +3715,13 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D35" s="9">
         <v>0</v>
@@ -3750,31 +3731,31 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36" s="9">
         <v>0</v>
@@ -3786,30 +3767,28 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M36" s="9">
         <v>0</v>
       </c>
-      <c r="N36" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N36" s="9"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>39</v>
@@ -3822,21 +3801,41 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M37" s="9">
-        <v>1</v>
-      </c>
-      <c r="N37" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1</v>
+      </c>
+      <c r="N38" s="9"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -3980,13 +3979,13 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D46" s="9">
         <v>0</v>
@@ -3998,13 +3997,13 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D47" s="9">
         <v>0</v>
@@ -4018,10 +4017,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>39</v>
@@ -4164,13 +4163,13 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
@@ -4182,13 +4181,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D58" s="9">
         <v>0</v>
@@ -4202,10 +4201,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>39</v>
@@ -4398,7 +4397,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>131</v>
@@ -4416,13 +4415,13 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D72" s="9">
         <v>0</v>
@@ -4434,13 +4433,13 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D73" s="9">
         <v>0</v>
@@ -4454,10 +4453,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>39</v>
@@ -4634,13 +4633,13 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D85" s="9">
         <v>0</v>
@@ -4652,13 +4651,13 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D86" s="9">
         <v>0</v>
@@ -4672,10 +4671,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>39</v>
@@ -4876,13 +4875,13 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D99" s="9">
         <v>0</v>
@@ -4894,13 +4893,13 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D100" s="9">
         <v>0</v>
@@ -4914,10 +4913,10 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>39</v>
@@ -4934,9 +4933,9 @@
   <mergeCells count="10">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="M15:Q15"/>
     <mergeCell ref="D27:H27"/>
-    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="D62:H62"/>
@@ -5109,13 +5108,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -5127,13 +5126,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -5147,10 +5146,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>39</v>
@@ -5377,7 +5376,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>161</v>
@@ -5395,7 +5394,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>162</v>
@@ -5437,7 +5436,7 @@
         <v>166</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -5447,13 +5446,13 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M7" s="9">
         <v>0</v>
@@ -5471,7 +5470,7 @@
         <v>168</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -5481,13 +5480,13 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M8" s="9">
         <v>0</v>
@@ -5507,7 +5506,7 @@
         <v>170</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -5517,10 +5516,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>39</v>
@@ -5541,7 +5540,7 @@
         <v>172</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -5559,7 +5558,7 @@
         <v>174</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -5587,7 +5586,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>177</v>
@@ -5753,13 +5752,13 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="J16" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M16" s="9">
         <v>0</v>
@@ -5787,13 +5786,13 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M17" s="9">
         <v>0</v>
@@ -5823,10 +5822,10 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="J18" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>39</v>
@@ -5897,13 +5896,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -5915,13 +5914,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -5935,10 +5934,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>39</v>
@@ -6215,7 +6214,7 @@
         <v>210</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M33" s="9">
         <v>0</v>
@@ -6251,7 +6250,7 @@
         <v>214</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M34" s="9">
         <v>0</v>
@@ -6287,7 +6286,7 @@
         <v>218</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M35" s="9">
         <v>0</v>
@@ -6353,13 +6352,13 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M37" s="9">
         <v>0</v>
@@ -6387,13 +6386,13 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M38" s="9">
         <v>0</v>
@@ -6423,10 +6422,10 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>39</v>
@@ -6441,13 +6440,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
@@ -6459,13 +6458,13 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
@@ -6479,10 +6478,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>39</v>
@@ -6703,7 +6702,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>233</v>
@@ -6755,13 +6754,13 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="J51" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M51" s="9">
         <v>0</v>
@@ -6789,13 +6788,13 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="J52" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M52" s="9">
         <v>0</v>
@@ -6809,13 +6808,13 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D53" s="9">
         <v>0</v>
@@ -6825,10 +6824,10 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>39</v>
@@ -6843,13 +6842,13 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D54" s="9">
         <v>0</v>
@@ -6863,10 +6862,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>39</v>
@@ -7243,13 +7242,13 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M63" s="9">
         <v>0</v>
@@ -7259,13 +7258,13 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="S63" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V63" s="9">
         <v>0</v>
@@ -7293,13 +7292,13 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M64" s="9">
         <v>0</v>
@@ -7311,13 +7310,13 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U64" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V64" s="9">
         <v>0</v>
@@ -7349,10 +7348,10 @@
         <v>258</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>39</v>
@@ -7365,10 +7364,10 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>39</v>
@@ -7401,13 +7400,13 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D67" s="9">
         <v>0</v>
@@ -7419,13 +7418,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D68" s="9">
         <v>0</v>
@@ -7439,10 +7438,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>39</v>
@@ -7748,10 +7747,10 @@
         <v>213</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M79" s="9">
         <v>0</v>
@@ -7782,10 +7781,10 @@
         <v>217</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M80" s="9">
         <v>0</v>
@@ -7797,13 +7796,13 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D81" s="9">
         <v>0</v>
@@ -7813,13 +7812,13 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M81" s="9">
         <v>0</v>
@@ -7831,13 +7830,13 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
@@ -7849,13 +7848,13 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M82" s="9">
         <v>0</v>
@@ -7869,10 +7868,10 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>39</v>
@@ -7885,10 +7884,10 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L83" s="8" t="s">
         <v>39</v>
@@ -8144,10 +8143,10 @@
         <v>213</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D91" s="9">
         <v>0</v>
@@ -8178,10 +8177,10 @@
         <v>217</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D92" s="9">
         <v>0</v>
@@ -8225,13 +8224,13 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M93" s="9">
         <v>0</v>
@@ -8259,13 +8258,13 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="J94" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M94" s="9">
         <v>0</v>
@@ -8279,13 +8278,13 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D95" s="9">
         <v>0</v>
@@ -8295,10 +8294,10 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="J95" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L95" s="8" t="s">
         <v>39</v>
@@ -8313,13 +8312,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D96" s="9">
         <v>0</v>
@@ -8333,10 +8332,10 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>39</v>
@@ -8648,13 +8647,13 @@
         <v>24</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M106" s="9">
         <v>0</v>
@@ -8682,13 +8681,13 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="J107" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M107" s="9">
         <v>0</v>
@@ -8718,10 +8717,10 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="J108" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>39</v>
@@ -8739,10 +8738,10 @@
         <v>213</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D109" s="9">
         <v>0</v>
@@ -8757,10 +8756,10 @@
         <v>217</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D110" s="9">
         <v>0</v>
@@ -8792,13 +8791,13 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D112" s="9">
         <v>0</v>
@@ -8810,13 +8809,13 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D113" s="9">
         <v>0</v>
@@ -8830,10 +8829,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>39</v>
@@ -9340,13 +9339,13 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D124" s="9">
         <v>0</v>
@@ -9356,13 +9355,13 @@
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="J124" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M124" s="9">
         <v>0</v>
@@ -9372,13 +9371,13 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="S124" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T124" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U124" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V124" s="9">
         <v>0</v>
@@ -9390,13 +9389,13 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D125" s="9">
         <v>0</v>
@@ -9408,13 +9407,13 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="J125" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M125" s="9">
         <v>0</v>
@@ -9426,13 +9425,13 @@
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="S125" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T125" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U125" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V125" s="9">
         <v>0</v>
@@ -9446,10 +9445,10 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>39</v>
@@ -9462,10 +9461,10 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="J126" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L126" s="8" t="s">
         <v>39</v>
@@ -9478,10 +9477,10 @@
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="S126" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T126" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U126" s="8" t="s">
         <v>39</v>
@@ -9712,7 +9711,7 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
       <c r="J134" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K134" s="8" t="s">
         <v>321</v>
@@ -9766,13 +9765,13 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D136" s="9">
         <v>0</v>
@@ -9782,7 +9781,7 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="J136" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K136" s="8" t="s">
         <v>324</v>
@@ -9800,13 +9799,13 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D137" s="9">
         <v>0</v>
@@ -9818,13 +9817,13 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="J137" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M137" s="9">
         <v>0</v>
@@ -9836,10 +9835,10 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>39</v>
@@ -9852,13 +9851,13 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="J138" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M138" s="9">
         <v>0</v>
@@ -9872,10 +9871,10 @@
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>39</v>
@@ -9921,10 +9920,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10061,13 +10060,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -10079,13 +10078,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -10099,10 +10098,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>39</v>
@@ -10208,16 +10207,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D16" s="9">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
@@ -10226,155 +10225,155 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>335</v>
+        <v>54</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D17" s="9">
-        <v>8000</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21"/>
+    <row r="20" spans="4:6">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="9">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D25" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -10389,10 +10388,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -10405,124 +10404,144 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>50</v>
+        <v>339</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
+      <c r="J28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>341</v>
+        <v>85</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="J29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
+      <c r="J29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="C30" s="8" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D30" s="9">
-        <v>4</v>
-      </c>
-      <c r="E30" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F30" s="9"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="J30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="9">
+        <v>11</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>345</v>
+        <v>55</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>14</v>
+        <v>345</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>16</v>
@@ -10530,37 +10549,35 @@
       <c r="M31" s="9">
         <v>11</v>
       </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>16</v>
@@ -10568,170 +10585,156 @@
       <c r="M32" s="9">
         <v>11</v>
       </c>
-      <c r="N32" s="9"/>
+      <c r="N32" s="8"/>
       <c r="O32" s="9"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>348</v>
+        <v>54</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>349</v>
+        <v>55</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M33" s="9">
-        <v>11</v>
-      </c>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+    <row r="34" spans="4:17">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34"/>
       <c r="J34" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M34" s="9">
         <v>0</v>
       </c>
-      <c r="N34" s="9"/>
+      <c r="N34" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="4:17">
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35"/>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="J35" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" s="9"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="J36" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M36" s="9">
-        <v>1</v>
-      </c>
-      <c r="N36" s="9"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="9">
+        <v>11</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>15</v>
+        <v>352</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -10739,181 +10742,177 @@
       <c r="D38" s="9">
         <v>11</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="E38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>352</v>
+        <v>48</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>353</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D39" s="9">
-        <v>11</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="9"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>354</v>
+        <v>55</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D40" s="9">
-        <v>50</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D42" s="9">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="9">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="A45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="9">
+        <v>11</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>15</v>
+        <v>356</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D47" s="9">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="8" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>357</v>
+        <v>88</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>21</v>
@@ -10928,34 +10927,36 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="8" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>85</v>
+        <v>357</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="9">
-        <v>200</v>
-      </c>
-      <c r="E49" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="9">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>17</v>
@@ -10966,167 +10967,165 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>360</v>
+        <v>33</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D51" s="9">
-        <v>500</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>361</v>
+        <v>54</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D52" s="9">
-        <v>4</v>
-      </c>
-      <c r="E52" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="9"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D53" s="9">
         <v>0</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D54" s="9">
-        <v>0</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E54" s="9"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="9">
-        <v>1</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="A58" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="9">
+        <v>11</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="8" t="s">
-        <v>14</v>
+        <v>363</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D60" s="9">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="8" t="s">
-        <v>364</v>
+        <v>106</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>365</v>
@@ -11135,7 +11134,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="9">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
@@ -11144,7 +11143,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="8" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>366</v>
@@ -11153,7 +11152,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
@@ -11162,128 +11161,132 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="8" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>367</v>
+        <v>55</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D63" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D65" s="9">
-        <v>0</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E65" s="9"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="9">
-        <v>1</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="A69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="9">
+        <v>11</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -11292,248 +11295,264 @@
         <v>11</v>
       </c>
       <c r="E71" s="8"/>
-      <c r="F71" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8" t="s">
-        <v>159</v>
+        <v>363</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>122</v>
+        <v>364</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D72" s="9">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B73" s="8" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" t="s">
         <v>365</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="9">
         <v>200</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" t="s">
-        <v>366</v>
-      </c>
-      <c r="C74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="13">
-        <v>1000</v>
-      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="8" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>367</v>
+        <v>55</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D75" s="9">
-        <v>200</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D76" s="9">
         <v>0</v>
       </c>
-      <c r="E76" s="9"/>
+      <c r="E76" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D77" s="9">
-        <v>0</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E77" s="9"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="9">
-        <v>1</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="J79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="J80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
+      <c r="A80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q81" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="9">
+        <v>11</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="J81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" s="9">
+        <v>11</v>
+      </c>
+      <c r="N81" s="8"/>
+      <c r="O81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q81" s="8"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
-        <v>14</v>
+        <v>363</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>15</v>
+        <v>373</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="9">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D82" s="8">
+        <v>2000</v>
       </c>
       <c r="E82" s="8"/>
-      <c r="F82" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>14</v>
+        <v>374</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="L82" s="8" t="s">
         <v>16</v>
@@ -11542,93 +11561,91 @@
         <v>11</v>
       </c>
       <c r="N82" s="8"/>
-      <c r="O82" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P82" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="8" t="s">
-        <v>364</v>
+        <v>106</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="8">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M83" s="9">
-        <v>11</v>
+        <v>2000</v>
       </c>
       <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
+      <c r="O83" s="9"/>
       <c r="P83" s="8"/>
-      <c r="Q83" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q83" s="8"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="8" t="s">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D84" s="8">
-        <v>8000</v>
+        <v>4</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M84" s="9">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="9"/>
-      <c r="P84" s="8"/>
+      <c r="P84" s="8">
+        <v>0</v>
+      </c>
       <c r="Q84" s="8"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D85" s="8">
         <v>4</v>
@@ -11638,160 +11655,124 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>380</v>
+        <v>54</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>381</v>
+        <v>55</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M85" s="9">
-        <v>11</v>
-      </c>
-      <c r="N85" s="8"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N85" s="9"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="8" t="s">
-        <v>382</v>
+        <v>54</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>383</v>
+        <v>55</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D86" s="8">
-        <v>4</v>
-      </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M86" s="9">
         <v>0</v>
       </c>
-      <c r="N86" s="9"/>
+      <c r="N86" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D87" s="9">
         <v>0</v>
       </c>
-      <c r="E87" s="9"/>
+      <c r="E87" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M87" s="9">
-        <v>0</v>
-      </c>
-      <c r="N87" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N87" s="9"/>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:8">
       <c r="A88" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D88" s="9">
-        <v>0</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E88" s="9"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
-      <c r="J88" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M88" s="9">
-        <v>1</v>
-      </c>
-      <c r="N88" s="9"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" s="9">
-        <v>1</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="M80:Q80"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="M79:Q79"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -11820,13 +11801,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -11836,13 +11817,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -11943,10 +11924,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -11961,7 +11942,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>23</v>
@@ -11981,10 +11962,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -11997,10 +11978,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>16</v>
@@ -12017,10 +11998,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>395</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>114</v>
@@ -12033,10 +12014,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -12051,10 +12032,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -12067,10 +12048,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>16</v>
@@ -12085,13 +12066,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>402</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -12101,10 +12082,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>114</v>
@@ -12119,10 +12100,10 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>114</v>
@@ -12135,10 +12116,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="J9" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>407</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>114</v>
@@ -12153,10 +12134,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>114</v>
@@ -12169,10 +12150,10 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="J10" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>411</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>16</v>
@@ -12187,10 +12168,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -12205,10 +12186,10 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="J11" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>414</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>114</v>
@@ -12223,13 +12204,13 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -12239,10 +12220,10 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="J12" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>114</v>
@@ -12257,13 +12238,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -12275,13 +12256,13 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M13" s="9">
         <v>0</v>
@@ -12293,10 +12274,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>39</v>
@@ -12309,13 +12290,13 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M14" s="9">
         <v>0</v>
@@ -12329,10 +12310,10 @@
     </row>
     <row r="15" spans="10:17">
       <c r="J15" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>39</v>
@@ -12350,13 +12331,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -12366,13 +12347,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -12473,7 +12454,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>23</v>
@@ -12491,10 +12472,10 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>16</v>
@@ -12511,10 +12492,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -12529,10 +12510,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>16</v>
@@ -12549,10 +12530,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B22" t="s">
         <v>421</v>
-      </c>
-      <c r="B22" t="s">
-        <v>422</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -12561,10 +12542,10 @@
         <v>2000</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>114</v>
@@ -12579,10 +12560,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>425</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -12595,7 +12576,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>33</v>
@@ -12613,10 +12594,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>395</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>114</v>
@@ -12629,7 +12610,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>13</v>
@@ -12647,10 +12628,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>428</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -12663,13 +12644,13 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M25" s="9">
         <v>0</v>
@@ -12681,10 +12662,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>31</v>
@@ -12697,13 +12678,13 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M26" s="9">
         <v>0</v>
@@ -12717,10 +12698,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>431</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -12733,10 +12714,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>39</v>
@@ -12751,13 +12732,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>402</v>
-      </c>
       <c r="C28" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
@@ -12769,7 +12750,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>13</v>
@@ -12787,13 +12768,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
@@ -12805,13 +12786,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
@@ -12825,10 +12806,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>39</v>
@@ -12846,13 +12827,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -12909,10 +12890,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>16</v>
@@ -12929,10 +12910,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>21</v>
@@ -12947,13 +12928,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
@@ -12965,13 +12946,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
@@ -12985,10 +12966,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>39</v>
@@ -13019,7 +13000,7 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -13035,13 +13016,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13098,10 +13079,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -13116,13 +13097,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -13134,13 +13115,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -13152,10 +13133,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>39</v>
@@ -13173,13 +13154,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -13256,10 +13237,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -13274,13 +13255,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -13292,13 +13273,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -13312,10 +13293,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>39</v>
@@ -13333,13 +13314,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -13436,10 +13417,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -13454,10 +13435,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>447</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -13472,10 +13453,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>39</v>
@@ -13490,13 +13471,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
@@ -13508,13 +13489,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
@@ -13528,10 +13509,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -13549,13 +13530,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -13615,7 +13596,7 @@
         <v>201</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>31</v>
@@ -13630,10 +13611,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>21</v>
@@ -13648,10 +13629,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>21</v>
@@ -13666,13 +13647,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D38" s="9">
         <v>0</v>
@@ -13684,13 +13665,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
@@ -13704,10 +13685,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>39</v>
@@ -13752,13 +13733,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13818,7 +13799,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -13835,10 +13816,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -13853,10 +13834,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>462</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -13873,10 +13854,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>464</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -13893,13 +13874,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -13911,13 +13892,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -13931,10 +13912,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>39</v>
@@ -13952,13 +13933,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -14018,7 +13999,7 @@
         <v>163</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>16</v>
@@ -14035,10 +14016,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>462</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -14055,10 +14036,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>464</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>21</v>
@@ -14075,13 +14056,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -14093,13 +14074,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -14113,10 +14094,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>39</v>
@@ -14178,7 +14159,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -14255,13 +14236,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -14273,13 +14254,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -14293,10 +14274,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>39</v>
@@ -14314,13 +14295,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -14387,13 +14368,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -14405,13 +14386,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -14425,10 +14406,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>39</v>
@@ -14446,13 +14427,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -14519,13 +14500,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
@@ -14537,13 +14518,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
@@ -14557,10 +14538,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -14578,13 +14559,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -14651,13 +14632,13 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D35" s="9">
         <v>0</v>
@@ -14669,13 +14650,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36" s="9">
         <v>0</v>
@@ -14689,10 +14670,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>39</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="3"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478">
   <si>
     <t>表名</t>
   </si>
@@ -153,6 +153,12 @@
     <t>系统生成</t>
   </si>
   <si>
+    <t>IsTrainer</t>
+  </si>
+  <si>
+    <t>是否是教练</t>
+  </si>
+  <si>
     <t>surname</t>
   </si>
   <si>
@@ -303,6 +309,12 @@
     <t>绑定到会员id</t>
   </si>
   <si>
+    <t>eventId</t>
+  </si>
+  <si>
+    <t>具体赛事id</t>
+  </si>
+  <si>
     <t>tempStatus</t>
   </si>
   <si>
@@ -330,18 +342,18 @@
     <t>学校id</t>
   </si>
   <si>
+    <t>reserveName</t>
+  </si>
+  <si>
+    <t>备用学校名称</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
     <t>角色</t>
   </si>
   <si>
-    <t>reserveName</t>
-  </si>
-  <si>
-    <t>备用学校名称</t>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
@@ -387,9 +399,6 @@
     <t>会员积分记录表</t>
   </si>
   <si>
-    <t>eventId</t>
-  </si>
-  <si>
     <t>赛事id</t>
   </si>
   <si>
@@ -483,6 +492,12 @@
     <t>裁判报名状态</t>
   </si>
   <si>
+    <t>isTemp</t>
+  </si>
+  <si>
+    <t>是否临时</t>
+  </si>
+  <si>
     <t>t_event</t>
   </si>
   <si>
@@ -1399,9 +1414,6 @@
   </si>
   <si>
     <t>会员Id</t>
-  </si>
-  <si>
-    <t>用户类型</t>
   </si>
   <si>
     <t>operdata</t>
@@ -1452,9 +1464,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1490,14 +1502,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -1506,15 +1510,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1528,6 +1563,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1536,7 +1579,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1544,7 +1595,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1559,53 +1625,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -1614,14 +1633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1660,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,7 +1750,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,37 +1780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,30 +1810,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1756,79 +1822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,12 +1893,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1924,18 +1949,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,21 +1963,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1978,16 +1981,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1996,137 +2008,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2170,6 +2182,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2491,8 +2507,8 @@
   <sheetPr/>
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:Q13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2777,7 +2793,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -2798,13 +2814,29 @@
       <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="J8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="18">
+        <v>1</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -2819,13 +2851,13 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
@@ -2837,10 +2869,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>21</v>
@@ -2855,13 +2887,13 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M10" s="9">
         <v>0</v>
@@ -2873,10 +2905,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -2891,13 +2923,13 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M11" s="9">
         <v>0</v>
@@ -2909,10 +2941,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>21</v>
@@ -2927,13 +2959,13 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
@@ -2947,10 +2979,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -2965,10 +2997,10 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>39</v>
@@ -2983,10 +3015,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>21</v>
@@ -3003,10 +3035,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
@@ -3024,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3039,10 +3071,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -3083,10 +3115,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -3123,10 +3155,10 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>31</v>
@@ -3144,7 +3176,7 @@
         <v>22</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>16</v>
@@ -3159,10 +3191,10 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -3177,10 +3209,10 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="J19" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>31</v>
@@ -3195,10 +3227,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>31</v>
@@ -3214,7 +3246,7 @@
         <v>40</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>21</v>
@@ -3229,10 +3261,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -3242,15 +3274,15 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="J21" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>21</v>
@@ -3267,13 +3299,13 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -3285,10 +3317,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>21</v>
@@ -3303,13 +3335,13 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -3319,10 +3351,10 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>16</v>
@@ -3339,13 +3371,13 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
@@ -3356,29 +3388,29 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="J24" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="9">
-        <v>4</v>
-      </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="J24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="18">
+        <v>11</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>39</v>
@@ -3391,16 +3423,16 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M25" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="8"/>
@@ -3409,20 +3441,18 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M26" s="9">
         <v>0</v>
       </c>
-      <c r="N26" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N26" s="9"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -3432,36 +3462,38 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M27" s="9">
-        <v>1</v>
-      </c>
-      <c r="N27" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:17">
       <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
@@ -3486,8 +3518,24 @@
       <c r="H28" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="J28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="9">
+        <v>1</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
@@ -3508,22 +3556,6 @@
         <v>18</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="J29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
@@ -3544,40 +3576,32 @@
       <c r="H30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
@@ -3586,36 +3610,40 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="J31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="9">
-        <v>11</v>
-      </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="8"/>
+      <c r="J31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D32" s="9">
         <v>0</v>
@@ -3627,10 +3655,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>16</v>
@@ -3639,16 +3667,20 @@
         <v>11</v>
       </c>
       <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
+      <c r="O32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>16</v>
@@ -3663,16 +3695,16 @@
         <v>24</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M33" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -3681,10 +3713,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>21</v>
@@ -3697,16 +3729,16 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M34" s="9">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -3715,13 +3747,13 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D35" s="9">
         <v>0</v>
@@ -3731,16 +3763,16 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M35" s="9">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -3749,13 +3781,13 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" s="9">
         <v>0</v>
@@ -3767,28 +3799,28 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M36" s="9">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>39</v>
@@ -3801,59 +3833,75 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M37" s="9">
         <v>0</v>
       </c>
-      <c r="N37" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N37" s="9"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M38" s="9">
-        <v>1</v>
-      </c>
-      <c r="N38" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
+      <c r="J39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="9">
+        <v>1</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="10" t="s">
@@ -3925,13 +3973,13 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D43" s="9">
         <v>8</v>
@@ -3943,13 +3991,13 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D44" s="9">
         <v>8</v>
@@ -3961,13 +4009,13 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D45" s="9">
         <v>8</v>
@@ -3979,13 +4027,13 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D46" s="9">
         <v>0</v>
@@ -3997,13 +4045,13 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D47" s="9">
         <v>0</v>
@@ -4017,10 +4065,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>39</v>
@@ -4042,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -4125,10 +4173,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>16</v>
@@ -4145,13 +4193,13 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D56" s="9">
         <v>8</v>
@@ -4163,13 +4211,13 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
@@ -4181,13 +4229,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D58" s="9">
         <v>0</v>
@@ -4201,10 +4249,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>39</v>
@@ -4226,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -4289,10 +4337,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -4325,10 +4373,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>16</v>
@@ -4343,10 +4391,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>16</v>
@@ -4361,10 +4409,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>31</v>
@@ -4379,13 +4427,13 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D70" s="9">
         <v>8</v>
@@ -4397,10 +4445,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>21</v>
@@ -4415,13 +4463,13 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D72" s="9">
         <v>0</v>
@@ -4433,13 +4481,13 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D73" s="9">
         <v>0</v>
@@ -4453,10 +4501,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>39</v>
@@ -4478,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -4541,10 +4589,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>16</v>
@@ -4559,10 +4607,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>16</v>
@@ -4580,7 +4628,7 @@
         <v>22</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>16</v>
@@ -4595,13 +4643,13 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D83" s="9">
         <v>6</v>
@@ -4613,10 +4661,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>21</v>
@@ -4633,13 +4681,13 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D85" s="9">
         <v>0</v>
@@ -4651,13 +4699,13 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D86" s="9">
         <v>0</v>
@@ -4671,10 +4719,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>39</v>
@@ -4696,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -4759,10 +4807,10 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>16</v>
@@ -4799,10 +4847,10 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>16</v>
@@ -4819,10 +4867,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>16</v>
@@ -4839,10 +4887,10 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>31</v>
@@ -4857,10 +4905,10 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>31</v>
@@ -4875,13 +4923,13 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D99" s="9">
         <v>0</v>
@@ -4893,13 +4941,13 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D100" s="9">
         <v>0</v>
@@ -4913,10 +4961,10 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>39</v>
@@ -4935,7 +4983,7 @@
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M15:Q15"/>
     <mergeCell ref="D27:H27"/>
-    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M30:Q30"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="D62:H62"/>
@@ -4950,10 +4998,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4969,13 +5017,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5032,10 +5080,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -5072,10 +5120,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -5090,10 +5138,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5107,60 +5155,78 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5197,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5213,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -5320,10 +5386,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -5338,10 +5404,10 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>16</v>
@@ -5361,7 +5427,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -5376,10 +5442,10 @@
         <v>42</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>21</v>
@@ -5394,10 +5460,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5410,10 +5476,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>16</v>
@@ -5430,13 +5496,13 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -5446,13 +5512,13 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M7" s="9">
         <v>0</v>
@@ -5464,13 +5530,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -5480,13 +5546,13 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M8" s="9">
         <v>0</v>
@@ -5500,13 +5566,13 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -5516,10 +5582,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>39</v>
@@ -5534,13 +5600,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -5552,13 +5618,13 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:17">
       <c r="A11" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -5571,13 +5637,13 @@
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -5586,10 +5652,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>21</v>
@@ -5628,10 +5694,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -5666,10 +5732,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>16</v>
@@ -5682,10 +5748,10 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>16</v>
@@ -5702,10 +5768,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -5718,10 +5784,10 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>21</v>
@@ -5736,10 +5802,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>31</v>
@@ -5752,13 +5818,13 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="J16" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M16" s="9">
         <v>0</v>
@@ -5770,10 +5836,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>31</v>
@@ -5786,13 +5852,13 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M17" s="9">
         <v>0</v>
@@ -5806,10 +5872,10 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>31</v>
@@ -5822,10 +5888,10 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="J18" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>39</v>
@@ -5840,13 +5906,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D19" s="9">
         <v>6</v>
@@ -5858,10 +5924,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -5878,13 +5944,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D21" s="9">
         <v>4</v>
@@ -5896,13 +5962,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -5914,13 +5980,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -5934,10 +6000,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>39</v>
@@ -5959,13 +6025,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -5975,13 +6041,13 @@
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -6082,10 +6148,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>16</v>
@@ -6100,10 +6166,10 @@
         <v>24</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>16</v>
@@ -6120,10 +6186,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>16</v>
@@ -6136,10 +6202,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>31</v>
@@ -6154,10 +6220,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>31</v>
@@ -6172,10 +6238,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>16</v>
@@ -6190,10 +6256,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>31</v>
@@ -6208,13 +6274,13 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M33" s="9">
         <v>0</v>
@@ -6226,13 +6292,13 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D34" s="9">
         <v>6</v>
@@ -6244,13 +6310,13 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M34" s="9">
         <v>0</v>
@@ -6262,13 +6328,13 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D35" s="9">
         <v>6</v>
@@ -6280,13 +6346,13 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M35" s="9">
         <v>0</v>
@@ -6298,10 +6364,10 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>16</v>
@@ -6316,7 +6382,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>33</v>
@@ -6334,10 +6400,10 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>16</v>
@@ -6352,13 +6418,13 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M37" s="9">
         <v>0</v>
@@ -6370,10 +6436,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -6386,13 +6452,13 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M38" s="9">
         <v>0</v>
@@ -6406,10 +6472,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -6422,10 +6488,10 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>39</v>
@@ -6440,13 +6506,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
@@ -6458,13 +6524,13 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
@@ -6478,10 +6544,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>39</v>
@@ -6503,13 +6569,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -6519,13 +6585,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -6626,10 +6692,10 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>16</v>
@@ -6644,10 +6710,10 @@
         <v>24</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>16</v>
@@ -6667,7 +6733,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>21</v>
@@ -6685,7 +6751,7 @@
         <v>22</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>16</v>
@@ -6702,10 +6768,10 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>21</v>
@@ -6718,10 +6784,10 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>16</v>
@@ -6738,10 +6804,10 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>16</v>
@@ -6754,13 +6820,13 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="J51" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M51" s="9">
         <v>0</v>
@@ -6772,7 +6838,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>33</v>
@@ -6788,13 +6854,13 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="J52" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M52" s="9">
         <v>0</v>
@@ -6808,13 +6874,13 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D53" s="9">
         <v>0</v>
@@ -6824,10 +6890,10 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>39</v>
@@ -6842,13 +6908,13 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D54" s="9">
         <v>0</v>
@@ -6862,10 +6928,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>39</v>
@@ -6887,13 +6953,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -6903,13 +6969,13 @@
         <v>0</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -6919,13 +6985,13 @@
         <v>0</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -7070,10 +7136,10 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>16</v>
@@ -7088,10 +7154,10 @@
         <v>24</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>16</v>
@@ -7106,10 +7172,10 @@
         <v>24</v>
       </c>
       <c r="S60" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="U60" s="8" t="s">
         <v>16</v>
@@ -7126,10 +7192,10 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="8" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>39</v>
@@ -7142,10 +7208,10 @@
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="J61" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L61" s="8" t="s">
         <v>31</v>
@@ -7158,10 +7224,10 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="S61" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="U61" s="8" t="s">
         <v>31</v>
@@ -7176,10 +7242,10 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="8" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>31</v>
@@ -7192,10 +7258,10 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>31</v>
@@ -7208,10 +7274,10 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="S62" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="U62" s="8" t="s">
         <v>31</v>
@@ -7226,10 +7292,10 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>31</v>
@@ -7242,13 +7308,13 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M63" s="9">
         <v>0</v>
@@ -7258,13 +7324,13 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="S63" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V63" s="9">
         <v>0</v>
@@ -7276,10 +7342,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -7292,13 +7358,13 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M64" s="9">
         <v>0</v>
@@ -7310,13 +7376,13 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U64" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V64" s="9">
         <v>0</v>
@@ -7330,10 +7396,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>39</v>
@@ -7345,13 +7411,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="16" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>39</v>
@@ -7364,10 +7430,10 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>39</v>
@@ -7382,10 +7448,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="16" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>16</v>
@@ -7400,13 +7466,13 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D67" s="9">
         <v>0</v>
@@ -7418,13 +7484,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D68" s="9">
         <v>0</v>
@@ -7438,10 +7504,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>39</v>
@@ -7459,13 +7525,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -7475,13 +7541,13 @@
         <v>0</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -7582,10 +7648,10 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>16</v>
@@ -7600,10 +7666,10 @@
         <v>24</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L75" s="8" t="s">
         <v>16</v>
@@ -7620,10 +7686,10 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>16</v>
@@ -7638,10 +7704,10 @@
         <v>24</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L76" s="8" t="s">
         <v>16</v>
@@ -7658,10 +7724,10 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="8" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>31</v>
@@ -7674,10 +7740,10 @@
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>16</v>
@@ -7694,10 +7760,10 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="8" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>16</v>
@@ -7710,10 +7776,10 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>31</v>
@@ -7728,10 +7794,10 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -7744,13 +7810,13 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M79" s="9">
         <v>0</v>
@@ -7762,10 +7828,10 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>31</v>
@@ -7778,13 +7844,13 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M80" s="9">
         <v>0</v>
@@ -7796,13 +7862,13 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D81" s="9">
         <v>0</v>
@@ -7812,13 +7878,13 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M81" s="9">
         <v>0</v>
@@ -7830,13 +7896,13 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
@@ -7848,13 +7914,13 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M82" s="9">
         <v>0</v>
@@ -7868,10 +7934,10 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>39</v>
@@ -7884,10 +7950,10 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L83" s="8" t="s">
         <v>39</v>
@@ -7905,13 +7971,13 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -7921,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -8028,10 +8094,10 @@
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>16</v>
@@ -8046,10 +8112,10 @@
         <v>24</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L88" s="8" t="s">
         <v>16</v>
@@ -8066,10 +8132,10 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>16</v>
@@ -8084,10 +8150,10 @@
         <v>24</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L89" s="8" t="s">
         <v>16</v>
@@ -8104,10 +8170,10 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>31</v>
@@ -8120,10 +8186,10 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="J90" s="8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>16</v>
@@ -8140,13 +8206,13 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D91" s="9">
         <v>0</v>
@@ -8156,10 +8222,10 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="J91" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>16</v>
@@ -8174,13 +8240,13 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D92" s="9">
         <v>0</v>
@@ -8190,10 +8256,10 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="J92" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>31</v>
@@ -8208,10 +8274,10 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>16</v>
@@ -8224,13 +8290,13 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M93" s="9">
         <v>0</v>
@@ -8242,7 +8308,7 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>33</v>
@@ -8258,13 +8324,13 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="J94" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M94" s="9">
         <v>0</v>
@@ -8278,13 +8344,13 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D95" s="9">
         <v>0</v>
@@ -8294,10 +8360,10 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="J95" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L95" s="8" t="s">
         <v>39</v>
@@ -8312,13 +8378,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D96" s="9">
         <v>0</v>
@@ -8332,10 +8398,10 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>39</v>
@@ -8354,13 +8420,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -8370,13 +8436,13 @@
         <v>0</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -8477,10 +8543,10 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>16</v>
@@ -8495,10 +8561,10 @@
         <v>24</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>16</v>
@@ -8515,10 +8581,10 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>16</v>
@@ -8533,10 +8599,10 @@
         <v>24</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L103" s="8" t="s">
         <v>16</v>
@@ -8553,10 +8619,10 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>16</v>
@@ -8571,10 +8637,10 @@
         <v>24</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>16</v>
@@ -8591,10 +8657,10 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>16</v>
@@ -8609,10 +8675,10 @@
         <v>24</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>16</v>
@@ -8629,10 +8695,10 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>16</v>
@@ -8647,13 +8713,13 @@
         <v>24</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M106" s="9">
         <v>0</v>
@@ -8665,10 +8731,10 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>31</v>
@@ -8681,13 +8747,13 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="J107" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M107" s="9">
         <v>0</v>
@@ -8701,10 +8767,10 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>16</v>
@@ -8717,10 +8783,10 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="J108" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>39</v>
@@ -8735,13 +8801,13 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D109" s="9">
         <v>0</v>
@@ -8753,13 +8819,13 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D110" s="9">
         <v>0</v>
@@ -8771,10 +8837,10 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>16</v>
@@ -8791,13 +8857,13 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D112" s="9">
         <v>0</v>
@@ -8809,13 +8875,13 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D113" s="9">
         <v>0</v>
@@ -8829,10 +8895,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>39</v>
@@ -8850,13 +8916,13 @@
         <v>0</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -8866,13 +8932,13 @@
         <v>0</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="U115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
@@ -8884,13 +8950,13 @@
         <v>0</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -9033,10 +9099,10 @@
       </c>
       <c r="H118" s="8"/>
       <c r="J118" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L118" s="8" t="s">
         <v>16</v>
@@ -9051,10 +9117,10 @@
         <v>24</v>
       </c>
       <c r="S118" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="T118" s="8" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="U118" s="8" t="s">
         <v>16</v>
@@ -9071,10 +9137,10 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>16</v>
@@ -9089,10 +9155,10 @@
         <v>24</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L119" s="8" t="s">
         <v>16</v>
@@ -9107,10 +9173,10 @@
         <v>24</v>
       </c>
       <c r="S119" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="T119" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="U119" s="8" t="s">
         <v>16</v>
@@ -9127,10 +9193,10 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>16</v>
@@ -9145,10 +9211,10 @@
         <v>24</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L120" s="8" t="s">
         <v>16</v>
@@ -9163,10 +9229,10 @@
         <v>24</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="T120" s="8" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="U120" s="8" t="s">
         <v>16</v>
@@ -9183,10 +9249,10 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>16</v>
@@ -9204,7 +9270,7 @@
         <v>22</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>16</v>
@@ -9222,7 +9288,7 @@
         <v>22</v>
       </c>
       <c r="T121" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="U121" s="8" t="s">
         <v>16</v>
@@ -9239,10 +9305,10 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>16</v>
@@ -9255,10 +9321,10 @@
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
       <c r="J122" s="8" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>16</v>
@@ -9271,10 +9337,10 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="S122" s="8" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="T122" s="8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="U122" s="8" t="s">
         <v>16</v>
@@ -9289,13 +9355,13 @@
     </row>
     <row r="123" ht="15" customHeight="1" spans="1:26">
       <c r="A123" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D123" s="9">
         <v>6</v>
@@ -9305,13 +9371,13 @@
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
       <c r="J123" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M123" s="9">
         <v>6</v>
@@ -9321,13 +9387,13 @@
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="S123" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="T123" s="8" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="U123" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="V123" s="9">
         <v>6</v>
@@ -9339,13 +9405,13 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D124" s="9">
         <v>0</v>
@@ -9355,13 +9421,13 @@
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="J124" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M124" s="9">
         <v>0</v>
@@ -9371,13 +9437,13 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="S124" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T124" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U124" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V124" s="9">
         <v>0</v>
@@ -9389,13 +9455,13 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D125" s="9">
         <v>0</v>
@@ -9407,13 +9473,13 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="J125" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M125" s="9">
         <v>0</v>
@@ -9425,13 +9491,13 @@
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="S125" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T125" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U125" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V125" s="9">
         <v>0</v>
@@ -9445,10 +9511,10 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>39</v>
@@ -9461,10 +9527,10 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="J126" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L126" s="8" t="s">
         <v>39</v>
@@ -9477,10 +9543,10 @@
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="S126" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T126" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U126" s="8" t="s">
         <v>39</v>
@@ -9498,13 +9564,13 @@
         <v>0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -9514,13 +9580,13 @@
         <v>0</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -9621,10 +9687,10 @@
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>16</v>
@@ -9639,10 +9705,10 @@
         <v>24</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L132" s="8" t="s">
         <v>16</v>
@@ -9659,10 +9725,10 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>16</v>
@@ -9677,10 +9743,10 @@
         <v>24</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L133" s="8" t="s">
         <v>31</v>
@@ -9695,10 +9761,10 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="8" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>31</v>
@@ -9711,10 +9777,10 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
       <c r="J134" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L134" s="8" t="s">
         <v>21</v>
@@ -9729,10 +9795,10 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="8" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>16</v>
@@ -9747,10 +9813,10 @@
         <v>24</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>16</v>
@@ -9765,13 +9831,13 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D136" s="9">
         <v>0</v>
@@ -9781,10 +9847,10 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="J136" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>21</v>
@@ -9799,13 +9865,13 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D137" s="9">
         <v>0</v>
@@ -9817,13 +9883,13 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="J137" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M137" s="9">
         <v>0</v>
@@ -9835,10 +9901,10 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>39</v>
@@ -9851,13 +9917,13 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="J138" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M138" s="9">
         <v>0</v>
@@ -9871,10 +9937,10 @@
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>39</v>
@@ -9922,7 +9988,7 @@
   <sheetPr/>
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H9"/>
     </sheetView>
   </sheetViews>
@@ -9941,13 +10007,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="14"/>
@@ -10007,7 +10073,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10022,10 +10088,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10040,10 +10106,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10060,13 +10126,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -10078,13 +10144,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -10098,10 +10164,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>39</v>
@@ -10126,13 +10192,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="14"/>
@@ -10192,7 +10258,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10207,10 +10273,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -10225,13 +10291,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -10243,13 +10309,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -10263,10 +10329,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>39</v>
@@ -10289,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="14"/>
@@ -10388,10 +10454,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -10406,10 +10472,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -10425,13 +10491,13 @@
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="14"/>
@@ -10440,10 +10506,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>31</v>
@@ -10482,13 +10548,13 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
@@ -10522,13 +10588,13 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
@@ -10538,10 +10604,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>16</v>
@@ -10556,13 +10622,13 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D32" s="9">
         <v>0</v>
@@ -10574,10 +10640,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>16</v>
@@ -10592,10 +10658,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>39</v>
@@ -10608,13 +10674,13 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M33" s="9">
         <v>0</v>
@@ -10629,13 +10695,13 @@
       <c r="E34" s="13"/>
       <c r="F34"/>
       <c r="J34" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M34" s="9">
         <v>0</v>
@@ -10652,23 +10718,23 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="J35" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>39</v>
@@ -10731,10 +10797,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -10751,10 +10817,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>21</v>
@@ -10769,13 +10835,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
@@ -10787,13 +10853,13 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
@@ -10807,10 +10873,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>39</v>
@@ -10828,13 +10894,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="14"/>
@@ -10891,10 +10957,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>21</v>
@@ -10909,10 +10975,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>21</v>
@@ -10927,10 +10993,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="8" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>21</v>
@@ -10947,10 +11013,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>21</v>
@@ -10967,7 +11033,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>33</v>
@@ -10985,13 +11051,13 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D52" s="9">
         <v>0</v>
@@ -11003,13 +11069,13 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D53" s="9">
         <v>0</v>
@@ -11023,10 +11089,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>39</v>
@@ -11044,13 +11110,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="14"/>
@@ -11107,10 +11173,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>21</v>
@@ -11125,10 +11191,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>21</v>
@@ -11143,10 +11209,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>21</v>
@@ -11161,13 +11227,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D63" s="9">
         <v>0</v>
@@ -11179,13 +11245,13 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
@@ -11199,10 +11265,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>39</v>
@@ -11220,13 +11286,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -11283,10 +11349,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -11301,10 +11367,10 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>21</v>
@@ -11319,10 +11385,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
@@ -11333,10 +11399,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>21</v>
@@ -11351,13 +11417,13 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D75" s="9">
         <v>0</v>
@@ -11369,13 +11435,13 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D76" s="9">
         <v>0</v>
@@ -11389,10 +11455,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>39</v>
@@ -11410,13 +11476,13 @@
         <v>0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -11426,13 +11492,13 @@
         <v>0</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -11533,10 +11599,10 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>21</v>
@@ -11549,10 +11615,10 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L82" s="8" t="s">
         <v>16</v>
@@ -11569,10 +11635,10 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>21</v>
@@ -11585,10 +11651,10 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L83" s="8" t="s">
         <v>21</v>
@@ -11603,13 +11669,13 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="8" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D84" s="8">
         <v>4</v>
@@ -11619,10 +11685,10 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L84" s="8" t="s">
         <v>16</v>
@@ -11639,13 +11705,13 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="8" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D85" s="8">
         <v>4</v>
@@ -11655,13 +11721,13 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M85" s="9">
         <v>0</v>
@@ -11673,13 +11739,13 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D86" s="9">
         <v>0</v>
@@ -11689,13 +11755,13 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M86" s="9">
         <v>0</v>
@@ -11709,13 +11775,13 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D87" s="9">
         <v>0</v>
@@ -11727,10 +11793,10 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L87" s="8" t="s">
         <v>39</v>
@@ -11745,10 +11811,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>39</v>
@@ -11801,13 +11867,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -11817,13 +11883,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -11924,10 +11990,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -11942,7 +12008,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>23</v>
@@ -11962,10 +12028,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -11978,10 +12044,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>16</v>
@@ -11998,13 +12064,13 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" s="9">
         <v>8</v>
@@ -12014,10 +12080,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -12032,10 +12098,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -12048,10 +12114,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>16</v>
@@ -12066,13 +12132,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -12082,13 +12148,13 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M8" s="9">
         <v>8</v>
@@ -12100,13 +12166,13 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
@@ -12116,13 +12182,13 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M9" s="9">
         <v>8</v>
@@ -12134,13 +12200,13 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="8" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D10" s="9">
         <v>8</v>
@@ -12150,10 +12216,10 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>16</v>
@@ -12168,10 +12234,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -12186,13 +12252,13 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M11" s="9">
         <v>8</v>
@@ -12204,13 +12270,13 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -12220,13 +12286,13 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M12" s="9">
         <v>8</v>
@@ -12238,13 +12304,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -12256,13 +12322,13 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M13" s="9">
         <v>0</v>
@@ -12274,10 +12340,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>39</v>
@@ -12290,13 +12356,13 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M14" s="9">
         <v>0</v>
@@ -12310,10 +12376,10 @@
     </row>
     <row r="15" spans="10:17">
       <c r="J15" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>39</v>
@@ -12331,13 +12397,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -12347,13 +12413,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -12454,7 +12520,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>23</v>
@@ -12472,10 +12538,10 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>16</v>
@@ -12492,10 +12558,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -12510,10 +12576,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>16</v>
@@ -12530,10 +12596,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -12542,13 +12608,13 @@
         <v>2000</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M22" s="9">
         <v>8</v>
@@ -12560,10 +12626,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -12576,7 +12642,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>33</v>
@@ -12594,13 +12660,13 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D24" s="9">
         <v>8</v>
@@ -12610,7 +12676,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>13</v>
@@ -12628,10 +12694,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -12644,13 +12710,13 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M25" s="9">
         <v>0</v>
@@ -12662,10 +12728,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>31</v>
@@ -12678,13 +12744,13 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M26" s="9">
         <v>0</v>
@@ -12698,10 +12764,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -12714,10 +12780,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>39</v>
@@ -12732,13 +12798,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
@@ -12750,7 +12816,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>13</v>
@@ -12768,13 +12834,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
@@ -12786,13 +12852,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
@@ -12806,10 +12872,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>39</v>
@@ -12827,13 +12893,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -12890,10 +12956,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>16</v>
@@ -12910,10 +12976,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>21</v>
@@ -12928,13 +12994,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
@@ -12946,13 +13012,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
@@ -12966,10 +13032,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>39</v>
@@ -13016,13 +13082,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13079,10 +13145,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -13097,13 +13163,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -13115,13 +13181,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -13133,10 +13199,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>39</v>
@@ -13154,13 +13220,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -13217,10 +13283,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -13237,10 +13303,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -13255,13 +13321,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -13273,13 +13339,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -13293,10 +13359,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>39</v>
@@ -13314,13 +13380,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -13377,10 +13443,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -13397,10 +13463,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>16</v>
@@ -13417,10 +13483,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -13435,10 +13501,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -13453,10 +13519,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>39</v>
@@ -13471,13 +13537,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
@@ -13489,13 +13555,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
@@ -13509,10 +13575,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -13530,13 +13596,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -13593,10 +13659,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>31</v>
@@ -13611,10 +13677,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>21</v>
@@ -13629,10 +13695,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>21</v>
@@ -13647,13 +13713,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D38" s="9">
         <v>0</v>
@@ -13665,13 +13731,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
@@ -13685,10 +13751,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>39</v>
@@ -13716,10 +13782,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -13733,13 +13799,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13799,7 +13865,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -13816,28 +13882,30 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -13854,130 +13922,132 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>462</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>463</v>
+        <v>57</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D7" s="9">
-        <v>8000</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>15</v>
+        <v>470</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -13986,40 +14056,38 @@
         <v>11</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>163</v>
+        <v>464</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16" s="9">
-        <v>11</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>2000</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -14036,84 +14104,64 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>462</v>
+        <v>56</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>463</v>
+        <v>57</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D18" s="9">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -14159,7 +14207,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -14236,13 +14284,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -14254,13 +14302,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -14274,10 +14322,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>39</v>
@@ -14295,13 +14343,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -14368,13 +14416,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -14386,13 +14434,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -14406,10 +14454,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>39</v>
@@ -14427,13 +14475,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -14500,13 +14548,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
@@ -14518,13 +14566,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
@@ -14538,10 +14586,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -14559,13 +14607,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -14632,13 +14680,13 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D35" s="9">
         <v>0</v>
@@ -14650,13 +14698,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" s="9">
         <v>0</v>
@@ -14670,10 +14718,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>39</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="6"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473">
   <si>
     <t>表名</t>
   </si>
@@ -429,18 +429,15 @@
     <t>获取积分备注</t>
   </si>
   <si>
-    <t>t_signupform_player</t>
-  </si>
-  <si>
-    <t>会员报名表</t>
+    <t>t_player_signup</t>
+  </si>
+  <si>
+    <t>报名详情表</t>
   </si>
   <si>
     <t>赛事组别Id</t>
   </si>
   <si>
-    <t>主动报名会员id</t>
-  </si>
-  <si>
     <t>signfee</t>
   </si>
   <si>
@@ -453,18 +450,6 @@
     <t>组队编码</t>
   </si>
   <si>
-    <t>t_signupform_player_detail</t>
-  </si>
-  <si>
-    <t>报名详情表</t>
-  </si>
-  <si>
-    <t>signUpId</t>
-  </si>
-  <si>
-    <t>报名表id</t>
-  </si>
-  <si>
     <t>signUpStatus</t>
   </si>
   <si>
@@ -477,7 +462,7 @@
     <t>报名者/被邀请者</t>
   </si>
   <si>
-    <t>t_signupform_referee</t>
+    <t>t_referee_signup</t>
   </si>
   <si>
     <t>裁判报名表</t>
@@ -2505,10 +2490,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4603,7 +4588,9 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
+      <c r="H80" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="8" t="s">
@@ -4621,14 +4608,16 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="H81" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>16</v>
@@ -4639,14 +4628,16 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
+      <c r="H82" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>118</v>
@@ -4661,10 +4652,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>21</v>
@@ -4681,304 +4672,98 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="8" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D85" s="9">
-        <v>0</v>
-      </c>
-      <c r="E85" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="8" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D86" s="9">
-        <v>0</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D87" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="4:5">
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="9">
-        <v>11</v>
-      </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" s="8"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="9">
-        <v>11</v>
-      </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="9">
-        <v>11</v>
-      </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="9">
-        <v>11</v>
-      </c>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="9">
-        <v>11</v>
-      </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D97" s="9">
-        <v>4</v>
-      </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D98" s="9">
-        <v>4</v>
-      </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C99" s="8" t="s">
+    <row r="88" spans="1:8">
+      <c r="A88" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="9">
-        <v>0</v>
-      </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="9">
-        <v>0</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="8" t="s">
+      <c r="D88" s="9">
+        <v>0</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B89" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D89" s="9">
         <v>1</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M15:Q15"/>
@@ -4988,7 +4773,6 @@
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="D62:H62"/>
     <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D90:H90"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -5000,8 +4784,8 @@
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -5017,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5123,7 +4907,7 @@
         <v>130</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -5138,10 +4922,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5156,10 +4940,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>39</v>
@@ -5242,8 +5026,8 @@
   <sheetPr/>
   <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="K129" sqref="K129"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5263,13 +5047,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5279,13 +5063,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -5386,10 +5170,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -5404,7 +5188,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>125</v>
@@ -5427,7 +5211,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -5445,7 +5229,7 @@
         <v>110</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>21</v>
@@ -5463,7 +5247,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5476,10 +5260,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>16</v>
@@ -5496,10 +5280,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>49</v>
@@ -5530,10 +5314,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>49</v>
@@ -5566,10 +5350,10 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>49</v>
@@ -5600,10 +5384,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>49</v>
@@ -5618,10 +5402,10 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:17">
       <c r="A11" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>49</v>
@@ -5637,13 +5421,13 @@
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -5655,7 +5439,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>21</v>
@@ -5694,10 +5478,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -5732,10 +5516,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>16</v>
@@ -5768,10 +5552,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -5784,10 +5568,10 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>21</v>
@@ -5802,7 +5586,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>133</v>
@@ -5836,10 +5620,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>31</v>
@@ -5872,10 +5656,10 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>31</v>
@@ -5906,10 +5690,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>118</v>
@@ -5924,10 +5708,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -5944,13 +5728,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D21" s="9">
         <v>4</v>
@@ -6025,13 +5809,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -6041,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -6186,10 +5970,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>16</v>
@@ -6202,10 +5986,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>31</v>
@@ -6220,10 +6004,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>31</v>
@@ -6238,10 +6022,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>16</v>
@@ -6256,10 +6040,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>31</v>
@@ -6274,10 +6058,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>49</v>
@@ -6292,10 +6076,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>118</v>
@@ -6310,10 +6094,10 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>49</v>
@@ -6328,10 +6112,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>118</v>
@@ -6346,10 +6130,10 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>49</v>
@@ -6364,10 +6148,10 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>16</v>
@@ -6382,7 +6166,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>33</v>
@@ -6400,10 +6184,10 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>16</v>
@@ -6436,10 +6220,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -6472,10 +6256,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -6569,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -6585,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -6733,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>21</v>
@@ -6751,7 +6535,7 @@
         <v>22</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>16</v>
@@ -6771,7 +6555,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>21</v>
@@ -6784,10 +6568,10 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>16</v>
@@ -6804,10 +6588,10 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>16</v>
@@ -6838,7 +6622,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>33</v>
@@ -6953,13 +6737,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -6969,13 +6753,13 @@
         <v>0</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -6985,13 +6769,13 @@
         <v>0</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -7192,10 +6976,10 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>39</v>
@@ -7208,10 +6992,10 @@
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="J61" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L61" s="8" t="s">
         <v>31</v>
@@ -7224,10 +7008,10 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="S61" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="U61" s="8" t="s">
         <v>31</v>
@@ -7242,10 +7026,10 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>31</v>
@@ -7258,10 +7042,10 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>31</v>
@@ -7274,10 +7058,10 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="S62" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="U62" s="8" t="s">
         <v>31</v>
@@ -7292,10 +7076,10 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>31</v>
@@ -7342,10 +7126,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -7396,10 +7180,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>39</v>
@@ -7411,7 +7195,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>64</v>
@@ -7448,10 +7232,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="16" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>16</v>
@@ -7525,13 +7309,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -7541,13 +7325,13 @@
         <v>0</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -7686,10 +7470,10 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>16</v>
@@ -7704,10 +7488,10 @@
         <v>24</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L76" s="8" t="s">
         <v>16</v>
@@ -7724,10 +7508,10 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>31</v>
@@ -7740,10 +7524,10 @@
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>16</v>
@@ -7760,10 +7544,10 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>16</v>
@@ -7776,10 +7560,10 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>31</v>
@@ -7794,10 +7578,10 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -7810,7 +7594,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>48</v>
@@ -7828,10 +7612,10 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>31</v>
@@ -7844,7 +7628,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>53</v>
@@ -7971,13 +7755,13 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -7987,13 +7771,13 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -8132,10 +7916,10 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>16</v>
@@ -8150,10 +7934,10 @@
         <v>24</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L89" s="8" t="s">
         <v>16</v>
@@ -8170,10 +7954,10 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>31</v>
@@ -8186,10 +7970,10 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="J90" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>16</v>
@@ -8206,7 +7990,7 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>48</v>
@@ -8222,10 +8006,10 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="J91" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>16</v>
@@ -8240,7 +8024,7 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>53</v>
@@ -8256,10 +8040,10 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="J92" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>31</v>
@@ -8274,10 +8058,10 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>16</v>
@@ -8308,7 +8092,7 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>33</v>
@@ -8420,13 +8204,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -8436,13 +8220,13 @@
         <v>0</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -8581,10 +8365,10 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>16</v>
@@ -8599,10 +8383,10 @@
         <v>24</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L103" s="8" t="s">
         <v>16</v>
@@ -8619,10 +8403,10 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>16</v>
@@ -8637,10 +8421,10 @@
         <v>24</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>16</v>
@@ -8657,10 +8441,10 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>16</v>
@@ -8675,10 +8459,10 @@
         <v>24</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>16</v>
@@ -8695,10 +8479,10 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>16</v>
@@ -8731,10 +8515,10 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>31</v>
@@ -8767,10 +8551,10 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>16</v>
@@ -8801,7 +8585,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>48</v>
@@ -8819,7 +8603,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>53</v>
@@ -8837,10 +8621,10 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>16</v>
@@ -8916,13 +8700,13 @@
         <v>0</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -8932,13 +8716,13 @@
         <v>0</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="U115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
@@ -8950,13 +8734,13 @@
         <v>0</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -9117,10 +8901,10 @@
         <v>24</v>
       </c>
       <c r="S118" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="T118" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="U118" s="8" t="s">
         <v>16</v>
@@ -9155,10 +8939,10 @@
         <v>24</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L119" s="8" t="s">
         <v>16</v>
@@ -9173,10 +8957,10 @@
         <v>24</v>
       </c>
       <c r="S119" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="T119" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="U119" s="8" t="s">
         <v>16</v>
@@ -9193,10 +8977,10 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>16</v>
@@ -9211,10 +8995,10 @@
         <v>24</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L120" s="8" t="s">
         <v>16</v>
@@ -9229,10 +9013,10 @@
         <v>24</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="T120" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="U120" s="8" t="s">
         <v>16</v>
@@ -9249,10 +9033,10 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>16</v>
@@ -9270,7 +9054,7 @@
         <v>22</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>16</v>
@@ -9288,7 +9072,7 @@
         <v>22</v>
       </c>
       <c r="T121" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="U121" s="8" t="s">
         <v>16</v>
@@ -9308,7 +9092,7 @@
         <v>130</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>16</v>
@@ -9321,10 +9105,10 @@
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
       <c r="J122" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>16</v>
@@ -9337,10 +9121,10 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="S122" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T122" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="U122" s="8" t="s">
         <v>16</v>
@@ -9358,7 +9142,7 @@
         <v>116</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>118</v>
@@ -9374,7 +9158,7 @@
         <v>116</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L123" s="8" t="s">
         <v>118</v>
@@ -9390,7 +9174,7 @@
         <v>116</v>
       </c>
       <c r="T123" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="U123" s="8" t="s">
         <v>118</v>
@@ -9564,13 +9348,13 @@
         <v>0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -9580,13 +9364,13 @@
         <v>0</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -9725,10 +9509,10 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>16</v>
@@ -9743,10 +9527,10 @@
         <v>24</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L133" s="8" t="s">
         <v>31</v>
@@ -9761,10 +9545,10 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>31</v>
@@ -9780,7 +9564,7 @@
         <v>50</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L134" s="8" t="s">
         <v>21</v>
@@ -9795,10 +9579,10 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>16</v>
@@ -9813,10 +9597,10 @@
         <v>24</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>16</v>
@@ -9850,7 +9634,7 @@
         <v>110</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>21</v>
@@ -10007,13 +9791,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="14"/>
@@ -10073,7 +9857,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10088,10 +9872,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10106,10 +9890,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10192,13 +9976,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="14"/>
@@ -10258,7 +10042,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10273,10 +10057,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -10355,13 +10139,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="14"/>
@@ -10457,7 +10241,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -10472,10 +10256,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -10491,13 +10275,13 @@
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="14"/>
@@ -10506,7 +10290,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>87</v>
@@ -10551,7 +10335,7 @@
         <v>91</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>49</v>
@@ -10604,10 +10388,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>16</v>
@@ -10640,10 +10424,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>16</v>
@@ -10718,13 +10502,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="14"/>
@@ -10797,10 +10581,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -10820,7 +10604,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>21</v>
@@ -10894,13 +10678,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="14"/>
@@ -10960,7 +10744,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>21</v>
@@ -10993,10 +10777,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>21</v>
@@ -11013,10 +10797,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>21</v>
@@ -11033,7 +10817,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>33</v>
@@ -11110,13 +10894,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="14"/>
@@ -11173,10 +10957,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>21</v>
@@ -11194,7 +10978,7 @@
         <v>110</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>21</v>
@@ -11209,10 +10993,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>21</v>
@@ -11286,13 +11070,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -11349,7 +11133,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>125</v>
@@ -11367,10 +11151,10 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>21</v>
@@ -11388,7 +11172,7 @@
         <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
@@ -11399,10 +11183,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>21</v>
@@ -11476,13 +11260,13 @@
         <v>0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -11492,13 +11276,13 @@
         <v>0</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -11599,10 +11383,10 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>21</v>
@@ -11615,10 +11399,10 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L82" s="8" t="s">
         <v>16</v>
@@ -11638,7 +11422,7 @@
         <v>110</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>21</v>
@@ -11651,10 +11435,10 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L83" s="8" t="s">
         <v>21</v>
@@ -11669,10 +11453,10 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>49</v>
@@ -11685,10 +11469,10 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="L84" s="8" t="s">
         <v>16</v>
@@ -11705,10 +11489,10 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>49</v>
@@ -11867,13 +11651,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -11883,13 +11667,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -11990,10 +11774,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -12008,7 +11792,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>23</v>
@@ -12028,10 +11812,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -12044,10 +11828,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>16</v>
@@ -12064,10 +11848,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>118</v>
@@ -12083,7 +11867,7 @@
         <v>50</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -12098,10 +11882,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -12114,10 +11898,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>16</v>
@@ -12132,10 +11916,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>49</v>
@@ -12148,10 +11932,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>118</v>
@@ -12166,10 +11950,10 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>118</v>
@@ -12182,10 +11966,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>118</v>
@@ -12200,10 +11984,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>118</v>
@@ -12216,10 +12000,10 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>16</v>
@@ -12237,7 +12021,7 @@
         <v>110</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -12252,10 +12036,10 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>118</v>
@@ -12286,10 +12070,10 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>118</v>
@@ -12397,13 +12181,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -12413,13 +12197,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -12520,7 +12304,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>23</v>
@@ -12538,10 +12322,10 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>16</v>
@@ -12558,10 +12342,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -12576,10 +12360,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>16</v>
@@ -12596,10 +12380,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B22" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -12608,10 +12392,10 @@
         <v>2000</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>118</v>
@@ -12626,10 +12410,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -12642,7 +12426,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>33</v>
@@ -12660,10 +12444,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>118</v>
@@ -12694,10 +12478,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -12728,10 +12512,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>31</v>
@@ -12764,10 +12548,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -12798,10 +12582,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>49</v>
@@ -12893,13 +12677,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -12956,10 +12740,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>16</v>
@@ -12976,10 +12760,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>21</v>
@@ -13082,13 +12866,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13148,7 +12932,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -13220,13 +13004,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -13283,10 +13067,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -13306,7 +13090,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -13380,13 +13164,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -13443,10 +13227,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -13463,10 +13247,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>16</v>
@@ -13483,10 +13267,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -13501,10 +13285,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -13519,10 +13303,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>39</v>
@@ -13596,13 +13380,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -13659,10 +13443,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>31</v>
@@ -13677,10 +13461,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>21</v>
@@ -13695,10 +13479,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>21</v>
@@ -13784,7 +13568,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
@@ -13799,13 +13583,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13865,7 +13649,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -13882,10 +13666,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -13902,10 +13686,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -13981,13 +13765,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -14044,10 +13828,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -14064,10 +13848,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -14084,10 +13868,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -14207,7 +13991,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -14343,13 +14127,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -14475,13 +14259,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -14607,13 +14391,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613">
   <si>
     <t>表名</t>
   </si>
@@ -397,6 +397,12 @@
     <t>赛事id</t>
   </si>
   <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>组别id</t>
+  </si>
+  <si>
     <t>t_memberpointsdetail</t>
   </si>
   <si>
@@ -409,10 +415,160 @@
     <t>积分记录id</t>
   </si>
   <si>
-    <t>groupId</t>
-  </si>
-  <si>
-    <t>组别id</t>
+    <t>objEventType</t>
+  </si>
+  <si>
+    <t>循环赛/淘汰赛</t>
+  </si>
+  <si>
+    <t>获取积分备注</t>
+  </si>
+  <si>
+    <t>t_player_signup</t>
+  </si>
+  <si>
+    <t>报名详情表</t>
+  </si>
+  <si>
+    <t>赛事组别Id</t>
+  </si>
+  <si>
+    <t>signfee</t>
+  </si>
+  <si>
+    <t>赛事报名费</t>
+  </si>
+  <si>
+    <t>groupnum</t>
+  </si>
+  <si>
+    <t>组队编码</t>
+  </si>
+  <si>
+    <t>signUpStatus</t>
+  </si>
+  <si>
+    <t>报名状态</t>
+  </si>
+  <si>
+    <t>signUpType</t>
+  </si>
+  <si>
+    <t>报名者/被邀请者</t>
+  </si>
+  <si>
+    <t>isTemp</t>
+  </si>
+  <si>
+    <t>是否是临时</t>
+  </si>
+  <si>
+    <t>t_referee_signup</t>
+  </si>
+  <si>
+    <t>裁判报名表</t>
+  </si>
+  <si>
+    <t>0 随机 其余为指定组别</t>
+  </si>
+  <si>
+    <t>refereeSignUpStatus</t>
+  </si>
+  <si>
+    <t>裁判报名状态</t>
+  </si>
+  <si>
+    <t>是否临时</t>
+  </si>
+  <si>
+    <t>t_event</t>
+  </si>
+  <si>
+    <t>赛事表</t>
+  </si>
+  <si>
+    <t>t_eventcheck</t>
+  </si>
+  <si>
+    <t>赛事审核表</t>
+  </si>
+  <si>
+    <t>赛事管理员id</t>
+  </si>
+  <si>
+    <t>eventid</t>
+  </si>
+  <si>
+    <t>赛事编码</t>
+  </si>
+  <si>
+    <t>审核内容</t>
+  </si>
+  <si>
+    <t>赛事名称</t>
+  </si>
+  <si>
+    <t>starteventtime</t>
+  </si>
+  <si>
+    <t>比赛开始时间</t>
+  </si>
+  <si>
+    <t>endeventtime</t>
+  </si>
+  <si>
+    <t>比赛结束时间</t>
+  </si>
+  <si>
+    <t>startsigntime</t>
+  </si>
+  <si>
+    <t>报名开始时间</t>
+  </si>
+  <si>
+    <t>endsigntime</t>
+  </si>
+  <si>
+    <t>报名结束时间</t>
+  </si>
+  <si>
+    <t>endrefundtime</t>
+  </si>
+  <si>
+    <t>退费截止时间</t>
+  </si>
+  <si>
+    <t>赛事描述</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>赛场地址</t>
+  </si>
+  <si>
+    <t>t_eventattachment</t>
+  </si>
+  <si>
+    <t>赛事附件表（可有可无）</t>
+  </si>
+  <si>
+    <t>provinceId</t>
+  </si>
+  <si>
+    <t>省份id</t>
+  </si>
+  <si>
+    <t>cityId</t>
+  </si>
+  <si>
+    <t>城市id</t>
+  </si>
+  <si>
+    <t>isInter</t>
+  </si>
+  <si>
+    <t>是否国际</t>
   </si>
   <si>
     <t>eventType</t>
@@ -421,156 +577,6 @@
     <t>赛事类型</t>
   </si>
   <si>
-    <t>获取积分备注</t>
-  </si>
-  <si>
-    <t>t_player_signup</t>
-  </si>
-  <si>
-    <t>报名详情表</t>
-  </si>
-  <si>
-    <t>赛事组别Id</t>
-  </si>
-  <si>
-    <t>signfee</t>
-  </si>
-  <si>
-    <t>赛事报名费</t>
-  </si>
-  <si>
-    <t>groupnum</t>
-  </si>
-  <si>
-    <t>组队编码</t>
-  </si>
-  <si>
-    <t>signUpStatus</t>
-  </si>
-  <si>
-    <t>报名状态</t>
-  </si>
-  <si>
-    <t>signUpType</t>
-  </si>
-  <si>
-    <t>报名者/被邀请者</t>
-  </si>
-  <si>
-    <t>isTemp</t>
-  </si>
-  <si>
-    <t>是否是临时</t>
-  </si>
-  <si>
-    <t>t_referee_signup</t>
-  </si>
-  <si>
-    <t>裁判报名表</t>
-  </si>
-  <si>
-    <t>0 随机 其余为指定组别</t>
-  </si>
-  <si>
-    <t>refereeSignUpStatus</t>
-  </si>
-  <si>
-    <t>裁判报名状态</t>
-  </si>
-  <si>
-    <t>是否临时</t>
-  </si>
-  <si>
-    <t>t_event</t>
-  </si>
-  <si>
-    <t>赛事表</t>
-  </si>
-  <si>
-    <t>t_eventcheck</t>
-  </si>
-  <si>
-    <t>赛事审核表</t>
-  </si>
-  <si>
-    <t>赛事管理员id</t>
-  </si>
-  <si>
-    <t>eventid</t>
-  </si>
-  <si>
-    <t>赛事编码</t>
-  </si>
-  <si>
-    <t>审核内容</t>
-  </si>
-  <si>
-    <t>赛事名称</t>
-  </si>
-  <si>
-    <t>starteventtime</t>
-  </si>
-  <si>
-    <t>比赛开始时间</t>
-  </si>
-  <si>
-    <t>endeventtime</t>
-  </si>
-  <si>
-    <t>比赛结束时间</t>
-  </si>
-  <si>
-    <t>startsigntime</t>
-  </si>
-  <si>
-    <t>报名开始时间</t>
-  </si>
-  <si>
-    <t>endsigntime</t>
-  </si>
-  <si>
-    <t>报名结束时间</t>
-  </si>
-  <si>
-    <t>endrefundtime</t>
-  </si>
-  <si>
-    <t>退费截止时间</t>
-  </si>
-  <si>
-    <t>赛事描述</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>赛场地址</t>
-  </si>
-  <si>
-    <t>t_eventattachment</t>
-  </si>
-  <si>
-    <t>赛事附件表（可有可无）</t>
-  </si>
-  <si>
-    <t>provinceId</t>
-  </si>
-  <si>
-    <t>省份id</t>
-  </si>
-  <si>
-    <t>cityId</t>
-  </si>
-  <si>
-    <t>城市id</t>
-  </si>
-  <si>
-    <t>isInter</t>
-  </si>
-  <si>
-    <t>是否国际</t>
-  </si>
-  <si>
     <t>filepath</t>
   </si>
   <si>
@@ -625,16 +631,25 @@
     <t>签到类型 裁判 选手</t>
   </si>
   <si>
+    <t>组别名称</t>
+  </si>
+  <si>
+    <t>objId</t>
+  </si>
+  <si>
+    <t>裁判id或者选手id</t>
+  </si>
+  <si>
     <t>mingrade</t>
   </si>
   <si>
     <t>最小年级</t>
   </si>
   <si>
-    <t>objId</t>
-  </si>
-  <si>
-    <t>裁判id或者选手id</t>
+    <t>signuptime</t>
+  </si>
+  <si>
+    <t>签到时间</t>
   </si>
   <si>
     <t>maxgrade</t>
@@ -643,10 +658,10 @@
     <t>最大年级</t>
   </si>
   <si>
-    <t>signuptime</t>
-  </si>
-  <si>
-    <t>签到时间</t>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>签到开始时间</t>
   </si>
   <si>
     <t>minintegral</t>
@@ -655,10 +670,10 @@
     <t>最小积分</t>
   </si>
   <si>
-    <t>starttime</t>
-  </si>
-  <si>
-    <t>签到开始时间</t>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>签到结束时间</t>
   </si>
   <si>
     <t>maxintegral</t>
@@ -667,10 +682,7 @@
     <t>最大积分</t>
   </si>
   <si>
-    <t>endtime</t>
-  </si>
-  <si>
-    <t>签到结束时间</t>
+    <t>status</t>
   </si>
   <si>
     <t>mintimes</t>
@@ -679,9 +691,6 @@
     <t>最小比赛次数</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>maxtimes</t>
   </si>
   <si>
@@ -733,6 +742,9 @@
     <t>赛事组别id</t>
   </si>
   <si>
+    <t>roomStatus</t>
+  </si>
+  <si>
     <t>t_eventcyclingraceavoidrule</t>
   </si>
   <si>
@@ -913,9 +925,6 @@
     <t>反方</t>
   </si>
   <si>
-    <t>循环赛/淘汰赛</t>
-  </si>
-  <si>
     <t>循环赛id/或淘汰赛id</t>
   </si>
   <si>
@@ -1217,6 +1226,27 @@
   </si>
   <si>
     <t>投票结束时间</t>
+  </si>
+  <si>
+    <t>t_mail</t>
+  </si>
+  <si>
+    <t>站内信</t>
+  </si>
+  <si>
+    <t>mailType</t>
+  </si>
+  <si>
+    <t>站内信类型</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>isRead</t>
+  </si>
+  <si>
+    <t>是否已读</t>
   </si>
   <si>
     <t>t_order_shoopingcart</t>
@@ -2514,7 +2544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2566,8 +2596,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2887,10 +2920,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4559,16 +4592,16 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D56" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -4577,28 +4610,28 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="8" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D57" s="9">
-        <v>0</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>49</v>
@@ -4606,107 +4639,103 @@
       <c r="D58" s="9">
         <v>0</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E58" s="9"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D59" s="9">
-        <v>1</v>
-      </c>
-      <c r="E59" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="4:5">
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="1" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="5" t="s">
+      <c r="D63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="F64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="9">
-        <v>11</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -4715,16 +4744,20 @@
         <v>11</v>
       </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="F65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>16</v>
@@ -4739,10 +4772,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>16</v>
@@ -4757,16 +4790,16 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D68" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -4775,16 +4808,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="D69" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -4793,16 +4826,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="D70" s="9">
-        <v>8</v>
+        <v>2000</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -4811,28 +4844,28 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D71" s="9">
-        <v>2000</v>
-      </c>
-      <c r="E71" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="9"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>49</v>
@@ -4840,103 +4873,103 @@
       <c r="D72" s="9">
         <v>0</v>
       </c>
-      <c r="E72" s="9"/>
+      <c r="E72" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D73" s="9">
-        <v>0</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E73" s="9"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-    </row>
-    <row r="75" spans="4:5">
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
+      <c r="A77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A78" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="9">
+        <v>11</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="8" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -4945,20 +4978,18 @@
         <v>11</v>
       </c>
       <c r="E79" s="8"/>
-      <c r="F79" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="8" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>16</v>
@@ -4975,10 +5006,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="8" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>16</v>
@@ -4995,68 +5026,66 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="8" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D82" s="9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="D83" s="9">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D84" s="9">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>31</v>
@@ -5070,43 +5099,47 @@
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" s="9">
-        <v>4</v>
-      </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="A86" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B86" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C86" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D86" s="18">
         <v>1</v>
       </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>49</v>
@@ -5114,48 +5147,30 @@
       <c r="D88" s="9">
         <v>0</v>
       </c>
-      <c r="E88" s="9"/>
+      <c r="E88" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D89" s="9">
-        <v>0</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E89" s="9"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" s="9">
-        <v>1</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5166,8 +5181,8 @@
     <mergeCell ref="M30:Q30"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D76:H76"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -5194,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5277,10 +5292,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -5297,10 +5312,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5315,10 +5330,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5333,10 +5348,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>116</v>
@@ -5351,10 +5366,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -5369,10 +5384,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
@@ -5387,10 +5402,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -5405,10 +5420,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
@@ -5500,13 +5515,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -5563,10 +5578,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -5583,10 +5598,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -5790,7 +5805,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>148</v>
@@ -5912,8 +5927,8 @@
   <sheetPr/>
   <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46:Q54"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6456,10 +6471,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>31</v>
@@ -6472,10 +6487,10 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>21</v>
@@ -6490,10 +6505,10 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>31</v>
@@ -6526,10 +6541,10 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>31</v>
@@ -6565,7 +6580,7 @@
         <v>136</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>116</v>
@@ -6596,10 +6611,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>21</v>
@@ -6616,10 +6631,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -6634,13 +6649,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D23" s="9">
         <v>4</v>
@@ -6711,13 +6726,13 @@
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -6729,13 +6744,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -6872,10 +6887,10 @@
         <v>24</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>31</v>
@@ -6889,29 +6904,27 @@
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="9">
-        <v>4</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="A32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="15">
+        <v>255</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
       <c r="J32" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>16</v>
@@ -6926,10 +6939,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>31</v>
@@ -6944,10 +6957,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>49</v>
@@ -6962,16 +6975,16 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="D34" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>17</v>
@@ -6980,10 +6993,10 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>49</v>
@@ -6998,10 +7011,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>116</v>
@@ -7016,10 +7029,10 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>49</v>
@@ -7034,16 +7047,16 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D36" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>17</v>
@@ -7052,7 +7065,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>33</v>
@@ -7070,10 +7083,10 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>16</v>
@@ -7106,10 +7119,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -7117,7 +7130,9 @@
       <c r="D38" s="9">
         <v>4</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -7142,10 +7157,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -7176,28 +7191,28 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>49</v>
@@ -7205,31 +7220,49 @@
       <c r="D41" s="9">
         <v>0</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D42" s="9">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
     <row r="44" spans="4:5">
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -7239,13 +7272,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -7255,13 +7288,13 @@
         <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -7403,7 +7436,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>21</v>
@@ -7421,7 +7454,7 @@
         <v>22</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>16</v>
@@ -7441,7 +7474,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
@@ -7454,10 +7487,10 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="J51" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>16</v>
@@ -7474,10 +7507,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
@@ -7508,7 +7541,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="8" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>33</v>
@@ -7621,13 +7654,13 @@
         <v>0</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -7639,13 +7672,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -7655,13 +7688,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -7816,7 +7849,7 @@
         <v>11</v>
       </c>
       <c r="W60" s="8"/>
-      <c r="X60" s="19"/>
+      <c r="X60" s="23"/>
       <c r="Y60" s="8"/>
       <c r="Z60" s="8" t="s">
         <v>24</v>
@@ -7860,10 +7893,10 @@
         <v>24</v>
       </c>
       <c r="S61" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="U61" s="8" t="s">
         <v>31</v>
@@ -7872,16 +7905,16 @@
         <v>4</v>
       </c>
       <c r="W61" s="8"/>
-      <c r="X61" s="19"/>
+      <c r="X61" s="23"/>
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>39</v>
@@ -7894,10 +7927,10 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>31</v>
@@ -7910,10 +7943,10 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="S62" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="U62" s="8" t="s">
         <v>31</v>
@@ -7922,16 +7955,16 @@
         <v>4</v>
       </c>
       <c r="W62" s="8"/>
-      <c r="X62" s="19"/>
+      <c r="X62" s="23"/>
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>31</v>
@@ -7944,10 +7977,10 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>31</v>
@@ -7978,10 +8011,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>31</v>
@@ -8030,10 +8063,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -8082,10 +8115,10 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>39</v>
@@ -8096,8 +8129,8 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="20" t="s">
-        <v>256</v>
+      <c r="H66" s="22" t="s">
+        <v>260</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>64</v>
@@ -8117,21 +8150,21 @@
       <c r="Q66" s="8"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C67" s="20" t="s">
+      <c r="A67" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="9">
         <v>4</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
@@ -8195,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -8213,13 +8246,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -8356,10 +8389,10 @@
         <v>24</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L76" s="8" t="s">
         <v>16</v>
@@ -8376,10 +8409,10 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>16</v>
@@ -8394,10 +8427,10 @@
         <v>24</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>16</v>
@@ -8414,10 +8447,10 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>31</v>
@@ -8430,10 +8463,10 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>31</v>
@@ -8448,10 +8481,10 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -8464,7 +8497,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>48</v>
@@ -8482,10 +8515,10 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>16</v>
@@ -8498,7 +8531,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>53</v>
@@ -8516,10 +8549,10 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>31</v>
@@ -8643,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -8661,13 +8694,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -8804,10 +8837,10 @@
         <v>24</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L89" s="8" t="s">
         <v>16</v>
@@ -8824,10 +8857,10 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>16</v>
@@ -8842,10 +8875,10 @@
         <v>24</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>16</v>
@@ -8854,7 +8887,7 @@
         <v>11</v>
       </c>
       <c r="N90" s="8"/>
-      <c r="O90" s="19"/>
+      <c r="O90" s="23"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8" t="s">
         <v>24</v>
@@ -8862,10 +8895,10 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>31</v>
@@ -8878,10 +8911,10 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="J91" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>16</v>
@@ -8890,13 +8923,13 @@
         <v>11</v>
       </c>
       <c r="N91" s="8"/>
-      <c r="O91" s="19"/>
+      <c r="O91" s="23"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>48</v>
@@ -8912,10 +8945,10 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="J92" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>31</v>
@@ -8924,13 +8957,13 @@
         <v>4</v>
       </c>
       <c r="N92" s="8"/>
-      <c r="O92" s="19"/>
+      <c r="O92" s="23"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>53</v>
@@ -8964,10 +8997,10 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>16</v>
@@ -9000,7 +9033,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>33</v>
@@ -9093,13 +9126,13 @@
         <v>0</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -9111,13 +9144,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -9254,10 +9287,10 @@
         <v>24</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L103" s="8" t="s">
         <v>16</v>
@@ -9274,10 +9307,10 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>16</v>
@@ -9292,10 +9325,10 @@
         <v>24</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>16</v>
@@ -9312,10 +9345,10 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>16</v>
@@ -9330,10 +9363,10 @@
         <v>24</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>16</v>
@@ -9350,10 +9383,10 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>16</v>
@@ -9386,10 +9419,10 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>16</v>
@@ -9424,10 +9457,10 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>31</v>
@@ -9458,10 +9491,10 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>16</v>
@@ -9476,7 +9509,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>48</v>
@@ -9494,7 +9527,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>53</v>
@@ -9512,10 +9545,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>16</v>
@@ -9589,13 +9622,13 @@
         <v>0</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -9605,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="U115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
@@ -9673,13 +9706,13 @@
         <v>0</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -9770,10 +9803,10 @@
         <v>24</v>
       </c>
       <c r="S118" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="T118" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="U118" s="8" t="s">
         <v>16</v>
@@ -9810,10 +9843,10 @@
       </c>
       <c r="H119" s="8"/>
       <c r="J119" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L119" s="8" t="s">
         <v>16</v>
@@ -9828,10 +9861,10 @@
         <v>24</v>
       </c>
       <c r="S119" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="T119" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="U119" s="8" t="s">
         <v>16</v>
@@ -9866,10 +9899,10 @@
         <v>24</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L120" s="8" t="s">
         <v>16</v>
@@ -9884,10 +9917,10 @@
         <v>24</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T120" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="U120" s="8" t="s">
         <v>16</v>
@@ -9904,10 +9937,10 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>16</v>
@@ -9925,7 +9958,7 @@
         <v>22</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>16</v>
@@ -9943,7 +9976,7 @@
         <v>22</v>
       </c>
       <c r="T121" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="U121" s="8" t="s">
         <v>16</v>
@@ -9960,10 +9993,10 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>16</v>
@@ -9978,10 +10011,10 @@
         <v>24</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>16</v>
@@ -9994,10 +10027,10 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="S122" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="T122" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="U122" s="8" t="s">
         <v>16</v>
@@ -10012,10 +10045,10 @@
     </row>
     <row r="123" ht="15" customHeight="1" spans="1:26">
       <c r="A123" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>16</v>
@@ -10031,7 +10064,7 @@
         <v>114</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L123" s="8" t="s">
         <v>116</v>
@@ -10047,7 +10080,7 @@
         <v>114</v>
       </c>
       <c r="T123" s="8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="U123" s="8" t="s">
         <v>116</v>
@@ -10065,7 +10098,7 @@
         <v>114</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>116</v>
@@ -10239,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -10257,13 +10290,13 @@
         <v>0</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -10400,10 +10433,10 @@
         <v>24</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L133" s="8" t="s">
         <v>31</v>
@@ -10418,10 +10451,10 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>16</v>
@@ -10439,7 +10472,7 @@
         <v>50</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L134" s="8" t="s">
         <v>21</v>
@@ -10454,10 +10487,10 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>31</v>
@@ -10470,10 +10503,10 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="J135" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>16</v>
@@ -10488,10 +10521,10 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>16</v>
@@ -10509,7 +10542,7 @@
         <v>108</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>21</v>
@@ -10661,10 +10694,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10682,13 +10715,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="17"/>
@@ -10748,7 +10781,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10763,10 +10796,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10781,10 +10814,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10867,13 +10900,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="17"/>
@@ -10933,7 +10966,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10948,10 +10981,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -11030,13 +11063,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="17"/>
@@ -11132,7 +11165,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -11147,10 +11180,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -11165,7 +11198,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>87</v>
@@ -11183,10 +11216,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>31</v>
@@ -11204,7 +11237,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>49</v>
@@ -11285,13 +11318,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="17"/>
@@ -11348,10 +11381,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -11368,10 +11401,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>21</v>
@@ -11386,10 +11419,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -11404,10 +11437,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="14" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>31</v>
@@ -11422,10 +11455,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="14" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>21</v>
@@ -11440,10 +11473,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="14" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>21</v>
@@ -11459,13 +11492,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="17"/>
@@ -11474,10 +11507,10 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="14" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>16</v>
@@ -11572,10 +11605,10 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="J47" s="14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L47" s="14" t="s">
         <v>16</v>
@@ -11606,10 +11639,10 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="J48" s="14" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L48" s="14" t="s">
         <v>16</v>
@@ -11648,13 +11681,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="17"/>
@@ -11747,10 +11780,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -11767,10 +11800,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -11790,7 +11823,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -11874,13 +11907,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="17"/>
@@ -11940,7 +11973,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>21</v>
@@ -11973,10 +12006,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>21</v>
@@ -11993,10 +12026,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -12013,7 +12046,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>33</v>
@@ -12090,13 +12123,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="17"/>
@@ -12153,10 +12186,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>21</v>
@@ -12174,7 +12207,7 @@
         <v>108</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>21</v>
@@ -12189,10 +12222,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>21</v>
@@ -12266,13 +12299,13 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -12347,10 +12380,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>21</v>
@@ -12368,7 +12401,7 @@
         <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C89" t="s">
         <v>21</v>
@@ -12379,10 +12412,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>21</v>
@@ -12456,13 +12489,13 @@
         <v>0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -12472,13 +12505,13 @@
         <v>0</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -12579,10 +12612,10 @@
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>21</v>
@@ -12595,10 +12628,10 @@
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="J98" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L98" s="8" t="s">
         <v>16</v>
@@ -12618,7 +12651,7 @@
         <v>108</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>21</v>
@@ -12631,10 +12664,10 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="J99" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L99" s="8" t="s">
         <v>21</v>
@@ -12649,10 +12682,10 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>49</v>
@@ -12665,10 +12698,10 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="J100" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>16</v>
@@ -12685,10 +12718,10 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>49</v>
@@ -12807,8 +12840,220 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
     </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="9">
+        <v>11</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="8"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="15">
+        <v>11</v>
+      </c>
+      <c r="E110" s="14"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" s="15">
+        <v>4</v>
+      </c>
+      <c r="E111" s="19"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="15">
+        <v>100</v>
+      </c>
+      <c r="E112" s="19"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E113" s="19"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="15">
+        <v>1</v>
+      </c>
+      <c r="E114" s="14"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="9">
+        <v>0</v>
+      </c>
+      <c r="E115" s="22"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="9">
+        <v>0</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="9">
+        <v>1</v>
+      </c>
+      <c r="E117" s="22"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D22:H22"/>
@@ -12820,6 +13065,7 @@
     <mergeCell ref="D84:H84"/>
     <mergeCell ref="D95:H95"/>
     <mergeCell ref="M95:Q95"/>
+    <mergeCell ref="D107:H107"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -12851,13 +13097,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -12914,10 +13160,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -12952,10 +13198,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -12970,10 +13216,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
@@ -12988,10 +13234,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>16</v>
@@ -13006,10 +13252,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -13024,10 +13270,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -13042,10 +13288,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
@@ -13060,10 +13306,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>39</v>
@@ -13157,13 +13403,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -13173,13 +13419,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -13283,7 +13529,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -13318,10 +13564,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -13336,10 +13582,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>16</v>
@@ -13356,10 +13602,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -13375,7 +13621,7 @@
         <v>50</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>21</v>
@@ -13390,10 +13636,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>116</v>
@@ -13406,10 +13652,10 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>16</v>
@@ -13424,10 +13670,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>31</v>
@@ -13440,10 +13686,10 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>116</v>
@@ -13458,10 +13704,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>49</v>
@@ -13474,10 +13720,10 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>116</v>
@@ -13492,10 +13738,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>116</v>
@@ -13508,10 +13754,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>16</v>
@@ -13526,10 +13772,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>116</v>
@@ -13542,10 +13788,10 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>116</v>
@@ -13560,10 +13806,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -13576,10 +13822,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>116</v>
@@ -13597,7 +13843,7 @@
         <v>108</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>21</v>
@@ -13723,13 +13969,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -13739,13 +13985,13 @@
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -13846,10 +14092,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -13864,10 +14110,10 @@
         <v>24</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>16</v>
@@ -13884,10 +14130,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>21</v>
@@ -13900,10 +14146,10 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>31</v>
@@ -13918,10 +14164,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>21</v>
@@ -13934,10 +14180,10 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>21</v>
@@ -13952,10 +14198,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -13968,10 +14214,10 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>21</v>
@@ -13986,10 +14232,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>21</v>
@@ -14113,13 +14359,13 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -14176,10 +14422,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>16</v>
@@ -14196,10 +14442,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
@@ -14214,10 +14460,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>21</v>
@@ -14232,10 +14478,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -14309,13 +14555,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -14325,13 +14571,13 @@
         <v>0</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -14341,13 +14587,13 @@
         <v>0</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
@@ -14492,10 +14738,10 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="8" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>31</v>
@@ -14507,13 +14753,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>16</v>
@@ -14526,10 +14772,10 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="S62" s="8" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="U62" s="8" t="s">
         <v>16</v>
@@ -14544,10 +14790,10 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>16</v>
@@ -14560,10 +14806,10 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>16</v>
@@ -14576,10 +14822,10 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="S63" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="U63" s="8" t="s">
         <v>21</v>
@@ -14594,10 +14840,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>21</v>
@@ -14610,10 +14856,10 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>16</v>
@@ -14626,10 +14872,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>31</v>
@@ -14641,15 +14887,15 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
       <c r="Z64" s="8" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>21</v>
@@ -14662,10 +14908,10 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>16</v>
@@ -14678,10 +14924,10 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>16</v>
@@ -14696,7 +14942,7 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>33</v>
@@ -14890,8 +15136,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:R40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -14906,13 +15152,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -14972,7 +15218,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -15044,13 +15290,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -15130,7 +15376,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -15204,13 +15450,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -15307,10 +15553,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -15325,10 +15571,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -15346,7 +15592,7 @@
         <v>180</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>39</v>
@@ -15420,13 +15666,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -15483,10 +15729,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>31</v>
@@ -15501,10 +15747,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>21</v>
@@ -15519,10 +15765,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>21</v>
@@ -15623,13 +15869,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15689,7 +15935,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -15706,10 +15952,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -15726,10 +15972,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -15805,13 +16051,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -15868,10 +16114,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -15888,10 +16134,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -15908,10 +16154,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -15987,13 +16233,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -16050,10 +16296,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
@@ -16068,10 +16314,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -16086,10 +16332,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
@@ -16206,13 +16452,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16222,13 +16468,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -16332,7 +16578,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -16348,7 +16594,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>21</v>
@@ -16363,10 +16609,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -16379,10 +16625,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>39</v>
@@ -16397,10 +16643,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16413,10 +16659,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -16431,10 +16677,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -16447,10 +16693,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>21</v>
@@ -16465,10 +16711,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -16481,10 +16727,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="K8" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -16604,13 +16850,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -16667,10 +16913,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -16685,10 +16931,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -16703,10 +16949,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -16721,10 +16967,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -16739,10 +16985,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -16757,10 +17003,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -16775,10 +17021,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -16793,10 +17039,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -16811,10 +17057,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -16829,10 +17075,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -16847,10 +17093,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -16865,10 +17111,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -16883,10 +17129,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -16901,10 +17147,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -16919,10 +17165,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -16932,19 +17178,19 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -16959,10 +17205,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -17036,13 +17282,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -17056,7 +17302,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -17157,10 +17403,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="8" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>16</v>
@@ -17175,10 +17421,10 @@
         <v>24</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>16</v>
@@ -17195,10 +17441,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -17322,13 +17568,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -17385,10 +17631,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>16</v>
@@ -17405,10 +17651,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="14" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>116</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="3"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615">
   <si>
     <t>表名</t>
   </si>
@@ -613,318 +613,318 @@
     <t>tinytint</t>
   </si>
   <si>
-    <t>t_signupform</t>
-  </si>
-  <si>
-    <t>签到表(报名时直接插入数据)</t>
-  </si>
-  <si>
     <t>t_eventgroup</t>
   </si>
   <si>
     <t>赛事组表</t>
   </si>
   <si>
+    <t>t_eventsign</t>
+  </si>
+  <si>
+    <t>签到表</t>
+  </si>
+  <si>
+    <t>组别名称</t>
+  </si>
+  <si>
+    <t>eventSignType</t>
+  </si>
+  <si>
+    <t>签到类型 裁判 选手</t>
+  </si>
+  <si>
+    <t>mingrade</t>
+  </si>
+  <si>
+    <t>最小年级</t>
+  </si>
+  <si>
+    <t>裁判id或者选手id</t>
+  </si>
+  <si>
+    <t>maxgrade</t>
+  </si>
+  <si>
+    <t>最大年级</t>
+  </si>
+  <si>
+    <t>signuptime</t>
+  </si>
+  <si>
+    <t>签到时间</t>
+  </si>
+  <si>
+    <t>minintegral</t>
+  </si>
+  <si>
+    <t>最小积分</t>
+  </si>
+  <si>
+    <t>eventSignStatus</t>
+  </si>
+  <si>
+    <t>maxintegral</t>
+  </si>
+  <si>
+    <t>最大积分</t>
+  </si>
+  <si>
+    <t>mintimes</t>
+  </si>
+  <si>
+    <t>最小比赛次数</t>
+  </si>
+  <si>
+    <t>maxtimes</t>
+  </si>
+  <si>
+    <t>最大比赛次数</t>
+  </si>
+  <si>
+    <t>teamnumber</t>
+  </si>
+  <si>
+    <t>队伍人数</t>
+  </si>
+  <si>
+    <t>teamtrainer</t>
+  </si>
+  <si>
+    <t>裁判人数</t>
+  </si>
+  <si>
+    <t>t_eventroom</t>
+  </si>
+  <si>
+    <t>赛事教室管理</t>
+  </si>
+  <si>
+    <t>t_eventroomspec</t>
+  </si>
+  <si>
+    <t>赛事教室特殊处理</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>选手id</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>roomId</t>
+  </si>
+  <si>
+    <t>教室id</t>
+  </si>
+  <si>
+    <t>eventgroupId</t>
+  </si>
+  <si>
+    <t>赛事组别id</t>
+  </si>
+  <si>
+    <t>roomStatus</t>
+  </si>
+  <si>
+    <t>t_eventcyclingraceavoidrule</t>
+  </si>
+  <si>
+    <t>循环赛规避原则</t>
+  </si>
+  <si>
+    <t>t_eventcyclingracesettings</t>
+  </si>
+  <si>
+    <t>循环赛设置</t>
+  </si>
+  <si>
+    <t>t_eventcyclingracerankings reference</t>
+  </si>
+  <si>
+    <t>循环赛排名参考数字设置</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>签到类型 裁判 选手</t>
-  </si>
-  <si>
-    <t>组别名称</t>
+    <t>对垒规避原则 裁判规避原则...</t>
+  </si>
+  <si>
+    <t>isallow</t>
+  </si>
+  <si>
+    <t>是否允许打0.5</t>
+  </si>
+  <si>
+    <t>队伍 选手排名参考数值</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>规则实际数据</t>
+  </si>
+  <si>
+    <t>startrange</t>
+  </si>
+  <si>
+    <t>打分区间</t>
+  </si>
+  <si>
+    <t>参考实际数据</t>
+  </si>
+  <si>
+    <t>endrange</t>
+  </si>
+  <si>
+    <t>cycletimes</t>
+  </si>
+  <si>
+    <t>循环赛次数</t>
+  </si>
+  <si>
+    <t>isbatches</t>
+  </si>
+  <si>
+    <t>是否分批</t>
+  </si>
+  <si>
+    <t>循环数轮次</t>
+  </si>
+  <si>
+    <t>totalround</t>
+  </si>
+  <si>
+    <t>总轮次</t>
+  </si>
+  <si>
+    <t>t_eventcyclingracedetail</t>
+  </si>
+  <si>
+    <t>循环赛场次详情</t>
+  </si>
+  <si>
+    <t>t_eventcyclingrace</t>
+  </si>
+  <si>
+    <t>循环赛</t>
+  </si>
+  <si>
+    <t>赛事组别</t>
+  </si>
+  <si>
+    <t>cyclingraceId</t>
+  </si>
+  <si>
+    <t>循环赛id</t>
+  </si>
+  <si>
+    <t>pairrule</t>
+  </si>
+  <si>
+    <t>配对规则</t>
+  </si>
+  <si>
+    <t>screenings</t>
+  </si>
+  <si>
+    <t>场次</t>
+  </si>
+  <si>
+    <t>currentround</t>
+  </si>
+  <si>
+    <t>当前轮次</t>
+  </si>
+  <si>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>nextround</t>
+  </si>
+  <si>
+    <t>下一轮</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>当前循环赛状态</t>
+  </si>
+  <si>
+    <t>t_eventknockoutavoidrule</t>
+  </si>
+  <si>
+    <t>淘汰赛规避原则</t>
+  </si>
+  <si>
+    <t>t_eventknockout</t>
+  </si>
+  <si>
+    <t>淘汰赛</t>
+  </si>
+  <si>
+    <t>knockoutId</t>
+  </si>
+  <si>
+    <t>淘汰赛id</t>
+  </si>
+  <si>
+    <t>1/32 1/16 1/8</t>
+  </si>
+  <si>
+    <t>trainerCount</t>
+  </si>
+  <si>
+    <t>裁判数</t>
+  </si>
+  <si>
+    <t>t_match_trainer</t>
+  </si>
+  <si>
+    <t>对垒教练表</t>
+  </si>
+  <si>
+    <t>t_match</t>
+  </si>
+  <si>
+    <t>对垒选手表</t>
+  </si>
+  <si>
+    <t>matchId</t>
+  </si>
+  <si>
+    <t>对垒表id</t>
+  </si>
+  <si>
+    <t>progroupId</t>
+  </si>
+  <si>
+    <t>正方</t>
+  </si>
+  <si>
+    <t>trainerId</t>
+  </si>
+  <si>
+    <t>教练id</t>
+  </si>
+  <si>
+    <t>congroupId</t>
+  </si>
+  <si>
+    <t>反方</t>
   </si>
   <si>
     <t>objId</t>
   </si>
   <si>
-    <t>裁判id或者选手id</t>
-  </si>
-  <si>
-    <t>mingrade</t>
-  </si>
-  <si>
-    <t>最小年级</t>
-  </si>
-  <si>
-    <t>signuptime</t>
-  </si>
-  <si>
-    <t>签到时间</t>
-  </si>
-  <si>
-    <t>maxgrade</t>
-  </si>
-  <si>
-    <t>最大年级</t>
-  </si>
-  <si>
-    <t>starttime</t>
-  </si>
-  <si>
-    <t>签到开始时间</t>
-  </si>
-  <si>
-    <t>minintegral</t>
-  </si>
-  <si>
-    <t>最小积分</t>
-  </si>
-  <si>
-    <t>endtime</t>
-  </si>
-  <si>
-    <t>签到结束时间</t>
-  </si>
-  <si>
-    <t>maxintegral</t>
-  </si>
-  <si>
-    <t>最大积分</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>mintimes</t>
-  </si>
-  <si>
-    <t>最小比赛次数</t>
-  </si>
-  <si>
-    <t>maxtimes</t>
-  </si>
-  <si>
-    <t>最大比赛次数</t>
-  </si>
-  <si>
-    <t>teamnumber</t>
-  </si>
-  <si>
-    <t>队伍人数</t>
-  </si>
-  <si>
-    <t>teamtrainer</t>
-  </si>
-  <si>
-    <t>裁判人数</t>
-  </si>
-  <si>
-    <t>t_eventroom</t>
-  </si>
-  <si>
-    <t>赛事教室管理</t>
-  </si>
-  <si>
-    <t>t_eventroomspec</t>
-  </si>
-  <si>
-    <t>赛事教室特殊处理</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>选手id</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>roomId</t>
-  </si>
-  <si>
-    <t>教室id</t>
-  </si>
-  <si>
-    <t>eventgroupId</t>
-  </si>
-  <si>
-    <t>赛事组别id</t>
-  </si>
-  <si>
-    <t>roomStatus</t>
-  </si>
-  <si>
-    <t>t_eventcyclingraceavoidrule</t>
-  </si>
-  <si>
-    <t>循环赛规避原则</t>
-  </si>
-  <si>
-    <t>t_eventcyclingracesettings</t>
-  </si>
-  <si>
-    <t>循环赛设置</t>
-  </si>
-  <si>
-    <t>t_eventcyclingracerankings reference</t>
-  </si>
-  <si>
-    <t>循环赛排名参考数字设置</t>
-  </si>
-  <si>
-    <t>对垒规避原则 裁判规避原则...</t>
-  </si>
-  <si>
-    <t>isallow</t>
-  </si>
-  <si>
-    <t>是否允许打0.5</t>
-  </si>
-  <si>
-    <t>队伍 选手排名参考数值</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>规则实际数据</t>
-  </si>
-  <si>
-    <t>startrange</t>
-  </si>
-  <si>
-    <t>打分区间</t>
-  </si>
-  <si>
-    <t>参考实际数据</t>
-  </si>
-  <si>
-    <t>endrange</t>
-  </si>
-  <si>
-    <t>cycletimes</t>
-  </si>
-  <si>
-    <t>循环赛次数</t>
-  </si>
-  <si>
-    <t>isbatches</t>
-  </si>
-  <si>
-    <t>是否分批</t>
-  </si>
-  <si>
-    <t>循环数轮次</t>
-  </si>
-  <si>
-    <t>totalround</t>
-  </si>
-  <si>
-    <t>总轮次</t>
-  </si>
-  <si>
-    <t>t_eventcyclingracedetail</t>
-  </si>
-  <si>
-    <t>循环赛场次详情</t>
-  </si>
-  <si>
-    <t>t_eventcyclingrace</t>
-  </si>
-  <si>
-    <t>循环赛</t>
-  </si>
-  <si>
-    <t>赛事组别</t>
-  </si>
-  <si>
-    <t>cyclingraceId</t>
-  </si>
-  <si>
-    <t>循环赛id</t>
-  </si>
-  <si>
-    <t>pairrule</t>
-  </si>
-  <si>
-    <t>配对规则</t>
-  </si>
-  <si>
-    <t>screenings</t>
-  </si>
-  <si>
-    <t>场次</t>
-  </si>
-  <si>
-    <t>currentround</t>
-  </si>
-  <si>
-    <t>当前轮次</t>
-  </si>
-  <si>
-    <t>nextround</t>
-  </si>
-  <si>
-    <t>下一轮</t>
-  </si>
-  <si>
-    <t>当前循环赛状态</t>
-  </si>
-  <si>
-    <t>t_eventknockoutavoidrule</t>
-  </si>
-  <si>
-    <t>淘汰赛规避原则</t>
-  </si>
-  <si>
-    <t>t_eventknockout</t>
-  </si>
-  <si>
-    <t>淘汰赛</t>
-  </si>
-  <si>
-    <t>knockoutId</t>
-  </si>
-  <si>
-    <t>淘汰赛id</t>
-  </si>
-  <si>
-    <t>1/32 1/16 1/8</t>
-  </si>
-  <si>
-    <t>trainerCount</t>
-  </si>
-  <si>
-    <t>裁判数</t>
-  </si>
-  <si>
-    <t>t_match_trainer</t>
-  </si>
-  <si>
-    <t>对垒教练表</t>
-  </si>
-  <si>
-    <t>t_match</t>
-  </si>
-  <si>
-    <t>对垒选手表</t>
-  </si>
-  <si>
-    <t>matchId</t>
-  </si>
-  <si>
-    <t>对垒表id</t>
-  </si>
-  <si>
-    <t>progroupId</t>
-  </si>
-  <si>
-    <t>正方</t>
-  </si>
-  <si>
-    <t>trainerId</t>
-  </si>
-  <si>
-    <t>教练id</t>
-  </si>
-  <si>
-    <t>congroupId</t>
-  </si>
-  <si>
-    <t>反方</t>
-  </si>
-  <si>
     <t>循环赛id/或淘汰赛id</t>
   </si>
   <si>
@@ -1399,16 +1399,34 @@
     <t>订单备注</t>
   </si>
   <si>
+    <t>sourceId</t>
+  </si>
+  <si>
+    <t>来源id</t>
+  </si>
+  <si>
+    <t>t_order_invoiceinfo</t>
+  </si>
+  <si>
+    <t>订单发票信息</t>
+  </si>
+  <si>
     <t>t_order_receivinginfo</t>
   </si>
   <si>
     <t>订单收货人信息</t>
   </si>
   <si>
-    <t>t_order_invoiceinfo</t>
-  </si>
-  <si>
-    <t>订单发票信息</t>
+    <t>invoiceType</t>
+  </si>
+  <si>
+    <t>发票类型</t>
+  </si>
+  <si>
+    <t>InvoiceContent</t>
+  </si>
+  <si>
+    <t>发票内容</t>
   </si>
   <si>
     <t>receivingName</t>
@@ -1417,33 +1435,21 @@
     <t>收货人</t>
   </si>
   <si>
-    <t>invoiceType</t>
-  </si>
-  <si>
-    <t>发票类型</t>
+    <t>InvoiceTitle</t>
+  </si>
+  <si>
+    <t>发票抬头</t>
   </si>
   <si>
     <t>contactMobile</t>
   </si>
   <si>
-    <t>InvoiceContent</t>
-  </si>
-  <si>
-    <t>发票内容</t>
-  </si>
-  <si>
     <t>zipCode</t>
   </si>
   <si>
     <t>邮编</t>
   </si>
   <si>
-    <t>InvoiceTitle</t>
-  </si>
-  <si>
-    <t>发票抬头</t>
-  </si>
-  <si>
     <t>ReceivingAddress</t>
   </si>
   <si>
@@ -1474,19 +1480,34 @@
     <t>查询地址</t>
   </si>
   <si>
+    <t>t_order_operationitem</t>
+  </si>
+  <si>
+    <t>订单相关操作(退换货商品)</t>
+  </si>
+  <si>
+    <t>t_order_operationremark</t>
+  </si>
+  <si>
+    <t>订单操作备注</t>
+  </si>
+  <si>
     <t>订单相关操作</t>
   </si>
   <si>
-    <t>t_order_operationitem</t>
-  </si>
-  <si>
-    <t>订单相关操作(退换货商品)</t>
-  </si>
-  <si>
-    <t>t_order_operationremark</t>
-  </si>
-  <si>
-    <t>订单操作备注</t>
+    <t>operId</t>
+  </si>
+  <si>
+    <t>订单操作id</t>
+  </si>
+  <si>
+    <t>orderdetailId</t>
+  </si>
+  <si>
+    <t>订单详情id</t>
+  </si>
+  <si>
+    <t>操作内容</t>
   </si>
   <si>
     <t>operType</t>
@@ -1498,40 +1519,25 @@
     <t>0=订单取消 1=退货申请 2=换货申请</t>
   </si>
   <si>
-    <t>operId</t>
-  </si>
-  <si>
-    <t>订单操作id</t>
-  </si>
-  <si>
-    <t>orderdetailId</t>
-  </si>
-  <si>
-    <t>订单详情id</t>
-  </si>
-  <si>
-    <t>操作内容</t>
+    <t>商品Id</t>
+  </si>
+  <si>
+    <t>1用户2系统</t>
+  </si>
+  <si>
+    <t>退换货数量</t>
+  </si>
+  <si>
+    <t>operUserId</t>
+  </si>
+  <si>
+    <t>操作人Id</t>
   </si>
   <si>
     <t>申请标题</t>
   </si>
   <si>
-    <t>商品Id</t>
-  </si>
-  <si>
-    <t>1用户2系统</t>
-  </si>
-  <si>
     <t>申请内容</t>
-  </si>
-  <si>
-    <t>退换货数量</t>
-  </si>
-  <si>
-    <t>operUserId</t>
-  </si>
-  <si>
-    <t>操作人Id</t>
   </si>
   <si>
     <t>t_province</t>
@@ -5209,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5312,10 +5318,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5330,10 +5336,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5366,10 +5372,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -5384,10 +5390,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
@@ -5402,10 +5408,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -5420,10 +5426,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
@@ -5515,13 +5521,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -5598,10 +5604,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -5927,8 +5933,8 @@
   <sheetPr/>
   <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:H43"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6721,65 +6727,39 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-    </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="J28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="10" t="s">
@@ -6806,26 +6786,30 @@
       <c r="H29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="9">
-        <v>11</v>
-      </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="8"/>
+      <c r="J29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
@@ -6849,10 +6833,10 @@
       </c>
       <c r="H30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>16</v>
@@ -6861,11 +6845,13 @@
         <v>11</v>
       </c>
       <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="O30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
@@ -6887,28 +6873,30 @@
         <v>24</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M31" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>21</v>
@@ -6921,16 +6909,16 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="J32" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M32" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -6939,10 +6927,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>31</v>
@@ -6957,16 +6945,16 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M33" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -6975,10 +6963,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>31</v>
@@ -6993,10 +6981,10 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>49</v>
@@ -7004,17 +6992,19 @@
       <c r="M34" s="9">
         <v>0</v>
       </c>
-      <c r="N34" s="8"/>
+      <c r="N34" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>116</v>
@@ -7029,16 +7019,16 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M35" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -7047,10 +7037,10 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>116</v>
@@ -7065,28 +7055,28 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M36" s="9">
-        <v>4</v>
-      </c>
-      <c r="N36" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="9"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>16</v>
@@ -7101,10 +7091,10 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>49</v>
@@ -7112,17 +7102,19 @@
       <c r="M37" s="9">
         <v>0</v>
       </c>
-      <c r="N37" s="9"/>
+      <c r="N37" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -7137,30 +7129,28 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" s="9"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -7172,29 +7162,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="J39" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M39" s="9">
-        <v>1</v>
-      </c>
-      <c r="N39" s="9"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -7272,13 +7246,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -7288,13 +7262,13 @@
         <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -7436,7 +7410,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>21</v>
@@ -7454,7 +7428,7 @@
         <v>22</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>16</v>
@@ -7474,7 +7448,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
@@ -7487,10 +7461,10 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="J51" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>16</v>
@@ -7507,10 +7481,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
@@ -7541,7 +7515,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>33</v>
@@ -7654,13 +7628,13 @@
         <v>0</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -7672,13 +7646,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -7688,13 +7662,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -7893,10 +7867,10 @@
         <v>24</v>
       </c>
       <c r="S61" s="8" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="U61" s="8" t="s">
         <v>31</v>
@@ -7911,10 +7885,10 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>39</v>
@@ -7927,10 +7901,10 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>31</v>
@@ -7943,10 +7917,10 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="S62" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="U62" s="8" t="s">
         <v>31</v>
@@ -7961,10 +7935,10 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>31</v>
@@ -7977,10 +7951,10 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="J63" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K63" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>31</v>
@@ -8011,10 +7985,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>31</v>
@@ -8063,10 +8037,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -8115,10 +8089,10 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>39</v>
@@ -8130,7 +8104,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>64</v>
@@ -8151,10 +8125,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>16</v>
@@ -8228,13 +8202,13 @@
         <v>0</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -8246,13 +8220,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -8389,10 +8363,10 @@
         <v>24</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L76" s="8" t="s">
         <v>16</v>
@@ -8409,10 +8383,10 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>16</v>
@@ -8427,10 +8401,10 @@
         <v>24</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>16</v>
@@ -8447,10 +8421,10 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>31</v>
@@ -8463,10 +8437,10 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>31</v>
@@ -8481,10 +8455,10 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -8497,7 +8471,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>48</v>
@@ -8515,10 +8489,10 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>16</v>
@@ -8531,7 +8505,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>53</v>
@@ -8549,10 +8523,10 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="8" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>31</v>
@@ -8676,13 +8650,13 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -8694,13 +8668,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -8837,10 +8811,10 @@
         <v>24</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L89" s="8" t="s">
         <v>16</v>
@@ -8857,10 +8831,10 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>16</v>
@@ -8875,10 +8849,10 @@
         <v>24</v>
       </c>
       <c r="J90" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K90" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>16</v>
@@ -8895,10 +8869,10 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="8" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>31</v>
@@ -8911,10 +8885,10 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="J91" s="8" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>16</v>
@@ -8929,7 +8903,7 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="8" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>48</v>
@@ -8945,10 +8919,10 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="J92" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>31</v>
@@ -8963,7 +8937,7 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>53</v>
@@ -8997,10 +8971,10 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>16</v>
@@ -9033,7 +9007,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>33</v>
@@ -9126,13 +9100,13 @@
         <v>0</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -9144,13 +9118,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -9287,10 +9261,10 @@
         <v>24</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L103" s="8" t="s">
         <v>16</v>
@@ -9307,10 +9281,10 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>16</v>
@@ -9325,10 +9299,10 @@
         <v>24</v>
       </c>
       <c r="J104" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K104" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>16</v>
@@ -9345,10 +9319,10 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>16</v>
@@ -9363,10 +9337,10 @@
         <v>24</v>
       </c>
       <c r="J105" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="K105" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="K105" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>16</v>
@@ -9383,10 +9357,10 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>16</v>
@@ -9419,10 +9393,10 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>16</v>
@@ -9457,7 +9431,7 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>131</v>
@@ -9491,7 +9465,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="8" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>300</v>
@@ -9509,7 +9483,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="8" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>48</v>
@@ -9527,7 +9501,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>53</v>
@@ -9803,7 +9777,7 @@
         <v>24</v>
       </c>
       <c r="S118" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T118" s="8" t="s">
         <v>308</v>
@@ -9843,10 +9817,10 @@
       </c>
       <c r="H119" s="8"/>
       <c r="J119" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L119" s="8" t="s">
         <v>16</v>
@@ -9861,10 +9835,10 @@
         <v>24</v>
       </c>
       <c r="S119" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="T119" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U119" s="8" t="s">
         <v>16</v>
@@ -9899,7 +9873,7 @@
         <v>24</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K120" s="8" t="s">
         <v>309</v>
@@ -9917,7 +9891,7 @@
         <v>24</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T120" s="8" t="s">
         <v>310</v>
@@ -9937,10 +9911,10 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>16</v>
@@ -9958,7 +9932,7 @@
         <v>22</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>16</v>
@@ -9976,7 +9950,7 @@
         <v>22</v>
       </c>
       <c r="T121" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="U121" s="8" t="s">
         <v>16</v>
@@ -9993,7 +9967,7 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>309</v>
@@ -10451,10 +10425,10 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>16</v>
@@ -10503,7 +10477,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="J135" s="8" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="K135" s="8" t="s">
         <v>323</v>
@@ -10666,8 +10640,8 @@
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M27:Q27"/>
     <mergeCell ref="D28:H28"/>
+    <mergeCell ref="M28:Q28"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="M46:Q46"/>
     <mergeCell ref="V57:Z57"/>
@@ -10696,8 +10670,8 @@
   <sheetPr/>
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:H117"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13075,10 +13049,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13875,22 +13849,12 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B31" t="s">
+        <v>459</v>
+      </c>
       <c r="J31" s="8" t="s">
         <v>60</v>
       </c>
@@ -13912,10 +13876,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>49</v>
@@ -13923,9 +13887,7 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E32" s="9"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -13948,39 +13910,43 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="35" ht="16" customHeight="1" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+    <row r="34" spans="1:8">
+      <c r="A34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" ht="16" customHeight="1" spans="10:17">
       <c r="J35" s="1" t="s">
         <v>0</v>
       </c>
@@ -13998,31 +13964,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>13</v>
-      </c>
+    <row r="36" spans="10:17">
       <c r="J36" s="10" t="s">
         <v>6</v>
       </c>
@@ -14049,26 +13991,22 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="9">
-        <v>11</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="8"/>
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="J37" s="8" t="s">
         <v>14</v>
       </c>
@@ -14091,23 +14029,29 @@
       <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="9">
-        <v>11</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8" t="s">
-        <v>24</v>
+      <c r="A38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>410</v>
@@ -14130,20 +14074,24 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>462</v>
+        <v>14</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>463</v>
+        <v>15</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39" s="9">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="F39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" s="8"/>
       <c r="J39" s="8" t="s">
         <v>464</v>
@@ -14164,26 +14112,28 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D40" s="9">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="H40" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J40" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>468</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>21</v>
@@ -14198,26 +14148,26 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>470</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="J41" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>472</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>21</v>
@@ -14232,16 +14182,16 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="9">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -14266,18 +14216,18 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>56</v>
+        <v>473</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>57</v>
+        <v>474</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D43" s="9">
-        <v>0</v>
-      </c>
-      <c r="E43" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -14302,20 +14252,18 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>60</v>
+        <v>475</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>61</v>
+        <v>476</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D44" s="9">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -14338,156 +14286,158 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="A47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="10" t="s">
+      <c r="D49" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D50" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E50" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="12" t="s">
+      <c r="F50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="9">
-        <v>11</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="9">
-        <v>11</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>477</v>
+        <v>14</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>478</v>
+        <v>15</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D51" s="9">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="F51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D52" s="9">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -14496,88 +14446,108 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>56</v>
+        <v>481</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>57</v>
+        <v>482</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D54" s="9">
-        <v>0</v>
-      </c>
-      <c r="E54" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>60</v>
+        <v>483</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>61</v>
+        <v>484</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D55" s="9">
-        <v>0</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+    <row r="57" spans="1:8">
+      <c r="A57" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="9">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="10:26">
       <c r="J59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -14587,44 +14557,20 @@
         <v>0</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>13</v>
-      </c>
+    <row r="60" spans="10:26">
       <c r="J60" s="10" t="s">
         <v>6</v>
       </c>
@@ -14675,26 +14621,22 @@
       </c>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="9">
-        <v>11</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="8"/>
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
       <c r="J61" s="8" t="s">
         <v>14</v>
       </c>
@@ -14737,29 +14679,35 @@
       <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="9">
-        <v>4</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8" t="s">
+      <c r="A62" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="K62" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>492</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>16</v>
@@ -14772,10 +14720,10 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="S62" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="T62" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="T62" s="8" t="s">
-        <v>492</v>
       </c>
       <c r="U62" s="8" t="s">
         <v>16</v>
@@ -14790,10 +14738,10 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="8" t="s">
-        <v>410</v>
+        <v>14</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>411</v>
+        <v>15</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>16</v>
@@ -14802,14 +14750,18 @@
         <v>11</v>
       </c>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="F63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H63" s="8"/>
       <c r="J63" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="K63" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>494</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>16</v>
@@ -14825,7 +14777,7 @@
         <v>335</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U63" s="8" t="s">
         <v>21</v>
@@ -14840,26 +14792,28 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>382</v>
+        <v>495</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>496</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D64" s="9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="H64" s="8" t="s">
+        <v>497</v>
+      </c>
       <c r="J64" s="8" t="s">
         <v>413</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>16</v>
@@ -14872,10 +14826,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>31</v>
@@ -14887,21 +14841,21 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
       <c r="Z64" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>499</v>
+        <v>411</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D65" s="9">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -14942,16 +14896,16 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>219</v>
+        <v>382</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>33</v>
+        <v>503</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D66" s="9">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -14992,18 +14946,18 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>57</v>
+        <v>504</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D67" s="9">
-        <v>0</v>
-      </c>
-      <c r="E67" s="9"/>
+        <v>255</v>
+      </c>
+      <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -15046,20 +15000,18 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="8" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D68" s="9">
-        <v>0</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -15098,33 +15050,71 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D69" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="D35:H35"/>
     <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D49:H49"/>
     <mergeCell ref="M59:Q59"/>
     <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="D61:H61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -15136,8 +15126,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -15152,13 +15142,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15218,7 +15208,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -15290,13 +15280,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -15376,7 +15366,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -15450,13 +15440,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -15553,10 +15543,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -15571,10 +15561,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -15592,7 +15582,7 @@
         <v>180</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>39</v>
@@ -15666,13 +15656,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -15729,10 +15719,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>31</v>
@@ -15747,10 +15737,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>21</v>
@@ -15765,10 +15755,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>21</v>
@@ -15869,13 +15859,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15935,7 +15925,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -15952,10 +15942,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -15972,10 +15962,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16051,13 +16041,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -16114,10 +16104,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -16134,10 +16124,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -16154,10 +16144,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -16233,13 +16223,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -16317,7 +16307,7 @@
         <v>335</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -16335,7 +16325,7 @@
         <v>501</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
@@ -16452,13 +16442,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16468,13 +16458,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -16578,7 +16568,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -16594,7 +16584,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>21</v>
@@ -16609,10 +16599,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -16625,10 +16615,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>39</v>
@@ -16643,10 +16633,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16659,10 +16649,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -16677,10 +16667,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -16693,10 +16683,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>21</v>
@@ -16711,10 +16701,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -16727,10 +16717,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -16850,13 +16840,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -16913,10 +16903,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -16931,10 +16921,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -16949,10 +16939,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -16967,10 +16957,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -16985,10 +16975,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -17003,10 +16993,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -17021,10 +17011,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -17039,10 +17029,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -17057,10 +17047,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -17075,10 +17065,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -17093,10 +17083,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -17111,10 +17101,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -17129,10 +17119,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -17147,10 +17137,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -17165,10 +17155,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -17178,19 +17168,19 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -17205,10 +17195,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -17282,13 +17272,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -17302,7 +17292,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -17441,10 +17431,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -17568,13 +17558,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -17651,10 +17641,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="14" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>116</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619">
   <si>
     <t>表名</t>
   </si>
@@ -1540,13 +1540,25 @@
     <t>申请内容</t>
   </si>
   <si>
+    <t>t_country</t>
+  </si>
+  <si>
+    <t>国家表</t>
+  </si>
+  <si>
+    <t>省份名称</t>
+  </si>
+  <si>
     <t>t_province</t>
   </si>
   <si>
     <t>省份表</t>
   </si>
   <si>
-    <t>省份名称</t>
+    <t>countryId</t>
+  </si>
+  <si>
+    <t>国家id</t>
   </si>
   <si>
     <t>t_city</t>
@@ -1875,10 +1887,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1907,23 +1919,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1937,7 +1942,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1945,7 +1950,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1966,8 +1971,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1975,7 +2003,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2005,23 +2033,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2035,17 +2049,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2072,7 +2084,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,55 +2132,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,43 +2156,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2204,7 +2186,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2216,19 +2216,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2240,19 +2252,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2309,15 +2321,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2362,17 +2365,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2388,16 +2400,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2408,10 +2420,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2420,137 +2432,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2586,25 +2598,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -4487,8 +4490,8 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -4689,8 +4692,8 @@
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="4:5">
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
@@ -5105,22 +5108,22 @@
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="9">
         <v>1</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="8" t="s">
@@ -5215,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5318,10 +5321,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5336,10 +5339,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5372,10 +5375,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -5390,10 +5393,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
@@ -5408,10 +5411,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -5426,10 +5429,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
@@ -5521,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -5604,10 +5607,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -5933,7 +5936,7 @@
   <sheetPr/>
   <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="J28" sqref="J28:Q38"/>
     </sheetView>
   </sheetViews>
@@ -6440,22 +6443,22 @@
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="9">
         <v>1</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>95</v>
       </c>
@@ -6892,22 +6895,22 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="9">
         <v>255</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
         <v>201</v>
       </c>
@@ -6992,7 +6995,7 @@
       <c r="M34" s="9">
         <v>0</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="N34" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O34" s="8"/>
@@ -7238,8 +7241,8 @@
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
@@ -7622,8 +7625,8 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="4:26">
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
       <c r="S57" s="1" t="s">
         <v>0</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>11</v>
       </c>
       <c r="W60" s="8"/>
-      <c r="X60" s="23"/>
+      <c r="X60" s="18"/>
       <c r="Y60" s="8"/>
       <c r="Z60" s="8" t="s">
         <v>24</v>
@@ -7879,7 +7882,7 @@
         <v>4</v>
       </c>
       <c r="W61" s="8"/>
-      <c r="X61" s="23"/>
+      <c r="X61" s="18"/>
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
     </row>
@@ -7929,7 +7932,7 @@
         <v>4</v>
       </c>
       <c r="W62" s="8"/>
-      <c r="X62" s="23"/>
+      <c r="X62" s="18"/>
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
@@ -8103,7 +8106,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="22" t="s">
+      <c r="H66" s="17" t="s">
         <v>256</v>
       </c>
       <c r="J66" s="8" t="s">
@@ -8124,21 +8127,21 @@
       <c r="Q66" s="8"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="9">
         <v>4</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
@@ -8861,7 +8864,7 @@
         <v>11</v>
       </c>
       <c r="N90" s="8"/>
-      <c r="O90" s="23"/>
+      <c r="O90" s="18"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8" t="s">
         <v>24</v>
@@ -8897,7 +8900,7 @@
         <v>11</v>
       </c>
       <c r="N91" s="8"/>
-      <c r="O91" s="23"/>
+      <c r="O91" s="18"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
     </row>
@@ -8931,7 +8934,7 @@
         <v>4</v>
       </c>
       <c r="N92" s="8"/>
-      <c r="O92" s="23"/>
+      <c r="O92" s="18"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
     </row>
@@ -10668,17 +10671,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="9" style="16"/>
+    <col min="6" max="6" width="9" style="13"/>
     <col min="10" max="10" width="15.8833333333333" customWidth="1"/>
     <col min="11" max="11" width="14.25" customWidth="1"/>
     <col min="20" max="20" width="11.3833333333333" customWidth="1"/>
@@ -10698,7 +10701,7 @@
         <v>327</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="17"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
@@ -10863,11 +10866,11 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="4:14">
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -10883,7 +10886,7 @@
         <v>334</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -11028,8 +11031,8 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20"/>
     </row>
     <row r="22" spans="1:8">
@@ -11046,7 +11049,7 @@
         <v>338</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="17"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -11189,22 +11192,22 @@
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="9">
         <v>4</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
@@ -11283,8 +11286,8 @@
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="4:6">
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
       <c r="F35"/>
     </row>
     <row r="36" spans="1:8">
@@ -11301,7 +11304,7 @@
         <v>347</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
@@ -11410,58 +11413,58 @@
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="9">
         <v>4</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="9">
         <v>200</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="9">
         <v>200</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
       <c r="J44" s="1" t="s">
         <v>0</v>
       </c>
@@ -11475,27 +11478,27 @@
         <v>361</v>
       </c>
       <c r="N44" s="4"/>
-      <c r="O44" s="17"/>
+      <c r="O44" s="14"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="15">
-        <v>11</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="C45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="9">
+        <v>11</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
       <c r="J45" s="10" t="s">
         <v>6</v>
       </c>
@@ -11578,22 +11581,22 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="L47" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="14">
-        <v>11</v>
-      </c>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
+      <c r="L47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="8">
+        <v>11</v>
+      </c>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="8" t="s">
@@ -11612,26 +11615,26 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="L48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="14">
-        <v>11</v>
-      </c>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
+      <c r="L48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="8">
+        <v>11</v>
+      </c>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
     </row>
     <row r="49" spans="4:17">
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
       <c r="F49"/>
       <c r="J49" s="8" t="s">
         <v>56</v>
@@ -11664,7 +11667,7 @@
         <v>367</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="17"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="J50" s="8" t="s">
@@ -11749,8 +11752,8 @@
         <v>18</v>
       </c>
       <c r="H52" s="8"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
@@ -11769,8 +11772,8 @@
       <c r="F53" s="9"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
@@ -11789,30 +11792,30 @@
       <c r="F54" s="9"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="8" t="s">
         <v>372</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="9">
         <v>200</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
@@ -11831,8 +11834,8 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
@@ -11853,8 +11856,8 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
@@ -11873,8 +11876,8 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
@@ -11890,7 +11893,7 @@
         <v>374</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="17"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
@@ -12106,7 +12109,7 @@
         <v>381</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="17"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
@@ -12354,78 +12357,82 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="8" t="s">
-        <v>382</v>
+        <v>124</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D88" s="9">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+    <row r="89" spans="1:8">
+      <c r="A89" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="9">
+        <v>200</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D90" s="16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="9">
-        <v>200</v>
-      </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="8" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D91" s="9">
-        <v>0</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>49</v>
@@ -12433,179 +12440,159 @@
       <c r="D92" s="9">
         <v>0</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D93" s="9">
-        <v>1</v>
-      </c>
-      <c r="E93" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="2" t="s">
+    <row r="94" spans="1:8">
+      <c r="A94" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="9">
+        <v>1</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="J95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="J96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M95" s="3" t="s">
+      <c r="M96" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="10" t="s">
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C97" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D97" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E97" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="12" t="s">
+      <c r="F97" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H97" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J97" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K96" s="10" t="s">
+      <c r="K97" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L96" s="11" t="s">
+      <c r="L97" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M96" s="12" t="s">
+      <c r="M97" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N96" s="12" t="s">
+      <c r="N97" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O96" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P96" s="12" t="s">
+      <c r="O97" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P97" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q96" s="10" t="s">
+      <c r="Q97" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="9">
-        <v>11</v>
-      </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" s="8"/>
-      <c r="J97" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K97" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L97" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M97" s="9">
-        <v>11</v>
-      </c>
-      <c r="N97" s="8"/>
-      <c r="O97" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q97" s="8"/>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="8" t="s">
-        <v>382</v>
+        <v>14</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>391</v>
+        <v>15</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="8">
-        <v>2000</v>
+        <v>16</v>
+      </c>
+      <c r="D98" s="9">
+        <v>11</v>
       </c>
       <c r="E98" s="8"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="8"/>
+      <c r="F98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H98" s="8"/>
       <c r="J98" s="8" t="s">
-        <v>392</v>
+        <v>14</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>393</v>
+        <v>15</v>
       </c>
       <c r="L98" s="8" t="s">
         <v>16</v>
@@ -12614,88 +12601,90 @@
         <v>11</v>
       </c>
       <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="O98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q98" s="8"/>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="8" t="s">
-        <v>108</v>
+        <v>382</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="8">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="J99" s="8" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M99" s="9">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="N99" s="8"/>
-      <c r="O99" s="9"/>
+      <c r="O99" s="8"/>
       <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
+      <c r="Q99" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="8" t="s">
-        <v>395</v>
+        <v>108</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D100" s="8">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="9"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="J100" s="8" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M100" s="9">
-        <v>11</v>
+        <v>2000</v>
       </c>
       <c r="N100" s="8"/>
       <c r="O100" s="9"/>
-      <c r="P100" s="8">
-        <v>0</v>
-      </c>
+      <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>49</v>
@@ -12708,44 +12697,46 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>56</v>
+        <v>397</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>57</v>
+        <v>398</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M101" s="9">
-        <v>0</v>
-      </c>
-      <c r="N101" s="9"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="N101" s="8"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="8">
+        <v>0</v>
+      </c>
       <c r="Q101" s="8"/>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
-        <v>56</v>
+        <v>399</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>57</v>
+        <v>400</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D102" s="9">
-        <v>0</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="8"/>
+      <c r="D102" s="8">
+        <v>4</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="J102" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>49</v>
@@ -12753,19 +12744,17 @@
       <c r="M102" s="9">
         <v>0</v>
       </c>
-      <c r="N102" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N102" s="9"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>49</v>
@@ -12773,258 +12762,294 @@
       <c r="D103" s="9">
         <v>0</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E103" s="9"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="J103" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M103" s="9">
-        <v>1</v>
-      </c>
-      <c r="N103" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:17">
       <c r="A104" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D104" s="9">
-        <v>1</v>
-      </c>
-      <c r="E104" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="J104" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M104" s="9">
+        <v>1</v>
+      </c>
+      <c r="N104" s="9"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="9">
+        <v>1</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="10" t="s">
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C109" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D109" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E109" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="12" t="s">
+      <c r="F109" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H108" s="10" t="s">
+      <c r="H109" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="8" t="s">
+    <row r="110" spans="1:8">
+      <c r="A110" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B110" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="9">
-        <v>11</v>
-      </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="9" t="s">
+      <c r="C110" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="9">
+        <v>11</v>
+      </c>
+      <c r="E110" s="8"/>
+      <c r="F110" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G110" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H109" s="8"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="14" t="s">
+      <c r="H110" s="8"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B111" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C110" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="15">
-        <v>11</v>
-      </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="19" t="s">
+      <c r="C111" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="9">
+        <v>11</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B112" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C112" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D112" s="9">
         <v>4</v>
       </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="19" t="s">
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B113" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C113" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D113" s="9">
         <v>100</v>
       </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="19" t="s">
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B114" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C114" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D114" s="9">
         <v>2000</v>
       </c>
-      <c r="E113" s="19"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="14" t="s">
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B115" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C115" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D115" s="9">
         <v>1</v>
       </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="21" t="s">
+      <c r="E115" s="8"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="B116" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C116" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D115" s="9">
-        <v>0</v>
-      </c>
-      <c r="E115" s="22"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="21" t="s">
+      <c r="D116" s="9">
+        <v>0</v>
+      </c>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B117" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C117" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D116" s="9">
-        <v>0</v>
-      </c>
-      <c r="E116" s="9" t="s">
+      <c r="D117" s="9">
+        <v>0</v>
+      </c>
+      <c r="E117" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="21" t="s">
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="B118" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C118" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D118" s="9">
         <v>1</v>
       </c>
-      <c r="E117" s="22"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="21"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -13037,9 +13062,9 @@
     <mergeCell ref="D60:H60"/>
     <mergeCell ref="D73:H73"/>
     <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="M95:Q95"/>
-    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="M96:Q96"/>
+    <mergeCell ref="D108:H108"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -15124,17 +15149,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="13.6333333333333" customWidth="1"/>
-    <col min="4" max="5" width="9" style="16"/>
+    <col min="4" max="5" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15343,10 +15368,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>176</v>
+        <v>510</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>177</v>
+        <v>511</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -15354,19 +15379,17 @@
       <c r="D12" s="9">
         <v>11</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -15410,9 +15433,7 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -15435,56 +15456,78 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="9">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -15492,243 +15535,241 @@
       <c r="D21" s="9">
         <v>11</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>179</v>
+        <v>514</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>513</v>
+        <v>60</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>514</v>
+        <v>61</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D24" s="9">
-        <v>100</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>515</v>
+        <v>64</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>516</v>
+        <v>65</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D25" s="9">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="8" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="9">
+        <v>11</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="9">
+        <v>11</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="9">
+        <v>11</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="C33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="9">
+        <v>100</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>14</v>
+        <v>519</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>15</v>
+        <v>520</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D34" s="9">
-        <v>11</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D35" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="8"/>
@@ -15737,16 +15778,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>521</v>
+        <v>56</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>522</v>
+        <v>57</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D36" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="8"/>
@@ -15755,84 +15796,225 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>523</v>
+        <v>60</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>524</v>
+        <v>61</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D37" s="9">
-        <v>50</v>
-      </c>
-      <c r="E37" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="8" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="9">
+        <v>11</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="9">
+        <v>4</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="9">
+        <v>50</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="9">
+        <v>50</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D49" s="9">
         <v>1</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -15859,13 +16041,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15925,7 +16107,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -15942,10 +16124,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -15962,10 +16144,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16041,13 +16223,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -16104,10 +16286,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -16124,10 +16306,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -16144,10 +16326,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -16223,13 +16405,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -16325,7 +16507,7 @@
         <v>501</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
@@ -16442,13 +16624,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16458,13 +16640,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -16568,7 +16750,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -16584,7 +16766,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>21</v>
@@ -16599,10 +16781,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -16615,10 +16797,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>39</v>
@@ -16633,10 +16815,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16649,10 +16831,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -16667,10 +16849,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -16683,10 +16865,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>21</v>
@@ -16701,10 +16883,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -16717,10 +16899,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="K8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -16840,13 +17022,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -16903,10 +17085,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -16921,10 +17103,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -16939,10 +17121,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -16957,10 +17139,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -16975,10 +17157,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -16993,10 +17175,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -17011,10 +17193,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -17029,10 +17211,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -17047,10 +17229,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -17065,10 +17247,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -17083,10 +17265,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -17101,10 +17283,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -17119,10 +17301,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -17137,10 +17319,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -17155,10 +17337,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -17168,19 +17350,19 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -17195,10 +17377,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -17272,13 +17454,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -17292,7 +17474,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -17401,7 +17583,7 @@
       <c r="C42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="9">
         <v>11</v>
       </c>
       <c r="E42" s="8"/>
@@ -17419,7 +17601,7 @@
       <c r="M42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="9">
         <v>11</v>
       </c>
       <c r="O42" s="8"/>
@@ -17431,15 +17613,15 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="9">
         <v>400</v>
       </c>
       <c r="E43" s="8"/>
@@ -17558,13 +17740,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -17629,7 +17811,7 @@
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="9">
         <v>11</v>
       </c>
       <c r="E51" s="8"/>
@@ -17640,22 +17822,22 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="C52" s="14" t="s">
+      <c r="A52" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="9">
         <v>8</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="5"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616">
   <si>
     <t>表名</t>
   </si>
@@ -688,31 +688,223 @@
     <t>队伍人数</t>
   </si>
   <si>
-    <t>teamtrainer</t>
-  </si>
-  <si>
-    <t>裁判人数</t>
-  </si>
-  <si>
     <t>t_eventroom</t>
   </si>
   <si>
     <t>赛事教室管理</t>
   </si>
   <si>
-    <t>t_eventroomspec</t>
-  </si>
-  <si>
-    <t>赛事教室特殊处理</t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>eventgroupId</t>
+  </si>
+  <si>
+    <t>赛事组别id</t>
+  </si>
+  <si>
     <t>选手id</t>
   </si>
   <si>
-    <t>名称</t>
+    <t>特殊人员</t>
+  </si>
+  <si>
+    <t>roomStatus</t>
+  </si>
+  <si>
+    <t>t_eventcyclingracesettings</t>
+  </si>
+  <si>
+    <t>循环赛设置</t>
+  </si>
+  <si>
+    <t>t_eventcyclingracerankings reference</t>
+  </si>
+  <si>
+    <t>循环赛排名参考数字设置</t>
+  </si>
+  <si>
+    <t>t_eventcyclingraceavoidrule</t>
+  </si>
+  <si>
+    <t>循环赛规避原则</t>
+  </si>
+  <si>
+    <t>isallow</t>
+  </si>
+  <si>
+    <t>是否允许打0.5</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>队伍 选手排名参考数值</t>
+  </si>
+  <si>
+    <t>对垒规避原则 裁判规避原则...</t>
+  </si>
+  <si>
+    <t>startrange</t>
+  </si>
+  <si>
+    <t>打分区间</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>参考实际数据</t>
+  </si>
+  <si>
+    <t>规则实际数据</t>
+  </si>
+  <si>
+    <t>endrange</t>
+  </si>
+  <si>
+    <t>cycletimes</t>
+  </si>
+  <si>
+    <t>循环赛次数</t>
+  </si>
+  <si>
+    <t>isbatches</t>
+  </si>
+  <si>
+    <t>是否分批</t>
+  </si>
+  <si>
+    <t>循环数轮次</t>
+  </si>
+  <si>
+    <t>totalround</t>
+  </si>
+  <si>
+    <t>总轮次</t>
+  </si>
+  <si>
+    <t>t_eventcyclingracedetail</t>
+  </si>
+  <si>
+    <t>循环赛场次详情</t>
+  </si>
+  <si>
+    <t>t_eventcyclingrace</t>
+  </si>
+  <si>
+    <t>循环赛</t>
+  </si>
+  <si>
+    <t>赛事组别</t>
+  </si>
+  <si>
+    <t>cyclingraceId</t>
+  </si>
+  <si>
+    <t>循环赛id</t>
+  </si>
+  <si>
+    <t>pairrule</t>
+  </si>
+  <si>
+    <t>配对规则</t>
+  </si>
+  <si>
+    <t>screenings</t>
+  </si>
+  <si>
+    <t>场次</t>
+  </si>
+  <si>
+    <t>currentround</t>
+  </si>
+  <si>
+    <t>当前轮次</t>
+  </si>
+  <si>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>nextround</t>
+  </si>
+  <si>
+    <t>下一轮</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>当前循环赛状态</t>
+  </si>
+  <si>
+    <t>t_eventknockoutavoidrule</t>
+  </si>
+  <si>
+    <t>淘汰赛规避原则</t>
+  </si>
+  <si>
+    <t>t_eventknockout</t>
+  </si>
+  <si>
+    <t>淘汰赛</t>
+  </si>
+  <si>
+    <t>knockoutId</t>
+  </si>
+  <si>
+    <t>淘汰赛id</t>
+  </si>
+  <si>
+    <t>1/32 1/16 1/8</t>
+  </si>
+  <si>
+    <t>trainerCount</t>
+  </si>
+  <si>
+    <t>裁判数</t>
+  </si>
+  <si>
+    <t>t_match_trainer</t>
+  </si>
+  <si>
+    <t>对垒教练表</t>
+  </si>
+  <si>
+    <t>t_match</t>
+  </si>
+  <si>
+    <t>对垒选手表</t>
+  </si>
+  <si>
+    <t>matchId</t>
+  </si>
+  <si>
+    <t>对垒表id</t>
+  </si>
+  <si>
+    <t>progroupId</t>
+  </si>
+  <si>
+    <t>正方</t>
+  </si>
+  <si>
+    <t>trainerId</t>
+  </si>
+  <si>
+    <t>教练id</t>
+  </si>
+  <si>
+    <t>congroupId</t>
+  </si>
+  <si>
+    <t>反方</t>
   </si>
   <si>
     <t>roomId</t>
@@ -721,207 +913,6 @@
     <t>教室id</t>
   </si>
   <si>
-    <t>eventgroupId</t>
-  </si>
-  <si>
-    <t>赛事组别id</t>
-  </si>
-  <si>
-    <t>roomStatus</t>
-  </si>
-  <si>
-    <t>t_eventcyclingraceavoidrule</t>
-  </si>
-  <si>
-    <t>循环赛规避原则</t>
-  </si>
-  <si>
-    <t>t_eventcyclingracesettings</t>
-  </si>
-  <si>
-    <t>循环赛设置</t>
-  </si>
-  <si>
-    <t>t_eventcyclingracerankings reference</t>
-  </si>
-  <si>
-    <t>循环赛排名参考数字设置</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>对垒规避原则 裁判规避原则...</t>
-  </si>
-  <si>
-    <t>isallow</t>
-  </si>
-  <si>
-    <t>是否允许打0.5</t>
-  </si>
-  <si>
-    <t>队伍 选手排名参考数值</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>规则实际数据</t>
-  </si>
-  <si>
-    <t>startrange</t>
-  </si>
-  <si>
-    <t>打分区间</t>
-  </si>
-  <si>
-    <t>参考实际数据</t>
-  </si>
-  <si>
-    <t>endrange</t>
-  </si>
-  <si>
-    <t>cycletimes</t>
-  </si>
-  <si>
-    <t>循环赛次数</t>
-  </si>
-  <si>
-    <t>isbatches</t>
-  </si>
-  <si>
-    <t>是否分批</t>
-  </si>
-  <si>
-    <t>循环数轮次</t>
-  </si>
-  <si>
-    <t>totalround</t>
-  </si>
-  <si>
-    <t>总轮次</t>
-  </si>
-  <si>
-    <t>t_eventcyclingracedetail</t>
-  </si>
-  <si>
-    <t>循环赛场次详情</t>
-  </si>
-  <si>
-    <t>t_eventcyclingrace</t>
-  </si>
-  <si>
-    <t>循环赛</t>
-  </si>
-  <si>
-    <t>赛事组别</t>
-  </si>
-  <si>
-    <t>cyclingraceId</t>
-  </si>
-  <si>
-    <t>循环赛id</t>
-  </si>
-  <si>
-    <t>pairrule</t>
-  </si>
-  <si>
-    <t>配对规则</t>
-  </si>
-  <si>
-    <t>screenings</t>
-  </si>
-  <si>
-    <t>场次</t>
-  </si>
-  <si>
-    <t>currentround</t>
-  </si>
-  <si>
-    <t>当前轮次</t>
-  </si>
-  <si>
-    <t>starttime</t>
-  </si>
-  <si>
-    <t>nextround</t>
-  </si>
-  <si>
-    <t>下一轮</t>
-  </si>
-  <si>
-    <t>endtime</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>当前循环赛状态</t>
-  </si>
-  <si>
-    <t>t_eventknockoutavoidrule</t>
-  </si>
-  <si>
-    <t>淘汰赛规避原则</t>
-  </si>
-  <si>
-    <t>t_eventknockout</t>
-  </si>
-  <si>
-    <t>淘汰赛</t>
-  </si>
-  <si>
-    <t>knockoutId</t>
-  </si>
-  <si>
-    <t>淘汰赛id</t>
-  </si>
-  <si>
-    <t>1/32 1/16 1/8</t>
-  </si>
-  <si>
-    <t>trainerCount</t>
-  </si>
-  <si>
-    <t>裁判数</t>
-  </si>
-  <si>
-    <t>t_match_trainer</t>
-  </si>
-  <si>
-    <t>对垒教练表</t>
-  </si>
-  <si>
-    <t>t_match</t>
-  </si>
-  <si>
-    <t>对垒选手表</t>
-  </si>
-  <si>
-    <t>matchId</t>
-  </si>
-  <si>
-    <t>对垒表id</t>
-  </si>
-  <si>
-    <t>progroupId</t>
-  </si>
-  <si>
-    <t>正方</t>
-  </si>
-  <si>
-    <t>trainerId</t>
-  </si>
-  <si>
-    <t>教练id</t>
-  </si>
-  <si>
-    <t>congroupId</t>
-  </si>
-  <si>
-    <t>反方</t>
-  </si>
-  <si>
     <t>objId</t>
   </si>
   <si>
@@ -1255,166 +1246,172 @@
     <t>购物车信息</t>
   </si>
   <si>
+    <t>sessionId</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>商品id</t>
+  </si>
+  <si>
+    <t>stockId</t>
+  </si>
+  <si>
+    <t>库存id</t>
+  </si>
+  <si>
+    <t>productAttribute</t>
+  </si>
+  <si>
+    <t>商品特性</t>
+  </si>
+  <si>
+    <t>priceId</t>
+  </si>
+  <si>
+    <t>价格id</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>购买数量</t>
+  </si>
+  <si>
+    <t>isSelect</t>
+  </si>
+  <si>
+    <t>是否选中</t>
+  </si>
+  <si>
+    <t>t_order</t>
+  </si>
+  <si>
+    <t>订单表</t>
+  </si>
+  <si>
+    <t>t_orderdetail</t>
+  </si>
+  <si>
+    <t>订单详情表</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>mainOrderId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主订单id </t>
+  </si>
+  <si>
     <t>orderId</t>
   </si>
   <si>
+    <t>订单id</t>
+  </si>
+  <si>
+    <t>orderType</t>
+  </si>
+  <si>
+    <t>订单类型</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>订单金额</t>
+  </si>
+  <si>
+    <t>产品id</t>
+  </si>
+  <si>
+    <t>orderStatus</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>payExpiryDate</t>
+  </si>
+  <si>
+    <t>最晚支付时间</t>
+  </si>
+  <si>
+    <t>unitprice</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>totaldiscount</t>
+  </si>
+  <si>
+    <t>总折扣金额</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>totalcoupon</t>
+  </si>
+  <si>
+    <t>总优惠金额</t>
+  </si>
+  <si>
+    <t>discountprice</t>
+  </si>
+  <si>
+    <t>折扣</t>
+  </si>
+  <si>
+    <t>isNeedInvoice</t>
+  </si>
+  <si>
+    <t>是否需要发票</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>优惠金额</t>
+  </si>
+  <si>
+    <t>订单备注</t>
+  </si>
+  <si>
+    <t>sourceId</t>
+  </si>
+  <si>
+    <t>来源id</t>
+  </si>
+  <si>
+    <t>t_order_receivinginfo</t>
+  </si>
+  <si>
+    <t>订单收货人信息</t>
+  </si>
+  <si>
+    <t>t_order_invoiceinfo</t>
+  </si>
+  <si>
+    <t>订单发票信息</t>
+  </si>
+  <si>
     <t>订单号</t>
   </si>
   <si>
-    <t>sessionId</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>商品id</t>
-  </si>
-  <si>
-    <t>stockId</t>
-  </si>
-  <si>
-    <t>库存id</t>
-  </si>
-  <si>
-    <t>productAttribute</t>
-  </si>
-  <si>
-    <t>商品特性</t>
-  </si>
-  <si>
-    <t>priceId</t>
-  </si>
-  <si>
-    <t>价格id</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>购买数量</t>
-  </si>
-  <si>
-    <t>isSelect</t>
-  </si>
-  <si>
-    <t>是否选中</t>
-  </si>
-  <si>
-    <t>t_order</t>
-  </si>
-  <si>
-    <t>订单表</t>
-  </si>
-  <si>
-    <t>t_orderdetail</t>
-  </si>
-  <si>
-    <t>订单详情表</t>
-  </si>
-  <si>
-    <t>用户id</t>
-  </si>
-  <si>
-    <t>mainOrderId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主订单id </t>
-  </si>
-  <si>
-    <t>订单id</t>
-  </si>
-  <si>
-    <t>orderType</t>
-  </si>
-  <si>
-    <t>订单类型</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>订单金额</t>
-  </si>
-  <si>
-    <t>产品id</t>
-  </si>
-  <si>
-    <t>orderStatus</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>payExpiryDate</t>
-  </si>
-  <si>
-    <t>最晚支付时间</t>
-  </si>
-  <si>
-    <t>unitprice</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>totaldiscount</t>
-  </si>
-  <si>
-    <t>总折扣金额</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>totalcoupon</t>
-  </si>
-  <si>
-    <t>总优惠金额</t>
-  </si>
-  <si>
-    <t>discountprice</t>
-  </si>
-  <si>
-    <t>折扣</t>
-  </si>
-  <si>
-    <t>isNeedInvoice</t>
-  </si>
-  <si>
-    <t>是否需要发票</t>
-  </si>
-  <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>优惠金额</t>
-  </si>
-  <si>
-    <t>订单备注</t>
-  </si>
-  <si>
-    <t>sourceId</t>
-  </si>
-  <si>
-    <t>来源id</t>
-  </si>
-  <si>
-    <t>t_order_invoiceinfo</t>
-  </si>
-  <si>
-    <t>订单发票信息</t>
-  </si>
-  <si>
-    <t>t_order_receivinginfo</t>
-  </si>
-  <si>
-    <t>订单收货人信息</t>
+    <t>receivingName</t>
+  </si>
+  <si>
+    <t>收货人</t>
   </si>
   <si>
     <t>invoiceType</t>
@@ -1423,61 +1420,61 @@
     <t>发票类型</t>
   </si>
   <si>
-    <t>InvoiceContent</t>
+    <t>contactMobile</t>
+  </si>
+  <si>
+    <t>invoiceContent</t>
   </si>
   <si>
     <t>发票内容</t>
   </si>
   <si>
-    <t>receivingName</t>
-  </si>
-  <si>
-    <t>收货人</t>
-  </si>
-  <si>
-    <t>InvoiceTitle</t>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>邮编</t>
+  </si>
+  <si>
+    <t>invoiceTitle</t>
   </si>
   <si>
     <t>发票抬头</t>
   </si>
   <si>
-    <t>contactMobile</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>邮编</t>
-  </si>
-  <si>
-    <t>ReceivingAddress</t>
+    <t>receivingAddress</t>
   </si>
   <si>
     <t>收货地址</t>
   </si>
   <si>
+    <t>t_order_carry</t>
+  </si>
+  <si>
+    <t>订单物流信息</t>
+  </si>
+  <si>
+    <t>carryName</t>
+  </si>
+  <si>
+    <t>快递公司名称</t>
+  </si>
+  <si>
+    <t>queryNo</t>
+  </si>
+  <si>
+    <t>快递单号</t>
+  </si>
+  <si>
+    <t>queryAddress</t>
+  </si>
+  <si>
+    <t>查询地址</t>
+  </si>
+  <si>
     <t>t_order_operation</t>
   </si>
   <si>
-    <t>订单物流信息</t>
-  </si>
-  <si>
-    <t>carryName</t>
-  </si>
-  <si>
-    <t>快递公司名称</t>
-  </si>
-  <si>
-    <t>queryNo</t>
-  </si>
-  <si>
-    <t>快递单号</t>
-  </si>
-  <si>
-    <t>queryAddress</t>
-  </si>
-  <si>
-    <t>查询地址</t>
+    <t>订单相关操作</t>
   </si>
   <si>
     <t>t_order_operationitem</t>
@@ -1492,7 +1489,13 @@
     <t>订单操作备注</t>
   </si>
   <si>
-    <t>订单相关操作</t>
+    <t>orderOperType</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+  </si>
+  <si>
+    <t>0=订单取消 1=退货申请 2=换货申请</t>
   </si>
   <si>
     <t>operId</t>
@@ -1510,142 +1513,130 @@
     <t>操作内容</t>
   </si>
   <si>
-    <t>operType</t>
-  </si>
-  <si>
-    <t>操作类型</t>
-  </si>
-  <si>
-    <t>0=订单取消 1=退货申请 2=换货申请</t>
+    <t>申请标题</t>
   </si>
   <si>
     <t>商品Id</t>
   </si>
   <si>
-    <t>1用户2系统</t>
+    <t>申请内容</t>
   </si>
   <si>
     <t>退换货数量</t>
   </si>
   <si>
+    <t>operationStatus</t>
+  </si>
+  <si>
+    <t>t_country</t>
+  </si>
+  <si>
+    <t>国家表</t>
+  </si>
+  <si>
+    <t>省份名称</t>
+  </si>
+  <si>
+    <t>t_province</t>
+  </si>
+  <si>
+    <t>省份表</t>
+  </si>
+  <si>
+    <t>countryId</t>
+  </si>
+  <si>
+    <t>国家id</t>
+  </si>
+  <si>
+    <t>t_city</t>
+  </si>
+  <si>
+    <t>城市表</t>
+  </si>
+  <si>
+    <t>城市名称</t>
+  </si>
+  <si>
+    <t>t_school</t>
+  </si>
+  <si>
+    <t>学校表</t>
+  </si>
+  <si>
+    <t>chinessname</t>
+  </si>
+  <si>
+    <t>中文名字</t>
+  </si>
+  <si>
+    <t>englishname</t>
+  </si>
+  <si>
+    <t>英文名字</t>
+  </si>
+  <si>
+    <t>是否是国际学校</t>
+  </si>
+  <si>
+    <t>t_settings</t>
+  </si>
+  <si>
+    <t>设置表</t>
+  </si>
+  <si>
+    <t>配置类型</t>
+  </si>
+  <si>
+    <t>settingskey</t>
+  </si>
+  <si>
+    <t>配置key</t>
+  </si>
+  <si>
+    <t>settingsvalue</t>
+  </si>
+  <si>
+    <t>配置value</t>
+  </si>
+  <si>
+    <t>t_memberoperlog</t>
+  </si>
+  <si>
+    <t>会员操作日志表</t>
+  </si>
+  <si>
+    <t>会员Id</t>
+  </si>
+  <si>
+    <t>operdata</t>
+  </si>
+  <si>
+    <t>操作数据</t>
+  </si>
+  <si>
+    <t>operremark</t>
+  </si>
+  <si>
+    <t>操作备注</t>
+  </si>
+  <si>
+    <t>t_sysoperlog</t>
+  </si>
+  <si>
+    <t>系统管理员操作日志表</t>
+  </si>
+  <si>
+    <t>sysuserId</t>
+  </si>
+  <si>
+    <t>系统管理员Id</t>
+  </si>
+  <si>
+    <t>t_orderoperlog</t>
+  </si>
+  <si>
     <t>operUserId</t>
-  </si>
-  <si>
-    <t>操作人Id</t>
-  </si>
-  <si>
-    <t>申请标题</t>
-  </si>
-  <si>
-    <t>申请内容</t>
-  </si>
-  <si>
-    <t>t_country</t>
-  </si>
-  <si>
-    <t>国家表</t>
-  </si>
-  <si>
-    <t>省份名称</t>
-  </si>
-  <si>
-    <t>t_province</t>
-  </si>
-  <si>
-    <t>省份表</t>
-  </si>
-  <si>
-    <t>countryId</t>
-  </si>
-  <si>
-    <t>国家id</t>
-  </si>
-  <si>
-    <t>t_city</t>
-  </si>
-  <si>
-    <t>城市表</t>
-  </si>
-  <si>
-    <t>城市名称</t>
-  </si>
-  <si>
-    <t>t_school</t>
-  </si>
-  <si>
-    <t>学校表</t>
-  </si>
-  <si>
-    <t>chinessname</t>
-  </si>
-  <si>
-    <t>中文名字</t>
-  </si>
-  <si>
-    <t>englishname</t>
-  </si>
-  <si>
-    <t>英文名字</t>
-  </si>
-  <si>
-    <t>是否是国际学校</t>
-  </si>
-  <si>
-    <t>t_settings</t>
-  </si>
-  <si>
-    <t>设置表</t>
-  </si>
-  <si>
-    <t>配置类型</t>
-  </si>
-  <si>
-    <t>settingskey</t>
-  </si>
-  <si>
-    <t>配置key</t>
-  </si>
-  <si>
-    <t>settingsvalue</t>
-  </si>
-  <si>
-    <t>配置value</t>
-  </si>
-  <si>
-    <t>t_memberoperlog</t>
-  </si>
-  <si>
-    <t>会员操作日志表</t>
-  </si>
-  <si>
-    <t>会员Id</t>
-  </si>
-  <si>
-    <t>operdata</t>
-  </si>
-  <si>
-    <t>操作数据</t>
-  </si>
-  <si>
-    <t>operremark</t>
-  </si>
-  <si>
-    <t>操作备注</t>
-  </si>
-  <si>
-    <t>t_sysoperlog</t>
-  </si>
-  <si>
-    <t>系统管理员操作日志表</t>
-  </si>
-  <si>
-    <t>sysuserId</t>
-  </si>
-  <si>
-    <t>系统管理员Id</t>
-  </si>
-  <si>
-    <t>t_orderoperlog</t>
   </si>
   <si>
     <t>操作人id</t>
@@ -2601,10 +2592,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5218,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5301,10 +5292,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -5321,10 +5312,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5339,10 +5330,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5357,10 +5348,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>116</v>
@@ -5375,10 +5366,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -5393,10 +5384,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
@@ -5411,10 +5402,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -5429,10 +5420,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
@@ -5524,13 +5515,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -5587,10 +5578,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -5607,10 +5598,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -5934,10 +5925,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z139"/>
+  <dimension ref="A1:Z140"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:Q38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6936,7 +6927,7 @@
         <v>204</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D33" s="9">
         <v>4</v>
@@ -6972,7 +6963,7 @@
         <v>207</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D34" s="9">
         <v>4</v>
@@ -7168,28 +7159,28 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>222</v>
+        <v>57</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D40" s="9">
-        <v>4</v>
-      </c>
-      <c r="E40" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>49</v>
@@ -7197,88 +7188,54 @@
       <c r="D41" s="9">
         <v>0</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D42" s="9">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="9">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
     <row r="44" spans="4:5">
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="J46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:17">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="10" t="s">
         <v>6</v>
       </c>
@@ -7303,32 +7260,8 @@
       <c r="H47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P47" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q47" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="8" t="s">
         <v>14</v>
       </c>
@@ -7349,28 +7282,8 @@
         <v>18</v>
       </c>
       <c r="H48" s="8"/>
-      <c r="J48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="9">
-        <v>11</v>
-      </c>
-      <c r="N48" s="8"/>
-      <c r="O48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q48" s="8"/>
-    </row>
-    <row r="49" spans="1:17">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="8" t="s">
         <v>95</v>
       </c>
@@ -7389,31 +7302,13 @@
       <c r="H49" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="9">
-        <v>11</v>
-      </c>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>21</v>
@@ -7427,31 +7322,13 @@
       <c r="H50" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="9">
-        <v>11</v>
-      </c>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
@@ -7463,31 +7340,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="J51" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="9">
-        <v>11</v>
-      </c>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
@@ -7499,99 +7358,53 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="J52" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M52" s="9">
-        <v>0</v>
-      </c>
-      <c r="N52" s="9"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-    </row>
-    <row r="53" spans="1:17">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D53" s="9">
-        <v>4</v>
-      </c>
-      <c r="E53" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="J53" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M53" s="9">
-        <v>0</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="H53" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D54" s="9">
-        <v>0</v>
-      </c>
-      <c r="E54" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="J54" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M54" s="9">
-        <v>1</v>
-      </c>
-      <c r="N54" s="9"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>49</v>
@@ -7599,245 +7412,185 @@
       <c r="D55" s="9">
         <v>0</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E55" s="9"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D56" s="9">
-        <v>1</v>
-      </c>
-      <c r="E56" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="4:26">
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="S57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T57" s="2" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" ht="22.5" spans="1:26">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="J59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="S59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V59" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="U57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-    </row>
-    <row r="58" ht="22.5" spans="1:26">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="J58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="S58" s="10" t="s">
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T58" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U58" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="12" t="s">
+      <c r="D60" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="W58" s="12" t="s">
+      <c r="E60" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="X58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y58" s="12" t="s">
+      <c r="F60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Z58" s="10" t="s">
+      <c r="H60" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="10" t="s">
+      <c r="J60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="K60" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="L60" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="M60" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="N60" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="12" t="s">
+      <c r="O60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="Q60" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="S60" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="T60" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="U60" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="12" t="s">
+      <c r="V60" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N59" s="12" t="s">
+      <c r="W60" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P59" s="12" t="s">
+      <c r="X60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q59" s="10" t="s">
+      <c r="Z60" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="S59" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T59" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V59" s="9">
-        <v>11</v>
-      </c>
-      <c r="W59" s="8"/>
-      <c r="X59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z59" s="8"/>
-    </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="9">
-        <v>11</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="8"/>
-      <c r="J60" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M60" s="9">
-        <v>11</v>
-      </c>
-      <c r="N60" s="8"/>
-      <c r="O60" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q60" s="8"/>
-      <c r="S60" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="T60" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="U60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V60" s="9">
-        <v>11</v>
-      </c>
-      <c r="W60" s="8"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>16</v>
@@ -7846,16 +7599,18 @@
         <v>11</v>
       </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="F61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="8"/>
       <c r="J61" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="L61" s="8" t="s">
         <v>16</v>
@@ -7864,100 +7619,112 @@
         <v>11</v>
       </c>
       <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="O61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61" s="8"/>
       <c r="S61" s="8" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="V61" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W61" s="8"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="8"/>
+      <c r="X61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y61" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="8" t="s">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D62" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="H62" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J62" s="8" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M62" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
+      <c r="Q62" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="S62" s="8" t="s">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="V62" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W62" s="8"/>
       <c r="X62" s="18"/>
       <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
+      <c r="Z62" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D63" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>31</v>
@@ -7970,28 +7737,28 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="S63" s="8" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="V63" s="9">
-        <v>0</v>
-      </c>
-      <c r="W63" s="9"/>
-      <c r="X63" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="W63" s="8"/>
+      <c r="X63" s="18"/>
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>31</v>
@@ -8004,49 +7771,47 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M64" s="9">
-        <v>0</v>
-      </c>
-      <c r="N64" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="U64" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="V64" s="9">
-        <v>0</v>
-      </c>
-      <c r="W64" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="X64" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="W64" s="8"/>
+      <c r="X64" s="18"/>
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D65" s="9">
         <v>4</v>
@@ -8056,10 +7821,10 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>49</v>
@@ -8067,107 +7832,157 @@
       <c r="M65" s="9">
         <v>0</v>
       </c>
-      <c r="N65" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N65" s="9"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="U65" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="V65" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" s="9"/>
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D66" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="17" t="s">
-        <v>256</v>
-      </c>
+      <c r="H66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M66" s="9">
-        <v>1</v>
-      </c>
-      <c r="N66" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>16</v>
+      <c r="S66" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T66" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V66" s="9">
+        <v>0</v>
+      </c>
+      <c r="W66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M67" s="9">
+        <v>1</v>
+      </c>
+      <c r="N67" s="9"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="S67" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V67" s="9">
+        <v>1</v>
+      </c>
+      <c r="W67" s="9"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="9">
         <v>4</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="9">
-        <v>0</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>49</v>
@@ -8175,201 +7990,181 @@
       <c r="D69" s="9">
         <v>0</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E69" s="9"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D70" s="9">
-        <v>1</v>
-      </c>
-      <c r="E70" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L72" s="1" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="M73" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="J73" s="10" t="s">
+      <c r="D74" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="J74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K74" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L73" s="11" t="s">
+      <c r="L74" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M73" s="12" t="s">
+      <c r="M74" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N73" s="12" t="s">
+      <c r="N74" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O73" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P73" s="12" t="s">
+      <c r="O74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P74" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q73" s="10" t="s">
+      <c r="Q74" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="10" t="s">
+    <row r="75" spans="1:17">
+      <c r="A75" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D75" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E75" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="12" t="s">
+      <c r="F75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J75" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="K75" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M74" s="9">
-        <v>11</v>
-      </c>
-      <c r="N74" s="8"/>
-      <c r="O74" s="9" t="s">
+      <c r="L75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="9">
+        <v>11</v>
+      </c>
+      <c r="N75" s="8"/>
+      <c r="O75" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P74" s="9" t="s">
+      <c r="P75" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q74" s="8"/>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="9">
-        <v>11</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="8"/>
-      <c r="J75" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M75" s="9">
-        <v>11</v>
-      </c>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q75" s="8"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="9">
+        <v>11</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="J76" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="K76" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="9">
-        <v>11</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="L76" s="8" t="s">
         <v>16</v>
@@ -8386,10 +8181,10 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="8" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>16</v>
@@ -8404,10 +8199,10 @@
         <v>24</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>16</v>
@@ -8424,47 +8219,51 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="8" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D78" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
+      <c r="H78" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J78" s="8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M78" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
+      <c r="Q78" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="8" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D79" s="9">
         <v>4</v>
@@ -8474,16 +8273,16 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M79" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
@@ -8492,10 +8291,10 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>16</v>
@@ -8508,10 +8307,10 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L80" s="8" t="s">
         <v>49</v>
@@ -8526,13 +8325,13 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D81" s="9">
         <v>4</v>
@@ -8542,10 +8341,10 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L81" s="8" t="s">
         <v>49</v>
@@ -8553,33 +8352,33 @@
       <c r="M81" s="9">
         <v>0</v>
       </c>
-      <c r="N81" s="9"/>
+      <c r="N81" s="8"/>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D82" s="9">
-        <v>0</v>
-      </c>
-      <c r="E82" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L82" s="8" t="s">
         <v>49</v>
@@ -8587,19 +8386,17 @@
       <c r="M82" s="9">
         <v>0</v>
       </c>
-      <c r="N82" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N82" s="9"/>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>49</v>
@@ -8607,222 +8404,220 @@
       <c r="D83" s="9">
         <v>0</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E83" s="9"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M83" s="9">
-        <v>1</v>
-      </c>
-      <c r="N83" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:17">
       <c r="A84" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D84" s="9">
-        <v>1</v>
-      </c>
-      <c r="E84" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L85" s="1" t="s">
+      <c r="J84" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M84" s="9">
+        <v>1</v>
+      </c>
+      <c r="N84" s="9"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="9">
+        <v>1</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M85" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="M86" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="J86" s="10" t="s">
+      <c r="D87" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="J87" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K87" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L86" s="11" t="s">
+      <c r="L87" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M86" s="12" t="s">
+      <c r="M87" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N86" s="12" t="s">
+      <c r="N87" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P86" s="12" t="s">
+      <c r="O87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P87" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q86" s="10" t="s">
+      <c r="Q87" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="10" t="s">
+    <row r="88" spans="1:17">
+      <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D88" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E88" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="12" t="s">
+      <c r="F88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="K88" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L87" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M87" s="9">
-        <v>11</v>
-      </c>
-      <c r="N87" s="8"/>
-      <c r="O87" s="9" t="s">
+      <c r="L88" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M88" s="9">
+        <v>11</v>
+      </c>
+      <c r="N88" s="8"/>
+      <c r="O88" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P87" s="9" t="s">
+      <c r="P88" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q87" s="8"/>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="9">
-        <v>11</v>
-      </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" s="8"/>
-      <c r="J88" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M88" s="9">
-        <v>11</v>
-      </c>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q88" s="8"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="9">
+        <v>11</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="8"/>
+      <c r="J89" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="K89" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="9">
-        <v>11</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="L89" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="8">
+      <c r="M89" s="9">
         <v>11</v>
       </c>
       <c r="N89" s="8"/>
@@ -8834,15 +8629,15 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="8" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="9">
         <v>11</v>
       </c>
       <c r="E90" s="8"/>
@@ -8852,19 +8647,19 @@
         <v>24</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M90" s="9">
+      <c r="M90" s="8">
         <v>11</v>
       </c>
       <c r="N90" s="8"/>
-      <c r="O90" s="18"/>
+      <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8" t="s">
         <v>24</v>
@@ -8872,26 +8667,28 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="8" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D91" s="9">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D91" s="8">
+        <v>11</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
+      <c r="H91" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J91" s="8" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>16</v>
@@ -8902,36 +8699,38 @@
       <c r="N91" s="8"/>
       <c r="O91" s="18"/>
       <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
+      <c r="Q91" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="8" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D92" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="J92" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M92" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="18"/>
@@ -8940,10 +8739,10 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>49</v>
@@ -8956,44 +8755,44 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M93" s="9">
-        <v>0</v>
-      </c>
-      <c r="N93" s="9"/>
-      <c r="O93" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="N93" s="8"/>
+      <c r="O93" s="18"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D94" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="J94" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L94" s="8" t="s">
         <v>49</v>
@@ -9001,22 +8800,20 @@
       <c r="M94" s="9">
         <v>0</v>
       </c>
-      <c r="N94" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N94" s="9"/>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D95" s="9">
         <v>4</v>
@@ -9026,46 +8823,64 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="J95" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M95" s="9">
-        <v>1</v>
-      </c>
-      <c r="N95" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:17">
       <c r="A96" s="8" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D96" s="9">
-        <v>0</v>
-      </c>
-      <c r="E96" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
+      <c r="J96" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M96" s="9">
+        <v>1</v>
+      </c>
+      <c r="N96" s="9"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>49</v>
@@ -9073,201 +8888,181 @@
       <c r="D97" s="9">
         <v>0</v>
       </c>
-      <c r="E97" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E97" s="9"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" ht="15" customHeight="1" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D98" s="9">
-        <v>1</v>
-      </c>
-      <c r="E98" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
     </row>
-    <row r="99" spans="10:17">
-      <c r="J99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="L99" s="1" t="s">
+    <row r="99" ht="15" customHeight="1" spans="1:8">
+      <c r="A99" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="10:17">
+      <c r="J100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M99" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="M100" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="J100" s="10" t="s">
+      <c r="D101" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="J101" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K100" s="10" t="s">
+      <c r="K101" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L100" s="11" t="s">
+      <c r="L101" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="12" t="s">
+      <c r="M101" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N100" s="12" t="s">
+      <c r="N101" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P100" s="12" t="s">
+      <c r="O101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P101" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q100" s="10" t="s">
+      <c r="Q101" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="5" t="s">
+    <row r="102" spans="1:17">
+      <c r="A102" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="7" t="s">
+      <c r="F102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H102" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J102" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K102" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L101" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M101" s="9">
-        <v>11</v>
-      </c>
-      <c r="N101" s="8"/>
-      <c r="O101" s="9" t="s">
+      <c r="L102" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="9">
+        <v>11</v>
+      </c>
+      <c r="N102" s="8"/>
+      <c r="O102" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P101" s="9" t="s">
+      <c r="P102" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q101" s="8"/>
-    </row>
-    <row r="102" spans="1:17">
-      <c r="A102" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="9">
-        <v>11</v>
-      </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" s="8"/>
-      <c r="J102" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K102" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M102" s="9">
-        <v>11</v>
-      </c>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q102" s="8"/>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="9">
+        <v>11</v>
+      </c>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="8"/>
+      <c r="J103" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="K103" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="9">
-        <v>11</v>
-      </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J103" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="K103" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="L103" s="8" t="s">
         <v>16</v>
@@ -9284,10 +9079,10 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="8" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>16</v>
@@ -9302,10 +9097,10 @@
         <v>24</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>16</v>
@@ -9322,10 +9117,10 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>16</v>
@@ -9340,10 +9135,10 @@
         <v>24</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>16</v>
@@ -9360,10 +9155,10 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="8" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>16</v>
@@ -9378,28 +9173,30 @@
         <v>24</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>56</v>
+        <v>290</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M106" s="9">
-        <v>0</v>
-      </c>
-      <c r="N106" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
+      <c r="Q106" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>16</v>
@@ -9414,10 +9211,10 @@
         <v>24</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L107" s="8" t="s">
         <v>49</v>
@@ -9425,77 +9222,95 @@
       <c r="M107" s="9">
         <v>0</v>
       </c>
-      <c r="N107" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N107" s="9"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D108" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J108" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M108" s="9">
-        <v>1</v>
-      </c>
-      <c r="N108" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:17">
       <c r="A109" s="8" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D109" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
+      <c r="J109" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M109" s="9">
+        <v>1</v>
+      </c>
+      <c r="N109" s="9"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="8" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D110" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
@@ -9504,10 +9319,10 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>49</v>
@@ -9522,48 +9337,48 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D112" s="9">
-        <v>11</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8" t="s">
-        <v>56</v>
+        <v>298</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D113" s="9">
-        <v>0</v>
-      </c>
-      <c r="E113" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>49</v>
@@ -9571,259 +9386,219 @@
       <c r="D114" s="9">
         <v>0</v>
       </c>
-      <c r="E114" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E114" s="9"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:8">
       <c r="A115" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D115" s="9">
-        <v>1</v>
-      </c>
-      <c r="E115" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
-      <c r="J115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K115" s="2" t="s">
+    </row>
+    <row r="116" spans="1:26">
+      <c r="A116" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="9">
+        <v>1</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="J116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="S116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V116" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+    </row>
+    <row r="117" spans="10:26">
+      <c r="J117" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M117" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N117" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S117" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U117" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V117" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W117" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z117" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26">
+      <c r="A118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M115" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="S115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T115" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="U115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V115" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="W115" s="4"/>
-      <c r="X115" s="4"/>
-      <c r="Y115" s="4"/>
-      <c r="Z115" s="4"/>
-    </row>
-    <row r="116" spans="10:26">
-      <c r="J116" s="5" t="s">
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="J118" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M118" s="9">
+        <v>11</v>
+      </c>
+      <c r="N118" s="8"/>
+      <c r="O118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q118" s="8"/>
+      <c r="S118" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T118" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U118" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V118" s="9">
+        <v>11</v>
+      </c>
+      <c r="W118" s="8"/>
+      <c r="X118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z118" s="8"/>
+    </row>
+    <row r="119" spans="1:26">
+      <c r="A119" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K116" s="5" t="s">
+      <c r="B119" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L116" s="6" t="s">
+      <c r="C119" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M116" s="7" t="s">
+      <c r="D119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N116" s="7" t="s">
+      <c r="E119" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O116" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P116" s="7" t="s">
+      <c r="F119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q116" s="5" t="s">
+      <c r="H119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S116" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T116" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U116" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="V116" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W116" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X116" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y116" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z116" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26">
-      <c r="A117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="J117" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L117" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M117" s="9">
-        <v>11</v>
-      </c>
-      <c r="N117" s="8"/>
-      <c r="O117" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P117" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q117" s="8"/>
-      <c r="S117" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T117" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U117" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V117" s="9">
-        <v>11</v>
-      </c>
-      <c r="W117" s="8"/>
-      <c r="X117" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y117" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z117" s="8"/>
-    </row>
-    <row r="118" spans="1:26">
-      <c r="A118" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J118" s="8" t="s">
+      <c r="J119" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K118" s="8" t="s">
+      <c r="K119" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="L118" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M118" s="9">
-        <v>11</v>
-      </c>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S118" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="T118" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="U118" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V118" s="9">
-        <v>11</v>
-      </c>
-      <c r="W118" s="8"/>
-      <c r="X118" s="8"/>
-      <c r="Y118" s="8"/>
-      <c r="Z118" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26">
-      <c r="A119" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" s="9">
-        <v>11</v>
-      </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H119" s="8"/>
-      <c r="J119" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="K119" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="L119" s="8" t="s">
         <v>16</v>
@@ -9838,10 +9613,10 @@
         <v>24</v>
       </c>
       <c r="S119" s="8" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="T119" s="8" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="U119" s="8" t="s">
         <v>16</v>
@@ -9858,10 +9633,10 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>16</v>
@@ -9870,16 +9645,18 @@
         <v>11</v>
       </c>
       <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="F120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="8"/>
       <c r="J120" s="8" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="L120" s="8" t="s">
         <v>16</v>
@@ -9894,10 +9671,10 @@
         <v>24</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="T120" s="8" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="U120" s="8" t="s">
         <v>16</v>
@@ -9914,10 +9691,10 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="8" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>16</v>
@@ -9932,10 +9709,10 @@
         <v>24</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>16</v>
@@ -9950,10 +9727,10 @@
         <v>24</v>
       </c>
       <c r="S121" s="8" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="T121" s="8" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
       <c r="U121" s="8" t="s">
         <v>16</v>
@@ -9970,10 +9747,10 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="8" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>16</v>
@@ -9988,44 +9765,48 @@
         <v>24</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>16</v>
       </c>
       <c r="M122" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
+      <c r="Q122" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="S122" s="8" t="s">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="T122" s="8" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="U122" s="8" t="s">
         <v>16</v>
       </c>
       <c r="V122" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W122" s="8"/>
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
-      <c r="Z122" s="8"/>
-    </row>
-    <row r="123" ht="15" customHeight="1" spans="1:26">
+      <c r="Z122" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26">
       <c r="A123" s="8" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>16</v>
@@ -10036,112 +9817,114 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
+      <c r="H123" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J123" s="8" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="M123" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="S123" s="8" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="T123" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="U123" s="8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="V123" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W123" s="8"/>
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" ht="15" customHeight="1" spans="1:26">
       <c r="A124" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D124" s="9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="J124" s="8" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="M124" s="9">
-        <v>0</v>
-      </c>
-      <c r="N124" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="N124" s="8"/>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="S124" s="8" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="T124" s="8" t="s">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="U124" s="8" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="V124" s="9">
-        <v>0</v>
-      </c>
-      <c r="W124" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="W124" s="8"/>
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="8" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>57</v>
+        <v>312</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D125" s="9">
-        <v>0</v>
-      </c>
-      <c r="E125" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="J125" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L125" s="8" t="s">
         <v>49</v>
@@ -10149,17 +9932,15 @@
       <c r="M125" s="9">
         <v>0</v>
       </c>
-      <c r="N125" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N125" s="9"/>
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="S125" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T125" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U125" s="8" t="s">
         <v>49</v>
@@ -10167,19 +9948,17 @@
       <c r="V125" s="9">
         <v>0</v>
       </c>
-      <c r="W125" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="W125" s="9"/>
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>49</v>
@@ -10187,251 +9966,269 @@
       <c r="D126" s="9">
         <v>0</v>
       </c>
-      <c r="E126" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E126" s="9"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="J126" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M126" s="9">
-        <v>1</v>
-      </c>
-      <c r="N126" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="S126" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T126" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U126" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="V126" s="9">
-        <v>1</v>
-      </c>
-      <c r="W126" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="W126" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:26">
       <c r="A127" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D127" s="9">
-        <v>1</v>
-      </c>
-      <c r="E127" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
-    </row>
-    <row r="129" spans="10:17">
-      <c r="J129" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J127" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M127" s="9">
+        <v>1</v>
+      </c>
+      <c r="N127" s="9"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="S127" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T127" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U127" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V127" s="9">
+        <v>1</v>
+      </c>
+      <c r="W127" s="9"/>
+      <c r="X127" s="8"/>
+      <c r="Y127" s="8"/>
+      <c r="Z127" s="8"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="9">
+        <v>1</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="130" spans="10:17">
+      <c r="J130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="L129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M129" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-    </row>
-    <row r="130" spans="1:17">
-      <c r="A130" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="J130" s="5" t="s">
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="J131" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K130" s="5" t="s">
+      <c r="K131" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L130" s="6" t="s">
+      <c r="L131" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M130" s="7" t="s">
+      <c r="M131" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N130" s="7" t="s">
+      <c r="N131" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O130" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P130" s="7" t="s">
+      <c r="O131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P131" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q130" s="5" t="s">
+      <c r="Q131" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
-      <c r="A131" s="5" t="s">
+    <row r="132" spans="1:17">
+      <c r="A132" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B132" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C132" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D132" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E132" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F131" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="7" t="s">
+      <c r="F132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H132" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J131" s="8" t="s">
+      <c r="J132" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K131" s="8" t="s">
+      <c r="K132" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L131" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M131" s="9">
-        <v>11</v>
-      </c>
-      <c r="N131" s="8"/>
-      <c r="O131" s="9" t="s">
+      <c r="L132" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M132" s="9">
+        <v>11</v>
+      </c>
+      <c r="N132" s="8"/>
+      <c r="O132" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P131" s="9" t="s">
+      <c r="P132" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q131" s="8"/>
-    </row>
-    <row r="132" spans="1:17">
-      <c r="A132" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="9">
-        <v>11</v>
-      </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="8"/>
-      <c r="J132" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K132" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L132" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M132" s="9">
-        <v>11</v>
-      </c>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="Q132" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q132" s="8"/>
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="9">
+        <v>11</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="8"/>
+      <c r="J133" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="K133" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="9">
-        <v>11</v>
-      </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J133" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="K133" s="8" t="s">
-        <v>321</v>
-      </c>
       <c r="L133" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M133" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
-      <c r="Q133" s="8"/>
+      <c r="Q133" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="8" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>16</v>
@@ -10446,16 +10243,16 @@
         <v>24</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M134" s="9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
@@ -10464,32 +10261,34 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="8" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D135" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
+      <c r="H135" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J135" s="8" t="s">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M135" s="9">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
@@ -10498,34 +10297,32 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D136" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="H136" s="8"/>
       <c r="J136" s="8" t="s">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M136" s="9">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
@@ -10534,44 +10331,46 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="8" t="s">
-        <v>56</v>
+        <v>298</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D137" s="9">
-        <v>0</v>
-      </c>
-      <c r="E137" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
+      <c r="H137" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J137" s="8" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M137" s="9">
-        <v>0</v>
-      </c>
-      <c r="N137" s="9"/>
+        <v>2000</v>
+      </c>
+      <c r="N137" s="8"/>
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>49</v>
@@ -10579,17 +10378,15 @@
       <c r="D138" s="9">
         <v>0</v>
       </c>
-      <c r="E138" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E138" s="9"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="J138" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L138" s="8" t="s">
         <v>49</v>
@@ -10597,70 +10394,105 @@
       <c r="M138" s="9">
         <v>0</v>
       </c>
-      <c r="N138" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N138" s="9"/>
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
       <c r="Q138" s="8"/>
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D139" s="9">
-        <v>1</v>
-      </c>
-      <c r="E139" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
       <c r="J139" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M139" s="9">
-        <v>1</v>
-      </c>
-      <c r="N139" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
     </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="9">
+        <v>1</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="J140" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M140" s="9">
+        <v>1</v>
+      </c>
+      <c r="N140" s="9"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M13:Q13"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="M28:Q28"/>
     <mergeCell ref="D46:H46"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="V57:Z57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="M72:Q72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="M85:Q85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="M99:Q99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="M115:Q115"/>
-    <mergeCell ref="V115:Z115"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="M129:Q129"/>
-    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="M73:Q73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="M86:Q86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="M100:Q100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="M116:Q116"/>
+    <mergeCell ref="V116:Z116"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="M130:Q130"/>
+    <mergeCell ref="D131:H131"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10692,16 +10524,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="14"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
@@ -10758,7 +10590,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10773,10 +10605,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10791,10 +10623,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10877,16 +10709,16 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -10943,7 +10775,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10958,10 +10790,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -11040,16 +10872,16 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -11142,7 +10974,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -11157,10 +10989,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -11175,7 +11007,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>87</v>
@@ -11193,10 +11025,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -11214,7 +11046,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>49</v>
@@ -11295,16 +11127,16 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="14"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
@@ -11358,10 +11190,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -11378,10 +11210,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>21</v>
@@ -11396,10 +11228,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -11414,10 +11246,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -11432,10 +11264,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -11450,10 +11282,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -11469,25 +11301,25 @@
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N44" s="4"/>
-      <c r="O44" s="14"/>
+      <c r="O44" s="15"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>16</v>
@@ -11582,10 +11414,10 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>16</v>
@@ -11616,10 +11448,10 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>16</v>
@@ -11658,16 +11490,16 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="14"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="J50" s="8" t="s">
@@ -11757,10 +11589,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -11777,10 +11609,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -11800,7 +11632,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -11884,16 +11716,16 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="14"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
@@ -11950,7 +11782,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>21</v>
@@ -11983,10 +11815,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>21</v>
@@ -12003,10 +11835,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -12023,7 +11855,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>33</v>
@@ -12100,16 +11932,16 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="14"/>
+      <c r="F73" s="15"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
@@ -12163,10 +11995,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>21</v>
@@ -12184,7 +12016,7 @@
         <v>108</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>21</v>
@@ -12202,7 +12034,7 @@
         <v>184</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>21</v>
@@ -12276,13 +12108,13 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -12360,7 +12192,7 @@
         <v>124</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>16</v>
@@ -12375,10 +12207,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>21</v>
@@ -12392,29 +12224,29 @@
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="C90" s="15" t="s">
+      <c r="B90" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="16">
         <v>1000</v>
       </c>
-      <c r="E90" s="15"/>
+      <c r="E90" s="14"/>
       <c r="F90" s="16"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>21</v>
@@ -12488,13 +12320,13 @@
         <v>0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -12504,13 +12336,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -12611,10 +12443,10 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>21</v>
@@ -12627,10 +12459,10 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="J99" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L99" s="8" t="s">
         <v>16</v>
@@ -12650,7 +12482,7 @@
         <v>108</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>21</v>
@@ -12663,10 +12495,10 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="J100" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>21</v>
@@ -12681,10 +12513,10 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>49</v>
@@ -12697,10 +12529,10 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>16</v>
@@ -12717,10 +12549,10 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>49</v>
@@ -12844,13 +12676,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -12925,10 +12757,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C112" s="17" t="s">
         <v>31</v>
@@ -12943,10 +12775,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="17" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>21</v>
@@ -12961,10 +12793,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>21</v>
@@ -12979,10 +12811,10 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>39</v>
@@ -13076,8 +12908,8 @@
   <sheetPr/>
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="H43" workbookViewId="0">
+      <selection activeCell="Q69" sqref="H63:Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13096,13 +12928,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13159,10 +12991,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>410</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>411</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -13173,22 +13005,20 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>407</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>407</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -13197,16 +13027,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -13215,10 +13045,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
@@ -13233,16 +13063,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -13251,16 +13081,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -13269,10 +13099,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -13287,16 +13117,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -13305,28 +13135,28 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>423</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>424</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>49</v>
@@ -13334,48 +13164,30 @@
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8"/>
@@ -13402,13 +13214,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -13418,13 +13230,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -13528,7 +13340,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -13563,10 +13375,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -13581,10 +13393,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>16</v>
@@ -13601,10 +13413,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -13620,7 +13432,7 @@
         <v>50</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>21</v>
@@ -13635,10 +13447,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>116</v>
@@ -13651,10 +13463,10 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>16</v>
@@ -13669,10 +13481,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>31</v>
@@ -13685,10 +13497,10 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>116</v>
@@ -13703,10 +13515,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>49</v>
@@ -13719,10 +13531,10 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>116</v>
@@ -13737,10 +13549,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>116</v>
@@ -13753,10 +13565,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>16</v>
@@ -13771,10 +13583,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>116</v>
@@ -13787,10 +13599,10 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>116</v>
@@ -13805,10 +13617,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -13821,10 +13633,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>116</v>
@@ -13842,7 +13654,7 @@
         <v>108</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>21</v>
@@ -13874,12 +13686,18 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" t="s">
-        <v>458</v>
-      </c>
-      <c r="B31" t="s">
-        <v>459</v>
-      </c>
+      <c r="A31" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
       <c r="J31" s="8" t="s">
         <v>60</v>
       </c>
@@ -13971,87 +13789,40 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" ht="16" customHeight="1" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="35" ht="16" customHeight="1"/>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="J37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M37" s="9">
-        <v>11</v>
-      </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q37" s="8"/>
+      <c r="J37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="10" t="s">
@@ -14078,23 +13849,29 @@
       <c r="H38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" s="9">
-        <v>11</v>
-      </c>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8" t="s">
-        <v>24</v>
+      <c r="J38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -14119,28 +13896,32 @@
       </c>
       <c r="H39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>464</v>
+        <v>14</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>465</v>
+        <v>15</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M39" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
+      <c r="O39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -14155,28 +13936,30 @@
         <v>24</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M40" s="9">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="Q40" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -14189,16 +13972,16 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M41" s="9">
-        <v>255</v>
+        <v>4</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -14207,10 +13990,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>21</v>
@@ -14223,28 +14006,28 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>56</v>
+        <v>466</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>57</v>
+        <v>467</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M42" s="9">
-        <v>0</v>
-      </c>
-      <c r="N42" s="9"/>
+        <v>255</v>
+      </c>
+      <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -14257,30 +14040,28 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>61</v>
+        <v>471</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M43" s="9">
-        <v>0</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -14293,23 +14074,23 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="9"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:17">
       <c r="A45" s="8" t="s">
         <v>56</v>
       </c>
@@ -14326,8 +14107,26 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="J45" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="8" t="s">
         <v>60</v>
       </c>
@@ -14346,6 +14145,22 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
+      <c r="J46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="9">
+        <v>1</v>
+      </c>
+      <c r="N46" s="9"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8" t="s">
@@ -14370,13 +14185,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -14433,10 +14248,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
@@ -14453,10 +14268,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -14471,10 +14286,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -14489,10 +14304,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -14561,147 +14376,55 @@
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="10:26">
-      <c r="J59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="S59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-    </row>
-    <row r="60" spans="10:26">
-      <c r="J60" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N60" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P60" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q60" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S60" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="T60" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="U60" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="V60" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="W60" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="X60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y60" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z60" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="61" spans="1:26">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-      <c r="J61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="9">
-        <v>11</v>
-      </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q61" s="8"/>
-      <c r="S61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V61" s="9">
-        <v>11</v>
-      </c>
-      <c r="W61" s="8"/>
-      <c r="X61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z61" s="8"/>
+      <c r="J61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="S61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="10" t="s">
@@ -14728,38 +14451,54 @@
       <c r="H62" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="9">
-        <v>11</v>
-      </c>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="S62" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="T62" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="U62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V62" s="9">
-        <v>11</v>
-      </c>
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
+      <c r="J62" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S62" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="W62" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="X62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z62" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="8" t="s">
@@ -14783,10 +14522,10 @@
       </c>
       <c r="H63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>492</v>
+        <v>14</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>493</v>
+        <v>15</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>16</v>
@@ -14795,32 +14534,40 @@
         <v>11</v>
       </c>
       <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
+      <c r="O63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="Q63" s="8"/>
       <c r="S63" s="8" t="s">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>494</v>
+        <v>15</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V63" s="9">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
+      <c r="X63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y63" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>31</v>
@@ -14832,13 +14579,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>413</v>
+        <v>491</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>16</v>
@@ -14851,30 +14598,28 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="U64" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="V64" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W64" s="8"/>
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
-      <c r="Z64" s="8" t="s">
-        <v>499</v>
-      </c>
+      <c r="Z64" s="8"/>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -14887,10 +14632,10 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>421</v>
+        <v>493</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>16</v>
@@ -14903,16 +14648,16 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>501</v>
+        <v>332</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="U65" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="V65" s="9">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="W65" s="8"/>
       <c r="X65" s="8"/>
@@ -14921,10 +14666,10 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -14937,18 +14682,18 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>56</v>
+        <v>408</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>57</v>
+        <v>497</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M66" s="9">
-        <v>0</v>
-      </c>
-      <c r="N66" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="N66" s="8"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
@@ -14971,10 +14716,10 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>21</v>
@@ -14987,20 +14732,18 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>60</v>
+        <v>416</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>61</v>
+        <v>499</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M67" s="9">
-        <v>0</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N67" s="8"/>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
@@ -15025,7 +14768,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="8" t="s">
-        <v>276</v>
+        <v>500</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>33</v>
@@ -15041,16 +14784,16 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="J68" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M68" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" s="9"/>
       <c r="O68" s="8"/>
@@ -15073,7 +14816,7 @@
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:17">
       <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
@@ -15090,8 +14833,26 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="J69" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M69" s="9">
+        <v>0</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="8" t="s">
         <v>60</v>
       </c>
@@ -15110,6 +14871,22 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
+      <c r="J70" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70" s="9">
+        <v>1</v>
+      </c>
+      <c r="N70" s="9"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
@@ -15134,12 +14911,12 @@
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="M35:Q35"/>
     <mergeCell ref="D37:H37"/>
+    <mergeCell ref="M37:Q37"/>
     <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="V59:Z59"/>
     <mergeCell ref="D61:H61"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="V61:Z61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -15151,8 +14928,8 @@
   <sheetPr/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -15167,13 +14944,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15233,7 +15010,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -15305,13 +15082,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -15368,10 +15145,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -15389,7 +15166,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -15461,13 +15238,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -15547,7 +15324,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -15621,13 +15398,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -15724,10 +15501,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -15742,10 +15519,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>21</v>
@@ -15763,7 +15540,7 @@
         <v>180</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>39</v>
@@ -15837,13 +15614,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -15900,10 +15677,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>31</v>
@@ -15918,10 +15695,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -15936,10 +15713,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>21</v>
@@ -16041,13 +15818,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16107,7 +15884,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -16124,10 +15901,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -16144,10 +15921,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16223,13 +16000,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -16286,10 +16063,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -16306,10 +16083,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -16326,10 +16103,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -16405,13 +16182,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -16468,10 +16245,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
@@ -16486,10 +16263,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -16504,10 +16281,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
@@ -16624,13 +16401,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16640,13 +16417,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -16750,7 +16527,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -16766,7 +16543,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>21</v>
@@ -16781,10 +16558,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -16797,10 +16574,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>39</v>
@@ -16815,10 +16592,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16831,10 +16608,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -16849,10 +16626,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -16865,10 +16642,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>21</v>
@@ -16883,10 +16660,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -16899,10 +16676,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -17022,13 +16799,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -17085,10 +16862,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -17103,10 +16880,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -17121,10 +16898,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -17139,10 +16916,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -17157,10 +16934,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -17175,10 +16952,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -17193,10 +16970,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -17211,10 +16988,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -17229,10 +17006,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -17247,10 +17024,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -17265,10 +17042,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -17283,10 +17060,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -17301,10 +17078,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -17319,10 +17096,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -17337,10 +17114,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -17350,19 +17127,19 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -17377,10 +17154,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -17454,13 +17231,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -17474,7 +17251,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -17575,10 +17352,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>16</v>
@@ -17593,10 +17370,10 @@
         <v>24</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>16</v>
@@ -17613,10 +17390,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -17740,13 +17517,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -17803,10 +17580,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>16</v>
@@ -17823,10 +17600,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>116</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620">
   <si>
     <t>表名</t>
   </si>
@@ -625,6 +625,9 @@
     <t>签到表</t>
   </si>
   <si>
+    <t xml:space="preserve"> id</t>
+  </si>
+  <si>
     <t>组别名称</t>
   </si>
   <si>
@@ -649,7 +652,7 @@
     <t>最大年级</t>
   </si>
   <si>
-    <t>signuptime</t>
+    <t>signtime</t>
   </si>
   <si>
     <t>签到时间</t>
@@ -661,13 +664,22 @@
     <t>最小积分</t>
   </si>
   <si>
+    <t>signdate</t>
+  </si>
+  <si>
+    <t>签到日期</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>maxintegral</t>
+  </si>
+  <si>
+    <t>最大积分</t>
+  </si>
+  <si>
     <t>eventSignStatus</t>
-  </si>
-  <si>
-    <t>maxintegral</t>
-  </si>
-  <si>
-    <t>最大积分</t>
   </si>
   <si>
     <t>mintimes</t>
@@ -2553,7 +2565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2600,6 +2612,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -5209,13 +5224,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5292,10 +5307,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -5312,10 +5327,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5330,10 +5345,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5348,10 +5363,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>116</v>
@@ -5366,10 +5381,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -5384,10 +5399,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
@@ -5402,10 +5417,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -5420,10 +5435,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
@@ -5515,13 +5530,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -5578,10 +5593,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -5598,10 +5613,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -5927,8 +5942,8 @@
   <sheetPr/>
   <dimension ref="A1:Z140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6827,7 +6842,7 @@
       </c>
       <c r="H30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>15</v>
@@ -6890,7 +6905,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -6903,10 +6918,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>31</v>
@@ -6921,10 +6936,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>16</v>
@@ -6942,7 +6957,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>16</v>
@@ -6957,10 +6972,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>16</v>
@@ -6975,10 +6990,10 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>49</v>
@@ -6995,10 +7010,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>116</v>
@@ -7012,29 +7027,29 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="J35" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="9">
-        <v>4</v>
-      </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="J35" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>116</v>
@@ -7049,28 +7064,28 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M36" s="9">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>16</v>
@@ -7085,10 +7100,10 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>49</v>
@@ -7096,19 +7111,17 @@
       <c r="M37" s="9">
         <v>0</v>
       </c>
-      <c r="N37" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N37" s="9"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -7123,28 +7136,30 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M38" s="9">
-        <v>1</v>
-      </c>
-      <c r="N38" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -7156,6 +7171,22 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
+      <c r="J39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="9">
+        <v>1</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
@@ -7222,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -7308,7 +7339,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>21</v>
@@ -7328,7 +7359,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
@@ -7343,10 +7374,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
@@ -7364,7 +7395,7 @@
         <v>22</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>16</v>
@@ -7378,12 +7409,12 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>33</v>
@@ -7466,13 +7497,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -7482,13 +7513,13 @@
         <v>0</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -7498,13 +7529,13 @@
         <v>0</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
@@ -7697,7 +7728,7 @@
         <v>11</v>
       </c>
       <c r="W62" s="8"/>
-      <c r="X62" s="18"/>
+      <c r="X62" s="19"/>
       <c r="Y62" s="8"/>
       <c r="Z62" s="8" t="s">
         <v>24</v>
@@ -7705,10 +7736,10 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>39</v>
@@ -7721,10 +7752,10 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>31</v>
@@ -7737,10 +7768,10 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="S63" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="U63" s="8" t="s">
         <v>31</v>
@@ -7749,16 +7780,16 @@
         <v>4</v>
       </c>
       <c r="W63" s="8"/>
-      <c r="X63" s="18"/>
+      <c r="X63" s="19"/>
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>31</v>
@@ -7771,10 +7802,10 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>31</v>
@@ -7787,10 +7818,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>31</v>
@@ -7799,16 +7830,16 @@
         <v>4</v>
       </c>
       <c r="W64" s="8"/>
-      <c r="X64" s="18"/>
+      <c r="X64" s="19"/>
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>31</v>
@@ -7855,10 +7886,10 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>16</v>
@@ -7909,10 +7940,10 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>39</v>
@@ -7924,7 +7955,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>64</v>
@@ -7961,10 +7992,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="17" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>16</v>
@@ -8038,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -8056,13 +8087,13 @@
         <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -8199,10 +8230,10 @@
         <v>24</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>16</v>
@@ -8219,10 +8250,10 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>16</v>
@@ -8237,10 +8268,10 @@
         <v>24</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>16</v>
@@ -8257,10 +8288,10 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>31</v>
@@ -8273,10 +8304,10 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L79" s="8" t="s">
         <v>31</v>
@@ -8291,10 +8322,10 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>16</v>
@@ -8307,7 +8338,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>48</v>
@@ -8325,10 +8356,10 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>16</v>
@@ -8341,7 +8372,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>53</v>
@@ -8359,10 +8390,10 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>31</v>
@@ -8486,13 +8517,13 @@
         <v>0</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -8504,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -8647,10 +8678,10 @@
         <v>24</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>16</v>
@@ -8667,10 +8698,10 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>16</v>
@@ -8685,10 +8716,10 @@
         <v>24</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>16</v>
@@ -8697,7 +8728,7 @@
         <v>11</v>
       </c>
       <c r="N91" s="8"/>
-      <c r="O91" s="18"/>
+      <c r="O91" s="19"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8" t="s">
         <v>24</v>
@@ -8705,10 +8736,10 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>31</v>
@@ -8721,10 +8752,10 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="J92" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>16</v>
@@ -8733,13 +8764,13 @@
         <v>11</v>
       </c>
       <c r="N92" s="8"/>
-      <c r="O92" s="18"/>
+      <c r="O92" s="19"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>48</v>
@@ -8755,10 +8786,10 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L93" s="8" t="s">
         <v>31</v>
@@ -8767,13 +8798,13 @@
         <v>4</v>
       </c>
       <c r="N93" s="8"/>
-      <c r="O93" s="18"/>
+      <c r="O93" s="19"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>53</v>
@@ -8807,10 +8838,10 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>16</v>
@@ -8843,7 +8874,7 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>33</v>
@@ -8936,13 +8967,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -8954,13 +8985,13 @@
         <v>0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -9097,10 +9128,10 @@
         <v>24</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>16</v>
@@ -9117,10 +9148,10 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>16</v>
@@ -9135,10 +9166,10 @@
         <v>24</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>16</v>
@@ -9155,10 +9186,10 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>16</v>
@@ -9173,10 +9204,10 @@
         <v>24</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>16</v>
@@ -9193,10 +9224,10 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>16</v>
@@ -9229,10 +9260,10 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>16</v>
@@ -9267,7 +9298,7 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>131</v>
@@ -9301,10 +9332,10 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>16</v>
@@ -9319,7 +9350,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>48</v>
@@ -9337,7 +9368,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>53</v>
@@ -9355,10 +9386,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>16</v>
@@ -9432,13 +9463,13 @@
         <v>0</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -9448,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="U116" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
@@ -9516,13 +9547,13 @@
         <v>0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -9613,10 +9644,10 @@
         <v>24</v>
       </c>
       <c r="S119" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="T119" s="8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="U119" s="8" t="s">
         <v>16</v>
@@ -9653,10 +9684,10 @@
       </c>
       <c r="H120" s="8"/>
       <c r="J120" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L120" s="8" t="s">
         <v>16</v>
@@ -9671,10 +9702,10 @@
         <v>24</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="T120" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="U120" s="8" t="s">
         <v>16</v>
@@ -9709,10 +9740,10 @@
         <v>24</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>16</v>
@@ -9727,10 +9758,10 @@
         <v>24</v>
       </c>
       <c r="S121" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="T121" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="U121" s="8" t="s">
         <v>16</v>
@@ -9747,10 +9778,10 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>16</v>
@@ -9768,7 +9799,7 @@
         <v>22</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>16</v>
@@ -9786,7 +9817,7 @@
         <v>22</v>
       </c>
       <c r="T122" s="8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="U122" s="8" t="s">
         <v>16</v>
@@ -9803,10 +9834,10 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>16</v>
@@ -9821,10 +9852,10 @@
         <v>24</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L123" s="8" t="s">
         <v>16</v>
@@ -9837,10 +9868,10 @@
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="S123" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="T123" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="U123" s="8" t="s">
         <v>16</v>
@@ -9858,7 +9889,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>16</v>
@@ -9874,7 +9905,7 @@
         <v>114</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L124" s="8" t="s">
         <v>116</v>
@@ -9890,7 +9921,7 @@
         <v>114</v>
       </c>
       <c r="T124" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="U124" s="8" t="s">
         <v>116</v>
@@ -9908,7 +9939,7 @@
         <v>114</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>116</v>
@@ -10082,13 +10113,13 @@
         <v>0</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -10100,13 +10131,13 @@
         <v>0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -10243,10 +10274,10 @@
         <v>24</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L134" s="8" t="s">
         <v>31</v>
@@ -10261,10 +10292,10 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>16</v>
@@ -10282,7 +10313,7 @@
         <v>50</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>21</v>
@@ -10297,10 +10328,10 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>31</v>
@@ -10313,10 +10344,10 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="J136" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>16</v>
@@ -10331,10 +10362,10 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>16</v>
@@ -10352,7 +10383,7 @@
         <v>108</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>21</v>
@@ -10524,13 +10555,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="15"/>
@@ -10590,7 +10621,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10605,10 +10636,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10623,10 +10654,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10709,13 +10740,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="15"/>
@@ -10775,7 +10806,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10790,10 +10821,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -10872,13 +10903,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="15"/>
@@ -10974,7 +11005,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -10989,10 +11020,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -11007,7 +11038,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>87</v>
@@ -11025,10 +11056,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -11046,7 +11077,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>49</v>
@@ -11127,13 +11158,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="15"/>
@@ -11190,10 +11221,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -11210,10 +11241,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>21</v>
@@ -11228,10 +11259,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -11246,10 +11277,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -11264,10 +11295,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -11282,10 +11313,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -11301,13 +11332,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="15"/>
@@ -11316,10 +11347,10 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>16</v>
@@ -11414,10 +11445,10 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>16</v>
@@ -11448,10 +11479,10 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>16</v>
@@ -11490,13 +11521,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="15"/>
@@ -11589,10 +11620,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -11609,10 +11640,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -11632,7 +11663,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -11716,13 +11747,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="15"/>
@@ -11782,7 +11813,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>21</v>
@@ -11815,10 +11846,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>21</v>
@@ -11835,10 +11866,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -11855,7 +11886,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>33</v>
@@ -11932,13 +11963,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="15"/>
@@ -11995,10 +12026,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>21</v>
@@ -12016,7 +12047,7 @@
         <v>108</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>21</v>
@@ -12034,7 +12065,7 @@
         <v>184</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>21</v>
@@ -12108,13 +12139,13 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -12192,7 +12223,7 @@
         <v>124</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>16</v>
@@ -12207,10 +12238,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>21</v>
@@ -12228,7 +12259,7 @@
         <v>108</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>21</v>
@@ -12246,7 +12277,7 @@
         <v>184</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>21</v>
@@ -12320,13 +12351,13 @@
         <v>0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -12336,13 +12367,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -12443,10 +12474,10 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>21</v>
@@ -12459,10 +12490,10 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="J99" s="8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L99" s="8" t="s">
         <v>16</v>
@@ -12482,7 +12513,7 @@
         <v>108</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>21</v>
@@ -12495,10 +12526,10 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="J100" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>21</v>
@@ -12513,10 +12544,10 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>49</v>
@@ -12529,10 +12560,10 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>16</v>
@@ -12549,10 +12580,10 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>49</v>
@@ -12676,13 +12707,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -12757,10 +12788,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="17" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C112" s="17" t="s">
         <v>31</v>
@@ -12775,10 +12806,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="17" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>21</v>
@@ -12793,10 +12824,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="17" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>21</v>
@@ -12811,10 +12842,10 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>39</v>
@@ -12928,13 +12959,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13009,10 +13040,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -13027,10 +13058,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -13045,10 +13076,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
@@ -13063,10 +13094,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -13081,10 +13112,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -13099,10 +13130,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -13117,10 +13148,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
@@ -13214,13 +13245,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -13230,13 +13261,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -13340,7 +13371,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -13375,10 +13406,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -13393,10 +13424,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>16</v>
@@ -13413,10 +13444,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -13432,7 +13463,7 @@
         <v>50</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>21</v>
@@ -13447,10 +13478,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>116</v>
@@ -13463,10 +13494,10 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>16</v>
@@ -13481,10 +13512,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>31</v>
@@ -13497,10 +13528,10 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>116</v>
@@ -13515,10 +13546,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>49</v>
@@ -13531,10 +13562,10 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>116</v>
@@ -13549,10 +13580,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>116</v>
@@ -13565,10 +13596,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>16</v>
@@ -13583,10 +13614,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>116</v>
@@ -13599,10 +13630,10 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>116</v>
@@ -13617,10 +13648,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -13633,10 +13664,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>116</v>
@@ -13654,7 +13685,7 @@
         <v>108</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>21</v>
@@ -13687,10 +13718,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="14" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -13795,13 +13826,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -13811,13 +13842,13 @@
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -13918,10 +13949,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -13936,10 +13967,10 @@
         <v>24</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>16</v>
@@ -13956,10 +13987,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -13972,10 +14003,10 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>31</v>
@@ -13990,10 +14021,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>21</v>
@@ -14006,10 +14037,10 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>21</v>
@@ -14024,10 +14055,10 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -14040,10 +14071,10 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>21</v>
@@ -14058,10 +14089,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -14185,13 +14216,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -14248,10 +14279,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
@@ -14268,10 +14299,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -14286,10 +14317,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -14304,10 +14335,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -14381,13 +14412,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -14397,13 +14428,13 @@
         <v>0</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -14413,13 +14444,13 @@
         <v>0</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -14564,10 +14595,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>31</v>
@@ -14579,13 +14610,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>16</v>
@@ -14598,10 +14629,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>16</v>
@@ -14616,10 +14647,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -14632,10 +14663,10 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>16</v>
@@ -14648,10 +14679,10 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>21</v>
@@ -14666,10 +14697,10 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -14682,10 +14713,10 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>16</v>
@@ -14716,10 +14747,10 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>21</v>
@@ -14732,10 +14763,10 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L67" s="8" t="s">
         <v>16</v>
@@ -14768,7 +14799,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="8" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>33</v>
@@ -14944,13 +14975,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15010,7 +15041,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -15082,13 +15113,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -15145,10 +15176,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -15166,7 +15197,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -15238,13 +15269,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -15324,7 +15355,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -15398,13 +15429,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -15501,10 +15532,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -15519,10 +15550,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>21</v>
@@ -15540,7 +15571,7 @@
         <v>180</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>39</v>
@@ -15614,13 +15645,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -15677,10 +15708,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>31</v>
@@ -15695,10 +15726,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -15713,10 +15744,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>21</v>
@@ -15818,13 +15849,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15884,7 +15915,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -15901,10 +15932,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -15921,10 +15952,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16000,13 +16031,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -16063,10 +16094,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -16083,10 +16114,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -16103,10 +16134,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -16182,13 +16213,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -16245,10 +16276,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
@@ -16263,10 +16294,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -16281,10 +16312,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
@@ -16401,13 +16432,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16417,13 +16448,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -16527,7 +16558,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -16543,7 +16574,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>21</v>
@@ -16558,10 +16589,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -16574,10 +16605,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>39</v>
@@ -16592,10 +16623,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16608,10 +16639,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -16626,10 +16657,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -16642,10 +16673,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>21</v>
@@ -16660,10 +16691,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -16676,10 +16707,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="K8" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -16799,13 +16830,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -16862,10 +16893,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -16880,10 +16911,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -16898,10 +16929,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -16916,10 +16947,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -16934,10 +16965,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -16952,10 +16983,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -16970,10 +17001,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -16988,10 +17019,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -17006,10 +17037,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -17024,10 +17055,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -17042,10 +17073,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -17060,10 +17091,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -17078,10 +17109,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -17096,10 +17127,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -17114,10 +17145,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -17127,19 +17158,19 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -17154,10 +17185,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -17231,13 +17262,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -17251,7 +17282,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -17352,10 +17383,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>16</v>
@@ -17370,10 +17401,10 @@
         <v>24</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>16</v>
@@ -17390,10 +17421,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -17517,13 +17548,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -17580,10 +17611,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>16</v>
@@ -17600,10 +17631,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>116</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -508,31 +508,34 @@
     <t>赛事名称</t>
   </si>
   <si>
-    <t>starteventtime</t>
+    <t>starteventdate</t>
   </si>
   <si>
     <t>比赛开始时间</t>
   </si>
   <si>
-    <t>endeventtime</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>endeventdate</t>
   </si>
   <si>
     <t>比赛结束时间</t>
   </si>
   <si>
-    <t>startsigntime</t>
+    <t>startsigndate</t>
   </si>
   <si>
     <t>报名开始时间</t>
   </si>
   <si>
-    <t>endsigntime</t>
+    <t>endsigndate</t>
   </si>
   <si>
     <t>报名结束时间</t>
   </si>
   <si>
-    <t>endrefundtime</t>
+    <t>endrefund</t>
   </si>
   <si>
     <t>退费截止时间</t>
@@ -668,9 +671,6 @@
   </si>
   <si>
     <t>签到日期</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>maxintegral</t>
@@ -5942,8 +5942,8 @@
   <sheetPr/>
   <dimension ref="A1:Z140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6200,7 +6200,7 @@
         <v>162</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -6264,13 +6264,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -6282,13 +6282,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -6300,13 +6300,13 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -6321,7 +6321,7 @@
         <v>108</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>21</v>
@@ -6336,10 +6336,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -6355,13 +6355,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -6370,10 +6370,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>16</v>
@@ -6412,10 +6412,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -6450,10 +6450,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>39</v>
@@ -6486,10 +6486,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>31</v>
@@ -6502,10 +6502,10 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>21</v>
@@ -6520,10 +6520,10 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>31</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>31</v>
@@ -6595,7 +6595,7 @@
         <v>136</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>116</v>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>21</v>
@@ -6646,10 +6646,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -6664,13 +6664,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" s="9">
         <v>4</v>
@@ -6741,13 +6741,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -6757,13 +6757,13 @@
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="H30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>15</v>
@@ -6905,7 +6905,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -6918,10 +6918,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>31</v>
@@ -6936,10 +6936,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>16</v>
@@ -6957,7 +6957,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>16</v>
@@ -6972,10 +6972,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>16</v>
@@ -6990,10 +6990,10 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>49</v>
@@ -7010,10 +7010,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>116</v>
@@ -7028,13 +7028,13 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="J35" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="M35" s="18">
         <v>0</v>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>358</v>
@@ -12274,7 +12274,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>358</v>
@@ -14959,8 +14959,8 @@
   <sheetPr/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -15332,10 +15332,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -15492,10 +15492,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>16</v>
@@ -15512,10 +15512,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>16</v>
@@ -15568,7 +15568,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>521</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622">
   <si>
     <t>表名</t>
   </si>
@@ -556,6 +556,12 @@
     <t>赛事附件表（可有可无）</t>
   </si>
   <si>
+    <t>countryId</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
     <t>provinceId</t>
   </si>
   <si>
@@ -574,18 +580,18 @@
     <t>是否国际</t>
   </si>
   <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>附件路径</t>
+  </si>
+  <si>
     <t>eventType</t>
   </si>
   <si>
     <t>赛事类型</t>
   </si>
   <si>
-    <t>filepath</t>
-  </si>
-  <si>
-    <t>附件路径</t>
-  </si>
-  <si>
     <t>eventCategory</t>
   </si>
   <si>
@@ -1246,6 +1252,9 @@
     <t>内容</t>
   </si>
   <si>
+    <t>跳转url</t>
+  </si>
+  <si>
     <t>isRead</t>
   </si>
   <si>
@@ -1553,9 +1562,6 @@
   </si>
   <si>
     <t>省份表</t>
-  </si>
-  <si>
-    <t>countryId</t>
   </si>
   <si>
     <t>国家id</t>
@@ -2937,8 +2943,8 @@
   <sheetPr/>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:H89"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5224,13 +5230,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5307,10 +5313,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -5327,10 +5333,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5345,10 +5351,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5363,10 +5369,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>116</v>
@@ -5381,10 +5387,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -5399,10 +5405,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
@@ -5417,10 +5423,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -5435,10 +5441,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
@@ -5530,13 +5536,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -5593,10 +5599,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -5613,10 +5619,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -5701,7 +5707,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -5940,10 +5946,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z140"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6369,22 +6375,22 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="18">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="J14" s="10" t="s">
         <v>6</v>
       </c>
@@ -6456,10 +6462,10 @@
         <v>182</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -6492,10 +6498,10 @@
         <v>184</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -6531,9 +6537,7 @@
       <c r="D18" s="9">
         <v>4</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -6567,7 +6571,9 @@
       <c r="D19" s="9">
         <v>4</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -6592,16 +6598,16 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="D20" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -6626,38 +6632,38 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D21" s="9">
-        <v>400</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" s="9">
-        <v>11</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>400</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -6670,10 +6676,10 @@
         <v>195</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -6682,28 +6688,28 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>49</v>
@@ -6711,163 +6717,139 @@
       <c r="D25" s="9">
         <v>0</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="1" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="J28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="D29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="J29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="10" t="s">
+      <c r="M29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="F30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="7" t="s">
+      <c r="O30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q30" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="9">
-        <v>11</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="J30" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" s="9">
-        <v>11</v>
-      </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>16</v>
@@ -6876,16 +6858,18 @@
         <v>11</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="F31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>16</v>
@@ -6894,76 +6878,80 @@
         <v>11</v>
       </c>
       <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="O31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D32" s="9">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J32" s="8" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M32" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="Q32" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D33" s="9">
-        <v>4</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M33" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -6972,10 +6960,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>16</v>
@@ -6990,36 +6978,34 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M34" s="9">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D35" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>17</v>
@@ -7027,29 +7013,31 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="J35" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="M35" s="18">
-        <v>0</v>
-      </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+      <c r="J35" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>116</v>
@@ -7063,35 +7051,35 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="J36" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="9">
-        <v>4</v>
-      </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="J36" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="M36" s="18">
+        <v>0</v>
+      </c>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>220</v>
-      </c>
       <c r="C37" s="8" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D37" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>17</v>
@@ -7100,18 +7088,18 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M37" s="9">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -7136,10 +7124,10 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>49</v>
@@ -7147,9 +7135,7 @@
       <c r="M38" s="9">
         <v>0</v>
       </c>
-      <c r="N38" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N38" s="9"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -7167,51 +7153,71 @@
       <c r="D39" s="9">
         <v>4</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M39" s="9">
-        <v>1</v>
-      </c>
-      <c r="N39" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>57</v>
+        <v>226</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40" s="9">
+        <v>1</v>
+      </c>
+      <c r="N40" s="9"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>49</v>
@@ -7219,107 +7225,103 @@
       <c r="D41" s="9">
         <v>0</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D42" s="9">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="44" spans="4:5">
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="10" t="s">
+      <c r="D47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="12" t="s">
+      <c r="F48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="9">
-        <v>11</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>16</v>
@@ -7328,62 +7330,66 @@
         <v>11</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="F49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D50" s="9">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D52" s="9">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -7392,10 +7398,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>16</v>
@@ -7403,59 +7409,57 @@
       <c r="D53" s="9">
         <v>11</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C54" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D54" s="9">
-        <v>4</v>
-      </c>
-      <c r="E54" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="H54" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D55" s="9">
-        <v>0</v>
-      </c>
-      <c r="E55" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-    </row>
-    <row r="56" spans="1:8">
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>49</v>
@@ -7463,227 +7467,185 @@
       <c r="D56" s="9">
         <v>0</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E56" s="9"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D57" s="9">
-        <v>1</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="4:5">
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-    </row>
-    <row r="59" ht="22.5" spans="1:26">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" s="1" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="9">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" ht="22.5" spans="1:26">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="J59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L59" s="1" t="s">
+      <c r="D60" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="J60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="S59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="U59" s="1" t="s">
+      <c r="M60" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="S60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="U60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-    </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="10" t="s">
+      <c r="V60" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="12" t="s">
+      <c r="F61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H61" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="L61" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M60" s="12" t="s">
+      <c r="M61" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N60" s="12" t="s">
+      <c r="N61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P60" s="12" t="s">
+      <c r="O61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P61" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q60" s="10" t="s">
+      <c r="Q61" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S60" s="10" t="s">
+      <c r="S61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T60" s="10" t="s">
+      <c r="T61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U60" s="11" t="s">
+      <c r="U61" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V60" s="12" t="s">
+      <c r="V61" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="W60" s="12" t="s">
+      <c r="W61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="X60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y60" s="12" t="s">
+      <c r="X61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y61" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Z60" s="10" t="s">
+      <c r="Z61" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
-      <c r="A61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="9">
-        <v>11</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="8"/>
-      <c r="J61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="9">
-        <v>11</v>
-      </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q61" s="8"/>
-      <c r="S61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V61" s="9">
-        <v>11</v>
-      </c>
-      <c r="W61" s="8"/>
-      <c r="X61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>16</v>
@@ -7692,16 +7654,18 @@
         <v>11</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="F62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>16</v>
@@ -7710,16 +7674,18 @@
         <v>11</v>
       </c>
       <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="O62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q62" s="8"/>
       <c r="S62" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="U62" s="8" t="s">
         <v>16</v>
@@ -7728,84 +7694,92 @@
         <v>11</v>
       </c>
       <c r="W62" s="8"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="X62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z62" s="8"/>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="8" t="s">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D63" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="H63" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J63" s="8" t="s">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M63" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
+      <c r="Q63" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="S63" s="8" t="s">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="V63" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W63" s="8"/>
       <c r="X63" s="19"/>
       <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
+      <c r="Z63" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D64" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>31</v>
@@ -7818,10 +7792,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>31</v>
@@ -7836,10 +7810,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>31</v>
@@ -7852,47 +7826,47 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M65" s="9">
-        <v>0</v>
-      </c>
-      <c r="N65" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="N65" s="8"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="U65" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="V65" s="9">
-        <v>0</v>
-      </c>
-      <c r="W65" s="9"/>
-      <c r="X65" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="W65" s="8"/>
+      <c r="X65" s="19"/>
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D66" s="9">
         <v>4</v>
@@ -7902,10 +7876,10 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>49</v>
@@ -7913,17 +7887,15 @@
       <c r="M66" s="9">
         <v>0</v>
       </c>
-      <c r="N66" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N66" s="9"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="S66" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T66" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U66" s="8" t="s">
         <v>49</v>
@@ -7931,9 +7903,7 @@
       <c r="V66" s="9">
         <v>0</v>
       </c>
-      <c r="W66" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="W66" s="9"/>
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
@@ -7946,92 +7916,128 @@
         <v>254</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D67" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="17" t="s">
-        <v>255</v>
-      </c>
+      <c r="H67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M67" s="9">
-        <v>1</v>
-      </c>
-      <c r="N67" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="S67" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U67" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="V67" s="9">
-        <v>1</v>
-      </c>
-      <c r="W67" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:26">
+      <c r="A68" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="C68" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="9">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C68" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="9">
+      <c r="J68" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M68" s="9">
+        <v>1</v>
+      </c>
+      <c r="N68" s="9"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="S68" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U68" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V68" s="9">
+        <v>1</v>
+      </c>
+      <c r="W68" s="9"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="9">
         <v>4</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="9">
-        <v>0</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>49</v>
@@ -8039,201 +8045,181 @@
       <c r="D70" s="9">
         <v>0</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E70" s="9"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D71" s="9">
-        <v>1</v>
-      </c>
-      <c r="E71" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L73" s="1" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M73" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="M74" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="J74" s="10" t="s">
+      <c r="D75" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="J75" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L74" s="11" t="s">
+      <c r="L75" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M74" s="12" t="s">
+      <c r="M75" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N74" s="12" t="s">
+      <c r="N75" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P74" s="12" t="s">
+      <c r="O75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q74" s="10" t="s">
+      <c r="Q75" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="10" t="s">
+    <row r="76" spans="1:17">
+      <c r="A76" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D76" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E76" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="12" t="s">
+      <c r="F76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="H76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="K76" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L75" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M75" s="9">
-        <v>11</v>
-      </c>
-      <c r="N75" s="8"/>
-      <c r="O75" s="9" t="s">
+      <c r="L76" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="9">
+        <v>11</v>
+      </c>
+      <c r="N76" s="8"/>
+      <c r="O76" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P75" s="9" t="s">
+      <c r="P76" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="9">
-        <v>11</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="8"/>
-      <c r="J76" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M76" s="9">
-        <v>11</v>
-      </c>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q76" s="8"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="9">
+        <v>11</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="J77" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="K77" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="9">
-        <v>11</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>16</v>
@@ -8250,10 +8236,10 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="8" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>16</v>
@@ -8268,7 +8254,7 @@
         <v>24</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>264</v>
@@ -8288,47 +8274,51 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="8" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D79" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
+      <c r="H79" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J79" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M79" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
+      <c r="Q79" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D80" s="9">
         <v>4</v>
@@ -8338,16 +8328,16 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M80" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -8356,10 +8346,10 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>16</v>
@@ -8372,10 +8362,10 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L81" s="8" t="s">
         <v>49</v>
@@ -8390,13 +8380,13 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>276</v>
-      </c>
       <c r="C82" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D82" s="9">
         <v>4</v>
@@ -8406,10 +8396,10 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L82" s="8" t="s">
         <v>49</v>
@@ -8417,33 +8407,33 @@
       <c r="M82" s="9">
         <v>0</v>
       </c>
-      <c r="N82" s="9"/>
+      <c r="N82" s="8"/>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="8" t="s">
-        <v>56</v>
+        <v>277</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D83" s="9">
-        <v>0</v>
-      </c>
-      <c r="E83" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L83" s="8" t="s">
         <v>49</v>
@@ -8451,19 +8441,17 @@
       <c r="M83" s="9">
         <v>0</v>
       </c>
-      <c r="N83" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N83" s="9"/>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>49</v>
@@ -8471,222 +8459,220 @@
       <c r="D84" s="9">
         <v>0</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E84" s="9"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M84" s="9">
-        <v>1</v>
-      </c>
-      <c r="N84" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:17">
       <c r="A85" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D85" s="9">
-        <v>1</v>
-      </c>
-      <c r="E85" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L86" s="1" t="s">
+      <c r="J85" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M85" s="9">
+        <v>1</v>
+      </c>
+      <c r="N85" s="9"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="9">
+        <v>1</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M86" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="M87" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="J87" s="10" t="s">
+      <c r="D88" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="J88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="K88" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L87" s="11" t="s">
+      <c r="L88" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M87" s="12" t="s">
+      <c r="M88" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N87" s="12" t="s">
+      <c r="N88" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O87" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P87" s="12" t="s">
+      <c r="O88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P88" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q87" s="10" t="s">
+      <c r="Q88" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="10" t="s">
+    <row r="89" spans="1:17">
+      <c r="A89" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B89" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D89" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E89" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="12" t="s">
+      <c r="F89" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="H89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J89" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="K89" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M88" s="9">
-        <v>11</v>
-      </c>
-      <c r="N88" s="8"/>
-      <c r="O88" s="9" t="s">
+      <c r="L89" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="9">
+        <v>11</v>
+      </c>
+      <c r="N89" s="8"/>
+      <c r="O89" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P88" s="9" t="s">
+      <c r="P89" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q88" s="8"/>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="9">
-        <v>11</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" s="8"/>
-      <c r="J89" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M89" s="9">
-        <v>11</v>
-      </c>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q89" s="8"/>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="9">
+        <v>11</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="8"/>
+      <c r="J90" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="K90" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="9">
-        <v>11</v>
-      </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="L90" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M90" s="8">
+      <c r="M90" s="9">
         <v>11</v>
       </c>
       <c r="N90" s="8"/>
@@ -8698,15 +8684,15 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="8" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="9">
         <v>11</v>
       </c>
       <c r="E91" s="8"/>
@@ -8716,19 +8702,19 @@
         <v>24</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="9">
+      <c r="M91" s="8">
         <v>11</v>
       </c>
       <c r="N91" s="8"/>
-      <c r="O91" s="19"/>
+      <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8" t="s">
         <v>24</v>
@@ -8736,26 +8722,28 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="8" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" s="9">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D92" s="8">
+        <v>11</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
+      <c r="H92" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J92" s="8" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>16</v>
@@ -8766,36 +8754,38 @@
       <c r="N92" s="8"/>
       <c r="O92" s="19"/>
       <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
+      <c r="Q92" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D93" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M93" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="19"/>
@@ -8804,10 +8794,10 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>49</v>
@@ -8820,44 +8810,44 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="J94" s="8" t="s">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M94" s="9">
-        <v>0</v>
-      </c>
-      <c r="N94" s="9"/>
-      <c r="O94" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="N94" s="8"/>
+      <c r="O94" s="19"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>285</v>
+        <v>53</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D95" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="J95" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L95" s="8" t="s">
         <v>49</v>
@@ -8865,22 +8855,20 @@
       <c r="M95" s="9">
         <v>0</v>
       </c>
-      <c r="N95" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N95" s="9"/>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="8" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D96" s="9">
         <v>4</v>
@@ -8890,46 +8878,64 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="J96" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M96" s="9">
-        <v>1</v>
-      </c>
-      <c r="N96" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:17">
       <c r="A97" s="8" t="s">
-        <v>56</v>
+        <v>277</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D97" s="9">
-        <v>0</v>
-      </c>
-      <c r="E97" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
+      <c r="J97" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M97" s="9">
+        <v>1</v>
+      </c>
+      <c r="N97" s="9"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>49</v>
@@ -8937,201 +8943,181 @@
       <c r="D98" s="9">
         <v>0</v>
       </c>
-      <c r="E98" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E98" s="9"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
     </row>
-    <row r="99" ht="15" customHeight="1" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D99" s="9">
-        <v>1</v>
-      </c>
-      <c r="E99" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="10:17">
-      <c r="J100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="L100" s="1" t="s">
+    <row r="100" ht="15" customHeight="1" spans="1:8">
+      <c r="A100" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="9">
+        <v>1</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="10:17">
+      <c r="J101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="M101" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="J101" s="10" t="s">
+      <c r="D102" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="J102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="K102" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L101" s="11" t="s">
+      <c r="L102" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="12" t="s">
+      <c r="M102" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N101" s="12" t="s">
+      <c r="N102" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O101" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P101" s="12" t="s">
+      <c r="O102" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P102" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q101" s="10" t="s">
+      <c r="Q102" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
-      <c r="A102" s="5" t="s">
+    <row r="103" spans="1:17">
+      <c r="A103" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D103" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="7" t="s">
+      <c r="F103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H103" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J102" s="8" t="s">
+      <c r="J103" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="K103" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L102" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M102" s="9">
-        <v>11</v>
-      </c>
-      <c r="N102" s="8"/>
-      <c r="O102" s="9" t="s">
+      <c r="L103" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M103" s="9">
+        <v>11</v>
+      </c>
+      <c r="N103" s="8"/>
+      <c r="O103" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P102" s="9" t="s">
+      <c r="P103" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q102" s="8"/>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="A103" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="9">
-        <v>11</v>
-      </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" s="8"/>
-      <c r="J103" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K103" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L103" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M103" s="9">
-        <v>11</v>
-      </c>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q103" s="8"/>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="9">
+        <v>11</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="J104" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="K104" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="9">
-        <v>11</v>
-      </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J104" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>16</v>
@@ -9148,10 +9134,10 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>16</v>
@@ -9166,10 +9152,10 @@
         <v>24</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>16</v>
@@ -9186,10 +9172,10 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="8" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>16</v>
@@ -9204,10 +9190,10 @@
         <v>24</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>16</v>
@@ -9224,10 +9210,10 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>16</v>
@@ -9242,21 +9228,23 @@
         <v>24</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>57</v>
+        <v>297</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M107" s="9">
-        <v>0</v>
-      </c>
-      <c r="N107" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="N107" s="8"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
+      <c r="Q107" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
@@ -9278,10 +9266,10 @@
         <v>24</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>49</v>
@@ -9289,77 +9277,95 @@
       <c r="M108" s="9">
         <v>0</v>
       </c>
-      <c r="N108" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N108" s="9"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="8" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D109" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
+      <c r="H109" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J109" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M109" s="9">
-        <v>1</v>
-      </c>
-      <c r="N109" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:17">
       <c r="A110" s="8" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>301</v>
+        <v>131</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D110" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
+      <c r="J110" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M110" s="9">
+        <v>1</v>
+      </c>
+      <c r="N110" s="9"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>48</v>
+        <v>303</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D111" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -9368,10 +9374,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>49</v>
@@ -9386,48 +9392,48 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D113" s="9">
-        <v>11</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="8" t="s">
-        <v>56</v>
+        <v>304</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>57</v>
+        <v>305</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D114" s="9">
-        <v>0</v>
-      </c>
-      <c r="E114" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>49</v>
@@ -9435,259 +9441,219 @@
       <c r="D115" s="9">
         <v>0</v>
       </c>
-      <c r="E115" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E115" s="9"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:8">
       <c r="A116" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D116" s="9">
-        <v>1</v>
-      </c>
-      <c r="E116" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
-      <c r="J116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="L116" s="1" t="s">
+    </row>
+    <row r="117" spans="1:26">
+      <c r="A117" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="9">
+        <v>1</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="J117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M116" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="S116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T116" s="2" t="s">
+      <c r="M117" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="S117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T117" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V117" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+    </row>
+    <row r="118" spans="10:26">
+      <c r="J118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M118" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P118" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U118" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V118" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y118" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z118" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="U116" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V116" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="W116" s="4"/>
-      <c r="X116" s="4"/>
-      <c r="Y116" s="4"/>
-      <c r="Z116" s="4"/>
-    </row>
-    <row r="117" spans="10:26">
-      <c r="J117" s="5" t="s">
+      <c r="D119" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="J119" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M119" s="9">
+        <v>11</v>
+      </c>
+      <c r="N119" s="8"/>
+      <c r="O119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P119" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q119" s="8"/>
+      <c r="S119" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T119" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U119" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V119" s="9">
+        <v>11</v>
+      </c>
+      <c r="W119" s="8"/>
+      <c r="X119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y119" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z119" s="8"/>
+    </row>
+    <row r="120" spans="1:26">
+      <c r="A120" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K117" s="5" t="s">
+      <c r="B120" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L117" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M117" s="7" t="s">
+      <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N117" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P117" s="7" t="s">
+      <c r="F120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q117" s="5" t="s">
+      <c r="H120" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S117" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T117" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U117" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="V117" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y117" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z117" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26">
-      <c r="A118" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="J118" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K118" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L118" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M118" s="9">
-        <v>11</v>
-      </c>
-      <c r="N118" s="8"/>
-      <c r="O118" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P118" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q118" s="8"/>
-      <c r="S118" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T118" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U118" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V118" s="9">
-        <v>11</v>
-      </c>
-      <c r="W118" s="8"/>
-      <c r="X118" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y118" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z118" s="8"/>
-    </row>
-    <row r="119" spans="1:26">
-      <c r="A119" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J119" s="8" t="s">
+      <c r="J120" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K119" s="8" t="s">
+      <c r="K120" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="L119" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M119" s="9">
-        <v>11</v>
-      </c>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S119" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="T119" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="U119" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V119" s="9">
-        <v>11</v>
-      </c>
-      <c r="W119" s="8"/>
-      <c r="X119" s="8"/>
-      <c r="Y119" s="8"/>
-      <c r="Z119" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26">
-      <c r="A120" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="9">
-        <v>11</v>
-      </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H120" s="8"/>
-      <c r="J120" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="K120" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="L120" s="8" t="s">
         <v>16</v>
@@ -9702,10 +9668,10 @@
         <v>24</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="T120" s="8" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="U120" s="8" t="s">
         <v>16</v>
@@ -9722,10 +9688,10 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>16</v>
@@ -9734,16 +9700,18 @@
         <v>11</v>
       </c>
       <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="F121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="8"/>
       <c r="J121" s="8" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>16</v>
@@ -9758,10 +9726,10 @@
         <v>24</v>
       </c>
       <c r="S121" s="8" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="T121" s="8" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="U121" s="8" t="s">
         <v>16</v>
@@ -9778,10 +9746,10 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="8" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>16</v>
@@ -9796,10 +9764,10 @@
         <v>24</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>16</v>
@@ -9814,10 +9782,10 @@
         <v>24</v>
       </c>
       <c r="S122" s="8" t="s">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="T122" s="8" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="U122" s="8" t="s">
         <v>16</v>
@@ -9834,10 +9802,10 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="8" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>16</v>
@@ -9852,44 +9820,48 @@
         <v>24</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="L123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="M123" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
+      <c r="Q123" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="S123" s="8" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="T123" s="8" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="U123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="V123" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W123" s="8"/>
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
-      <c r="Z123" s="8"/>
-    </row>
-    <row r="124" ht="15" customHeight="1" spans="1:26">
+      <c r="Z123" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26">
       <c r="A124" s="8" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>16</v>
@@ -9900,112 +9872,114 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
+      <c r="H124" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J124" s="8" t="s">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="K124" s="8" t="s">
         <v>315</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="M124" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="S124" s="8" t="s">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="T124" s="8" t="s">
         <v>315</v>
       </c>
       <c r="U124" s="8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="V124" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W124" s="8"/>
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" ht="15" customHeight="1" spans="1:26">
       <c r="A125" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>316</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D125" s="9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="J125" s="8" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>57</v>
+        <v>317</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="M125" s="9">
-        <v>0</v>
-      </c>
-      <c r="N125" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="N125" s="8"/>
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="S125" s="8" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="T125" s="8" t="s">
-        <v>57</v>
+        <v>317</v>
       </c>
       <c r="U125" s="8" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="V125" s="9">
-        <v>0</v>
-      </c>
-      <c r="W125" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="W125" s="8"/>
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="8" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D126" s="9">
-        <v>0</v>
-      </c>
-      <c r="E126" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="J126" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L126" s="8" t="s">
         <v>49</v>
@@ -10013,17 +9987,15 @@
       <c r="M126" s="9">
         <v>0</v>
       </c>
-      <c r="N126" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N126" s="9"/>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="S126" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T126" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U126" s="8" t="s">
         <v>49</v>
@@ -10031,19 +10003,17 @@
       <c r="V126" s="9">
         <v>0</v>
       </c>
-      <c r="W126" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="W126" s="9"/>
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>49</v>
@@ -10051,251 +10021,269 @@
       <c r="D127" s="9">
         <v>0</v>
       </c>
-      <c r="E127" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E127" s="9"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
       <c r="J127" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M127" s="9">
-        <v>1</v>
-      </c>
-      <c r="N127" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
       <c r="S127" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T127" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U127" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="V127" s="9">
-        <v>1</v>
-      </c>
-      <c r="W127" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="W127" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:26">
       <c r="A128" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D128" s="9">
-        <v>1</v>
-      </c>
-      <c r="E128" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
-    </row>
-    <row r="130" spans="10:17">
-      <c r="J130" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="L130" s="1" t="s">
+      <c r="J128" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M128" s="9">
+        <v>1</v>
+      </c>
+      <c r="N128" s="9"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
+      <c r="S128" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T128" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U128" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V128" s="9">
+        <v>1</v>
+      </c>
+      <c r="W128" s="9"/>
+      <c r="X128" s="8"/>
+      <c r="Y128" s="8"/>
+      <c r="Z128" s="8"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" s="9">
+        <v>1</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+    </row>
+    <row r="131" spans="10:17">
+      <c r="J131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="L131" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M130" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-    </row>
-    <row r="131" spans="1:17">
-      <c r="A131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="M131" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="J131" s="5" t="s">
+      <c r="D132" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="J132" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K131" s="5" t="s">
+      <c r="K132" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L131" s="6" t="s">
+      <c r="L132" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M131" s="7" t="s">
+      <c r="M132" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N131" s="7" t="s">
+      <c r="N132" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O131" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P131" s="7" t="s">
+      <c r="O132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P132" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q131" s="5" t="s">
+      <c r="Q132" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
-      <c r="A132" s="5" t="s">
+    <row r="133" spans="1:17">
+      <c r="A133" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B133" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C133" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D133" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E133" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="7" t="s">
+      <c r="F133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H132" s="5" t="s">
+      <c r="H133" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J132" s="8" t="s">
+      <c r="J133" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K132" s="8" t="s">
+      <c r="K133" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L132" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M132" s="9">
-        <v>11</v>
-      </c>
-      <c r="N132" s="8"/>
-      <c r="O132" s="9" t="s">
+      <c r="L133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M133" s="9">
+        <v>11</v>
+      </c>
+      <c r="N133" s="8"/>
+      <c r="O133" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P132" s="9" t="s">
+      <c r="P133" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q132" s="8"/>
-    </row>
-    <row r="133" spans="1:17">
-      <c r="A133" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="9">
-        <v>11</v>
-      </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" s="8"/>
-      <c r="J133" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K133" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L133" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M133" s="9">
-        <v>11</v>
-      </c>
-      <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-      <c r="Q133" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q133" s="8"/>
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="9">
+        <v>11</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="J134" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="K134" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="9">
-        <v>11</v>
-      </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J134" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="K134" s="8" t="s">
-        <v>322</v>
-      </c>
       <c r="L134" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M134" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
-      <c r="Q134" s="8"/>
+      <c r="Q134" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="8" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>16</v>
@@ -10310,16 +10298,16 @@
         <v>24</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>50</v>
+        <v>323</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M135" s="9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
@@ -10328,32 +10316,34 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="8" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D136" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
+      <c r="H136" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J136" s="8" t="s">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M136" s="9">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
@@ -10362,34 +10352,32 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="8" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D137" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="H137" s="8"/>
       <c r="J137" s="8" t="s">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="K137" s="8" t="s">
         <v>326</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M137" s="9">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
@@ -10398,44 +10386,46 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="8" t="s">
-        <v>56</v>
+        <v>304</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D138" s="9">
-        <v>0</v>
-      </c>
-      <c r="E138" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
+      <c r="H138" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J138" s="8" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>57</v>
+        <v>328</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M138" s="9">
-        <v>0</v>
-      </c>
-      <c r="N138" s="9"/>
+        <v>2000</v>
+      </c>
+      <c r="N138" s="8"/>
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
       <c r="Q138" s="8"/>
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>49</v>
@@ -10443,17 +10433,15 @@
       <c r="D139" s="9">
         <v>0</v>
       </c>
-      <c r="E139" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E139" s="9"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
       <c r="J139" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>49</v>
@@ -10461,69 +10449,105 @@
       <c r="M139" s="9">
         <v>0</v>
       </c>
-      <c r="N139" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N139" s="9"/>
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D140" s="9">
-        <v>1</v>
-      </c>
-      <c r="E140" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
       <c r="J140" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L140" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M140" s="9">
-        <v>1</v>
-      </c>
-      <c r="N140" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N140" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="9">
+        <v>1</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="J141" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M141" s="9">
+        <v>1</v>
+      </c>
+      <c r="N141" s="9"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="M73:Q73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="M86:Q86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="M100:Q100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="M116:Q116"/>
-    <mergeCell ref="V116:Z116"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="M130:Q130"/>
-    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="V60:Z60"/>
+    <mergeCell ref="M74:Q74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="M87:Q87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="M101:Q101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="M117:Q117"/>
+    <mergeCell ref="V117:Z117"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="M131:Q131"/>
+    <mergeCell ref="D132:H132"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10534,10 +10558,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10555,13 +10579,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="15"/>
@@ -10621,7 +10645,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10636,10 +10660,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10654,10 +10678,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10740,13 +10764,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="15"/>
@@ -10806,7 +10830,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10821,10 +10845,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -10903,13 +10927,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="15"/>
@@ -11005,7 +11029,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -11020,10 +11044,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -11038,7 +11062,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>87</v>
@@ -11056,10 +11080,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -11077,7 +11101,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>49</v>
@@ -11158,13 +11182,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="15"/>
@@ -11221,10 +11245,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -11241,10 +11265,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>21</v>
@@ -11259,10 +11283,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -11277,10 +11301,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -11295,10 +11319,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -11313,10 +11337,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -11332,13 +11356,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="15"/>
@@ -11347,10 +11371,10 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>16</v>
@@ -11445,10 +11469,10 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>16</v>
@@ -11479,10 +11503,10 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>16</v>
@@ -11521,13 +11545,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="15"/>
@@ -11620,10 +11644,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -11640,10 +11664,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -11663,7 +11687,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -11747,13 +11771,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="15"/>
@@ -11813,7 +11837,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>21</v>
@@ -11846,10 +11870,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>21</v>
@@ -11866,10 +11890,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -11886,7 +11910,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>33</v>
@@ -11963,13 +11987,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="15"/>
@@ -12026,10 +12050,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>21</v>
@@ -12047,7 +12071,7 @@
         <v>108</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>21</v>
@@ -12065,7 +12089,7 @@
         <v>185</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>21</v>
@@ -12139,13 +12163,13 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -12223,7 +12247,7 @@
         <v>124</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>16</v>
@@ -12238,10 +12262,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>21</v>
@@ -12259,7 +12283,7 @@
         <v>108</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>21</v>
@@ -12277,7 +12301,7 @@
         <v>185</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>21</v>
@@ -12351,13 +12375,13 @@
         <v>0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -12367,13 +12391,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -12474,10 +12498,10 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>21</v>
@@ -12490,10 +12514,10 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="J99" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L99" s="8" t="s">
         <v>16</v>
@@ -12513,7 +12537,7 @@
         <v>108</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>21</v>
@@ -12526,10 +12550,10 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="J100" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>21</v>
@@ -12544,10 +12568,10 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>49</v>
@@ -12560,10 +12584,10 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>16</v>
@@ -12580,10 +12604,10 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>49</v>
@@ -12707,13 +12731,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -12788,10 +12812,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="17" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C112" s="17" t="s">
         <v>31</v>
@@ -12806,10 +12830,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>21</v>
@@ -12824,10 +12848,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>21</v>
@@ -12842,16 +12866,16 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D115" s="9">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="9"/>
@@ -12859,29 +12883,29 @@
       <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>49</v>
+      <c r="A116" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D116" s="9">
-        <v>0</v>
-      </c>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C117" s="17" t="s">
         <v>49</v>
@@ -12889,30 +12913,48 @@
       <c r="D117" s="9">
         <v>0</v>
       </c>
-      <c r="E117" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D118" s="9">
-        <v>1</v>
-      </c>
-      <c r="E118" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="9">
+        <v>1</v>
+      </c>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12939,8 +12981,8 @@
   <sheetPr/>
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView topLeftCell="H43" workbookViewId="0">
-      <selection activeCell="Q69" sqref="H63:Q69"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12959,13 +13001,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13040,10 +13082,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -13058,10 +13100,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -13076,10 +13118,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
@@ -13094,10 +13136,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -13112,10 +13154,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -13130,10 +13172,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -13148,10 +13190,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
@@ -13245,13 +13287,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -13261,13 +13303,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -13371,7 +13413,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -13406,10 +13448,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -13424,10 +13466,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>16</v>
@@ -13444,10 +13486,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -13463,7 +13505,7 @@
         <v>50</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>21</v>
@@ -13478,10 +13520,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>116</v>
@@ -13494,10 +13536,10 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>16</v>
@@ -13512,10 +13554,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>31</v>
@@ -13528,10 +13570,10 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>116</v>
@@ -13546,10 +13588,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>49</v>
@@ -13562,10 +13604,10 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>116</v>
@@ -13580,10 +13622,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>116</v>
@@ -13596,10 +13638,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>16</v>
@@ -13614,10 +13656,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>116</v>
@@ -13630,10 +13672,10 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>116</v>
@@ -13648,10 +13690,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -13664,10 +13706,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>116</v>
@@ -13685,7 +13727,7 @@
         <v>108</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>21</v>
@@ -13718,10 +13760,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="14" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -13826,13 +13868,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -13842,13 +13884,13 @@
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -13949,10 +13991,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -13967,10 +14009,10 @@
         <v>24</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>16</v>
@@ -13987,10 +14029,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -14003,10 +14045,10 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>31</v>
@@ -14021,10 +14063,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>21</v>
@@ -14037,10 +14079,10 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>21</v>
@@ -14055,10 +14097,10 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -14071,10 +14113,10 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>21</v>
@@ -14089,10 +14131,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -14216,13 +14258,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -14279,10 +14321,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
@@ -14299,10 +14341,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -14317,10 +14359,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -14335,10 +14377,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -14412,13 +14454,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -14428,13 +14470,13 @@
         <v>0</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -14444,13 +14486,13 @@
         <v>0</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -14595,10 +14637,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>31</v>
@@ -14610,13 +14652,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>16</v>
@@ -14629,10 +14671,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>16</v>
@@ -14647,10 +14689,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -14663,10 +14705,10 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>16</v>
@@ -14679,10 +14721,10 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>21</v>
@@ -14697,10 +14739,10 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -14713,10 +14755,10 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>16</v>
@@ -14747,10 +14789,10 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>21</v>
@@ -14763,10 +14805,10 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L67" s="8" t="s">
         <v>16</v>
@@ -14799,7 +14841,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>33</v>
@@ -14959,7 +15001,7 @@
   <sheetPr/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -14975,13 +15017,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15041,7 +15083,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -15113,13 +15155,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -15176,10 +15218,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>510</v>
+        <v>177</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -15197,7 +15239,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -15269,13 +15311,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -15332,10 +15374,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -15355,7 +15397,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -15429,13 +15471,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -15492,10 +15534,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>16</v>
@@ -15512,10 +15554,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>16</v>
@@ -15532,10 +15574,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -15550,10 +15592,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>21</v>
@@ -15568,10 +15610,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>39</v>
@@ -15645,13 +15687,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -15708,10 +15750,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>31</v>
@@ -15726,10 +15768,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -15744,10 +15786,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>21</v>
@@ -15834,7 +15876,7 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:H31"/>
     </sheetView>
   </sheetViews>
@@ -15849,13 +15891,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15915,7 +15957,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -15932,10 +15974,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -15952,10 +15994,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16031,13 +16073,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -16094,10 +16136,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -16114,10 +16156,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -16134,10 +16176,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -16213,13 +16255,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -16276,10 +16318,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
@@ -16294,10 +16336,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -16312,10 +16354,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
@@ -16432,13 +16474,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16448,13 +16490,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -16558,7 +16600,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -16574,7 +16616,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>21</v>
@@ -16589,10 +16631,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -16605,10 +16647,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>39</v>
@@ -16623,10 +16665,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16639,10 +16681,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -16657,10 +16699,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -16673,10 +16715,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>21</v>
@@ -16691,10 +16733,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -16707,10 +16749,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -16830,13 +16872,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -16893,10 +16935,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -16911,10 +16953,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -16929,10 +16971,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -16947,10 +16989,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -16965,10 +17007,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -16983,10 +17025,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -17001,10 +17043,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -17019,10 +17061,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -17037,10 +17079,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -17055,10 +17097,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -17073,10 +17115,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -17091,10 +17133,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -17109,10 +17151,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -17127,10 +17169,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -17145,10 +17187,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -17158,19 +17200,19 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -17185,10 +17227,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -17262,13 +17304,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -17282,7 +17324,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -17383,10 +17425,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>16</v>
@@ -17401,10 +17443,10 @@
         <v>24</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>16</v>
@@ -17421,10 +17463,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -17548,13 +17590,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -17611,10 +17653,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>16</v>
@@ -17631,10 +17673,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>116</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="22943" windowHeight="9515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <t>密码</t>
   </si>
   <si>
-    <t>objMemberId</t>
+    <t>toMemberId</t>
   </si>
   <si>
     <t>教练或学生id</t>
@@ -121,7 +121,7 @@
     <t>tinyint</t>
   </si>
   <si>
-    <t>memberTrainerStatus</t>
+    <t>playerTrainerStatus</t>
   </si>
   <si>
     <t>状态</t>
@@ -136,7 +136,7 @@
     <t>id/passport</t>
   </si>
   <si>
-    <t>IsPositive</t>
+    <t>isPositive</t>
   </si>
   <si>
     <t>是否正面 1 选手绑定教练 2. 教练绑定选手</t>
@@ -154,7 +154,7 @@
     <t>系统生成</t>
   </si>
   <si>
-    <t>IsTrainer</t>
+    <t>isTrainer</t>
   </si>
   <si>
     <t>是否是教练</t>
@@ -1896,12 +1896,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1928,16 +1928,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1945,6 +1951,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1958,23 +1995,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1997,14 +2019,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2033,44 +2078,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -2093,43 +2100,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2141,91 +2142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,7 +2160,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,13 +2232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2273,7 +2250,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2326,6 +2333,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2350,17 +2387,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2370,6 +2401,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2388,51 +2430,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2441,137 +2448,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2610,18 +2617,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2943,18 +2944,18 @@
   <sheetPr/>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.6296296296296" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="17.1333333333333" customWidth="1"/>
-    <col min="11" max="11" width="22.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="17.1296296296296" customWidth="1"/>
+    <col min="11" max="11" width="22.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3136,7 +3137,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="17" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -3212,7 +3213,7 @@
       <c r="H7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -3250,7 +3251,7 @@
       <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -5219,10 +5220,10 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.775" customWidth="1"/>
-    <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="19.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5707,13 +5708,13 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="19.8796296296296" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
@@ -5948,19 +5949,19 @@
   <sheetPr/>
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="14.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="28.3833333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="28.3796296296296" customWidth="1"/>
+    <col min="8" max="8" width="10.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="17.3796296296296" customWidth="1"/>
     <col min="11" max="11" width="24.75" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="19" max="19" width="16.1333333333333" customWidth="1"/>
+    <col min="19" max="19" width="16.1296296296296" customWidth="1"/>
     <col min="20" max="20" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6375,22 +6376,22 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="18">
-        <v>11</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="10" t="s">
         <v>6</v>
       </c>
@@ -7051,22 +7052,22 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="M36" s="18">
-        <v>0</v>
-      </c>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
@@ -7432,7 +7433,7 @@
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -7516,7 +7517,7 @@
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
     </row>
-    <row r="60" ht="22.5" spans="1:26">
+    <row r="60" ht="21.6" spans="1:26">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>11</v>
       </c>
       <c r="W63" s="8"/>
-      <c r="X63" s="19"/>
+      <c r="X63" s="16"/>
       <c r="Y63" s="8"/>
       <c r="Z63" s="8" t="s">
         <v>24</v>
@@ -7804,7 +7805,7 @@
         <v>4</v>
       </c>
       <c r="W64" s="8"/>
-      <c r="X64" s="19"/>
+      <c r="X64" s="16"/>
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
@@ -7854,7 +7855,7 @@
         <v>4</v>
       </c>
       <c r="W65" s="8"/>
-      <c r="X65" s="19"/>
+      <c r="X65" s="16"/>
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
@@ -7978,7 +7979,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="17" t="s">
+      <c r="H68" s="15" t="s">
         <v>257</v>
       </c>
       <c r="J68" s="8" t="s">
@@ -8015,21 +8016,21 @@
       <c r="Z68" s="8"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="9">
         <v>4</v>
       </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
@@ -8752,7 +8753,7 @@
         <v>11</v>
       </c>
       <c r="N92" s="8"/>
-      <c r="O92" s="19"/>
+      <c r="O92" s="16"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8" t="s">
         <v>24</v>
@@ -8788,7 +8789,7 @@
         <v>11</v>
       </c>
       <c r="N93" s="8"/>
-      <c r="O93" s="19"/>
+      <c r="O93" s="16"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
     </row>
@@ -8822,7 +8823,7 @@
         <v>4</v>
       </c>
       <c r="N94" s="8"/>
-      <c r="O94" s="19"/>
+      <c r="O94" s="16"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
     </row>
@@ -10564,14 +10565,14 @@
       <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="9" style="13"/>
-    <col min="10" max="10" width="15.8833333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.8796296296296" customWidth="1"/>
     <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="20" max="20" width="11.3833333333333" customWidth="1"/>
+    <col min="20" max="20" width="11.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10588,7 +10589,7 @@
         <v>330</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="15"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
@@ -10773,7 +10774,7 @@
         <v>337</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -10936,7 +10937,7 @@
         <v>341</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -11191,7 +11192,7 @@
         <v>350</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="15"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
@@ -11365,7 +11366,7 @@
         <v>364</v>
       </c>
       <c r="N44" s="4"/>
-      <c r="O44" s="15"/>
+      <c r="O44" s="14"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
@@ -11554,7 +11555,7 @@
         <v>370</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="15"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="J50" s="8" t="s">
@@ -11780,7 +11781,7 @@
         <v>377</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="15"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
@@ -11996,7 +11997,7 @@
         <v>384</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="15"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
@@ -12279,22 +12280,22 @@
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="9">
         <v>1000</v>
       </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="8" t="s">
@@ -12811,58 +12812,58 @@
       <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D112" s="9">
         <v>4</v>
       </c>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D113" s="9">
         <v>100</v>
       </c>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="9">
         <v>2000</v>
       </c>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8" t="s">
@@ -12901,31 +12902,31 @@
       <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D117" s="9">
         <v>0</v>
       </c>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D118" s="9">
@@ -12934,27 +12935,27 @@
       <c r="E118" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D119" s="9">
         <v>1</v>
       </c>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12985,14 +12986,14 @@
       <selection activeCell="A64" sqref="A64:F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="21.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="40.5583333333333" customWidth="1"/>
-    <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
-    <col min="11" max="11" width="23.8916666666667" customWidth="1"/>
-    <col min="19" max="19" width="13.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="40.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="18.3796296296296" customWidth="1"/>
+    <col min="11" max="11" width="23.8888888888889" customWidth="1"/>
+    <col min="19" max="19" width="13.5555555555556" customWidth="1"/>
     <col min="20" max="20" width="31.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13759,18 +13760,18 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
         <v>60</v>
       </c>
@@ -15005,10 +15006,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="13.6296296296296" customWidth="1"/>
     <col min="4" max="5" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -15880,7 +15881,7 @@
       <selection activeCell="A25" sqref="A25:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -16446,7 +16447,7 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -16462,11 +16463,11 @@
       <selection activeCell="A50" sqref="A50:H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.1333333333333" customWidth="1"/>
-    <col min="11" max="11" width="18.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.1296296296296" customWidth="1"/>
+    <col min="11" max="11" width="18.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515" activeTab="2"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620">
   <si>
     <t>表名</t>
   </si>
@@ -590,12 +590,6 @@
   </si>
   <si>
     <t>赛事类型</t>
-  </si>
-  <si>
-    <t>eventCategory</t>
-  </si>
-  <si>
-    <t>具体赛事</t>
   </si>
   <si>
     <t>eventLevel</t>
@@ -1896,8 +1890,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1936,97 +1930,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2047,9 +1958,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2058,6 +2021,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2074,6 +2045,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2100,169 +2094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2280,7 +2112,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2333,36 +2327,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2387,31 +2351,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2430,16 +2380,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2448,133 +2442,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2948,14 +2942,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="16.6333333333333" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="17.1296296296296" customWidth="1"/>
-    <col min="11" max="11" width="22.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="17.1333333333333" customWidth="1"/>
+    <col min="11" max="11" width="22.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5220,10 +5214,10 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="19.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="18.775" customWidth="1"/>
+    <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5231,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5314,10 +5308,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -5334,10 +5328,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5352,10 +5346,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5370,10 +5364,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>116</v>
@@ -5388,10 +5382,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -5406,10 +5400,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
@@ -5424,10 +5418,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -5442,10 +5436,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
@@ -5537,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -5600,10 +5594,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -5620,10 +5614,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -5711,10 +5705,10 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="19.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.8833333333333" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
@@ -5949,19 +5943,19 @@
   <sheetPr/>
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:H73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="28.3796296296296" customWidth="1"/>
-    <col min="8" max="8" width="10.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="17.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="14.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="28.3833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="17.3833333333333" customWidth="1"/>
     <col min="11" max="11" width="24.75" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="19" max="19" width="16.1296296296296" customWidth="1"/>
+    <col min="19" max="19" width="16.1333333333333" customWidth="1"/>
     <col min="20" max="20" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6572,9 +6566,7 @@
       <c r="D19" s="9">
         <v>4</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -6599,16 +6591,16 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="C20" s="8" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="D20" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -6633,38 +6625,38 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="D21" s="9">
-        <v>6</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>400</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9">
-        <v>400</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -6677,10 +6669,10 @@
         <v>195</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="D23" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -6689,28 +6681,28 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="D24" s="9">
-        <v>4</v>
-      </c>
-      <c r="E24" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>49</v>
@@ -6718,61 +6710,43 @@
       <c r="D25" s="9">
         <v>0</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -6782,13 +6756,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -6867,7 +6841,7 @@
       </c>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>15</v>
@@ -6930,7 +6904,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -6943,10 +6917,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>31</v>
@@ -6961,10 +6935,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>16</v>
@@ -6982,7 +6956,7 @@
         <v>22</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>16</v>
@@ -6997,10 +6971,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>16</v>
@@ -7015,10 +6989,10 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>49</v>
@@ -7035,10 +7009,10 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>116</v>
@@ -7053,10 +7027,10 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>163</v>
@@ -7071,10 +7045,10 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>116</v>
@@ -7089,7 +7063,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>33</v>
@@ -7107,10 +7081,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -7143,10 +7117,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -7181,10 +7155,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -7278,13 +7252,13 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -7364,7 +7338,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
@@ -7384,7 +7358,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>21</v>
@@ -7399,10 +7373,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>16</v>
@@ -7420,7 +7394,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>16</v>
@@ -7434,12 +7408,12 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>33</v>
@@ -7517,18 +7491,18 @@
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
     </row>
-    <row r="60" ht="21.6" spans="1:26">
+    <row r="60" ht="22.5" spans="1:26">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -7538,13 +7512,13 @@
         <v>0</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -7554,13 +7528,13 @@
         <v>0</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
@@ -7761,10 +7735,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>39</v>
@@ -7777,10 +7751,10 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>31</v>
@@ -7793,10 +7767,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="T64" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="T64" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>31</v>
@@ -7811,10 +7785,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>31</v>
@@ -7827,10 +7801,10 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>31</v>
@@ -7843,10 +7817,10 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="T65" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="T65" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>31</v>
@@ -7861,10 +7835,10 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>31</v>
@@ -7911,10 +7885,10 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>16</v>
@@ -7965,10 +7939,10 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>39</v>
@@ -7980,7 +7954,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>64</v>
@@ -8017,10 +7991,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>16</v>
@@ -8094,13 +8068,13 @@
         <v>0</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -8112,13 +8086,13 @@
         <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -8255,10 +8229,10 @@
         <v>24</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>16</v>
@@ -8275,10 +8249,10 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -8293,10 +8267,10 @@
         <v>24</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L79" s="8" t="s">
         <v>16</v>
@@ -8313,10 +8287,10 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>31</v>
@@ -8329,10 +8303,10 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L80" s="8" t="s">
         <v>31</v>
@@ -8347,10 +8321,10 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>16</v>
@@ -8363,7 +8337,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>48</v>
@@ -8381,10 +8355,10 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>16</v>
@@ -8397,7 +8371,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>53</v>
@@ -8415,10 +8389,10 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>31</v>
@@ -8542,13 +8516,13 @@
         <v>0</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -8560,13 +8534,13 @@
         <v>0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -8703,10 +8677,10 @@
         <v>24</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>16</v>
@@ -8723,10 +8697,10 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>16</v>
@@ -8741,10 +8715,10 @@
         <v>24</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>16</v>
@@ -8761,10 +8735,10 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>31</v>
@@ -8777,10 +8751,10 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="J93" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K93" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="K93" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="L93" s="8" t="s">
         <v>16</v>
@@ -8795,7 +8769,7 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>48</v>
@@ -8811,10 +8785,10 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="J94" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K94" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="K94" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="L94" s="8" t="s">
         <v>31</v>
@@ -8829,7 +8803,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>53</v>
@@ -8863,10 +8837,10 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>16</v>
@@ -8899,7 +8873,7 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>33</v>
@@ -8992,13 +8966,13 @@
         <v>0</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -9010,13 +8984,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -9153,10 +9127,10 @@
         <v>24</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>16</v>
@@ -9173,10 +9147,10 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>16</v>
@@ -9191,10 +9165,10 @@
         <v>24</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>16</v>
@@ -9211,10 +9185,10 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>16</v>
@@ -9229,10 +9203,10 @@
         <v>24</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L107" s="8" t="s">
         <v>16</v>
@@ -9249,10 +9223,10 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>16</v>
@@ -9285,10 +9259,10 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>16</v>
@@ -9323,7 +9297,7 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>131</v>
@@ -9357,10 +9331,10 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>16</v>
@@ -9375,7 +9349,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>48</v>
@@ -9393,7 +9367,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>53</v>
@@ -9411,10 +9385,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>16</v>
@@ -9488,13 +9462,13 @@
         <v>0</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -9504,13 +9478,13 @@
         <v>0</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="U117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
@@ -9572,13 +9546,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -9669,10 +9643,10 @@
         <v>24</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="T120" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="U120" s="8" t="s">
         <v>16</v>
@@ -9709,10 +9683,10 @@
       </c>
       <c r="H121" s="8"/>
       <c r="J121" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>16</v>
@@ -9727,10 +9701,10 @@
         <v>24</v>
       </c>
       <c r="S121" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T121" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="U121" s="8" t="s">
         <v>16</v>
@@ -9765,10 +9739,10 @@
         <v>24</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>16</v>
@@ -9783,10 +9757,10 @@
         <v>24</v>
       </c>
       <c r="S122" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="T122" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="U122" s="8" t="s">
         <v>16</v>
@@ -9803,10 +9777,10 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>16</v>
@@ -9824,7 +9798,7 @@
         <v>22</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L123" s="8" t="s">
         <v>16</v>
@@ -9842,7 +9816,7 @@
         <v>22</v>
       </c>
       <c r="T123" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U123" s="8" t="s">
         <v>16</v>
@@ -9859,10 +9833,10 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>16</v>
@@ -9877,10 +9851,10 @@
         <v>24</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L124" s="8" t="s">
         <v>16</v>
@@ -9893,10 +9867,10 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="S124" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="T124" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U124" s="8" t="s">
         <v>16</v>
@@ -9914,7 +9888,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>16</v>
@@ -9930,7 +9904,7 @@
         <v>114</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L125" s="8" t="s">
         <v>116</v>
@@ -9946,7 +9920,7 @@
         <v>114</v>
       </c>
       <c r="T125" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="U125" s="8" t="s">
         <v>116</v>
@@ -9964,7 +9938,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>116</v>
@@ -10138,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -10156,13 +10130,13 @@
         <v>0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -10299,10 +10273,10 @@
         <v>24</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>31</v>
@@ -10317,10 +10291,10 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>16</v>
@@ -10338,7 +10312,7 @@
         <v>50</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>21</v>
@@ -10353,10 +10327,10 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>31</v>
@@ -10369,10 +10343,10 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="J137" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>16</v>
@@ -10387,10 +10361,10 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>16</v>
@@ -10408,7 +10382,7 @@
         <v>108</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L138" s="8" t="s">
         <v>21</v>
@@ -10565,14 +10539,14 @@
       <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
     <col min="6" max="6" width="9" style="13"/>
-    <col min="10" max="10" width="15.8796296296296" customWidth="1"/>
+    <col min="10" max="10" width="15.8833333333333" customWidth="1"/>
     <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="20" max="20" width="11.3796296296296" customWidth="1"/>
+    <col min="20" max="20" width="11.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10580,13 +10554,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="14"/>
@@ -10646,7 +10620,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10661,10 +10635,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10679,10 +10653,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10765,13 +10739,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="14"/>
@@ -10831,7 +10805,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10846,10 +10820,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -10928,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="14"/>
@@ -11030,7 +11004,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -11045,10 +11019,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -11063,7 +11037,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>87</v>
@@ -11081,10 +11055,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -11102,7 +11076,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>49</v>
@@ -11183,13 +11157,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="14"/>
@@ -11246,10 +11220,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -11266,10 +11240,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>21</v>
@@ -11284,10 +11258,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -11302,10 +11276,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -11320,10 +11294,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -11338,10 +11312,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -11357,13 +11331,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="14"/>
@@ -11372,10 +11346,10 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>16</v>
@@ -11470,10 +11444,10 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>16</v>
@@ -11504,10 +11478,10 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>16</v>
@@ -11546,13 +11520,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="14"/>
@@ -11645,10 +11619,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -11665,10 +11639,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -11688,7 +11662,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -11772,13 +11746,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="14"/>
@@ -11838,7 +11812,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>21</v>
@@ -11871,10 +11845,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>21</v>
@@ -11891,10 +11865,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -11911,7 +11885,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>33</v>
@@ -11988,13 +11962,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="14"/>
@@ -12051,10 +12025,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>21</v>
@@ -12072,7 +12046,7 @@
         <v>108</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>21</v>
@@ -12090,7 +12064,7 @@
         <v>185</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>21</v>
@@ -12164,13 +12138,13 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -12248,7 +12222,7 @@
         <v>124</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>16</v>
@@ -12263,10 +12237,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>21</v>
@@ -12284,7 +12258,7 @@
         <v>108</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>21</v>
@@ -12302,7 +12276,7 @@
         <v>185</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>21</v>
@@ -12376,13 +12350,13 @@
         <v>0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -12392,13 +12366,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -12499,10 +12473,10 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>21</v>
@@ -12515,10 +12489,10 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="J99" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L99" s="8" t="s">
         <v>16</v>
@@ -12538,7 +12512,7 @@
         <v>108</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>21</v>
@@ -12551,10 +12525,10 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="J100" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>21</v>
@@ -12569,10 +12543,10 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>49</v>
@@ -12585,10 +12559,10 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>16</v>
@@ -12605,10 +12579,10 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>49</v>
@@ -12732,13 +12706,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -12813,10 +12787,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>31</v>
@@ -12831,10 +12805,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>21</v>
@@ -12849,10 +12823,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>21</v>
@@ -12867,10 +12841,10 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>21</v>
@@ -12885,10 +12859,10 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>39</v>
@@ -12986,14 +12960,14 @@
       <selection activeCell="A64" sqref="A64:F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="21.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="40.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="18.3796296296296" customWidth="1"/>
-    <col min="11" max="11" width="23.8888888888889" customWidth="1"/>
-    <col min="19" max="19" width="13.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="40.5583333333333" customWidth="1"/>
+    <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
+    <col min="11" max="11" width="23.8916666666667" customWidth="1"/>
+    <col min="19" max="19" width="13.5583333333333" customWidth="1"/>
     <col min="20" max="20" width="31.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13002,13 +12976,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13083,10 +13057,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -13101,10 +13075,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -13119,10 +13093,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
@@ -13137,10 +13111,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -13155,10 +13129,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -13173,10 +13147,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -13191,10 +13165,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
@@ -13288,13 +13262,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -13304,13 +13278,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -13414,7 +13388,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -13449,10 +13423,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -13467,10 +13441,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>16</v>
@@ -13487,10 +13461,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -13506,7 +13480,7 @@
         <v>50</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>21</v>
@@ -13521,10 +13495,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>116</v>
@@ -13537,10 +13511,10 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>16</v>
@@ -13555,10 +13529,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>31</v>
@@ -13571,10 +13545,10 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>116</v>
@@ -13589,10 +13563,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>49</v>
@@ -13605,10 +13579,10 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>116</v>
@@ -13623,10 +13597,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>116</v>
@@ -13639,10 +13613,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>16</v>
@@ -13657,10 +13631,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>116</v>
@@ -13673,10 +13647,10 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>116</v>
@@ -13691,10 +13665,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -13707,10 +13681,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>116</v>
@@ -13728,7 +13702,7 @@
         <v>108</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>21</v>
@@ -13761,10 +13735,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -13869,13 +13843,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -13885,13 +13859,13 @@
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -13992,10 +13966,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -14010,10 +13984,10 @@
         <v>24</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>16</v>
@@ -14030,10 +14004,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -14046,10 +14020,10 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>31</v>
@@ -14064,10 +14038,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>21</v>
@@ -14080,10 +14054,10 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>21</v>
@@ -14098,10 +14072,10 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -14114,10 +14088,10 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>21</v>
@@ -14132,10 +14106,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -14259,13 +14233,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -14322,10 +14296,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
@@ -14342,10 +14316,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -14360,10 +14334,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -14378,10 +14352,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -14455,13 +14429,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -14471,13 +14445,13 @@
         <v>0</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -14487,13 +14461,13 @@
         <v>0</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -14638,10 +14612,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>31</v>
@@ -14653,13 +14627,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="K64" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>499</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>16</v>
@@ -14672,10 +14646,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>16</v>
@@ -14690,10 +14664,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -14706,10 +14680,10 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>16</v>
@@ -14722,10 +14696,10 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>21</v>
@@ -14740,10 +14714,10 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -14756,10 +14730,10 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>16</v>
@@ -14790,10 +14764,10 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>21</v>
@@ -14806,10 +14780,10 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L67" s="8" t="s">
         <v>16</v>
@@ -14842,7 +14816,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>33</v>
@@ -15006,10 +14980,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="13.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="12.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.6333333333333" customWidth="1"/>
     <col min="4" max="5" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -15018,13 +14992,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15084,7 +15058,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -15156,13 +15130,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -15222,7 +15196,7 @@
         <v>177</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -15240,7 +15214,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -15312,13 +15286,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -15398,7 +15372,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -15472,13 +15446,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -15575,10 +15549,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -15593,10 +15567,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>21</v>
@@ -15614,7 +15588,7 @@
         <v>183</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>39</v>
@@ -15688,13 +15662,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -15751,10 +15725,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>31</v>
@@ -15769,10 +15743,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -15787,10 +15761,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>21</v>
@@ -15881,7 +15855,7 @@
       <selection activeCell="A25" sqref="A25:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -15892,13 +15866,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15958,7 +15932,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -15975,10 +15949,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -15995,10 +15969,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16074,13 +16048,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -16137,10 +16111,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -16157,10 +16131,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -16177,10 +16151,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -16256,13 +16230,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -16319,10 +16293,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
@@ -16337,10 +16311,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -16355,10 +16329,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
@@ -16447,7 +16421,7 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -16463,11 +16437,11 @@
       <selection activeCell="A50" sqref="A50:H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.1296296296296" customWidth="1"/>
-    <col min="11" max="11" width="18.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="17.1333333333333" customWidth="1"/>
+    <col min="11" max="11" width="18.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -16475,13 +16449,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16491,13 +16465,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -16601,7 +16575,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -16617,7 +16591,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>21</v>
@@ -16632,10 +16606,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -16648,10 +16622,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>39</v>
@@ -16666,10 +16640,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16682,10 +16656,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -16700,10 +16674,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -16716,10 +16690,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>21</v>
@@ -16734,10 +16708,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -16750,10 +16724,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -16873,13 +16847,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -16936,10 +16910,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -16954,10 +16928,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -16972,10 +16946,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -16990,10 +16964,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -17008,10 +16982,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -17026,10 +17000,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -17044,10 +17018,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -17062,10 +17036,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -17080,10 +17054,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -17098,10 +17072,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -17116,10 +17090,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -17134,10 +17108,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -17152,10 +17126,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -17170,10 +17144,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -17188,10 +17162,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -17201,19 +17175,19 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -17228,10 +17202,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -17305,13 +17279,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -17325,7 +17299,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -17426,10 +17400,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>16</v>
@@ -17444,10 +17418,10 @@
         <v>24</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>16</v>
@@ -17464,10 +17438,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -17591,13 +17565,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -17654,10 +17628,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>16</v>
@@ -17674,10 +17648,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>116</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621">
   <si>
     <t>表名</t>
   </si>
@@ -661,7 +661,7 @@
     <t>签到时间</t>
   </si>
   <si>
-    <t>minintegral</t>
+    <t>minPoints</t>
   </si>
   <si>
     <t>最小积分</t>
@@ -673,7 +673,7 @@
     <t>签到日期</t>
   </si>
   <si>
-    <t>maxintegral</t>
+    <t>maxPoints</t>
   </si>
   <si>
     <t>最大积分</t>
@@ -745,19 +745,28 @@
     <t>循环赛规避原则</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>队伍 选手排名参考数值</t>
+  </si>
+  <si>
+    <t>对垒规避原则 裁判规避原则...</t>
+  </si>
+  <si>
     <t>isallow</t>
   </si>
   <si>
     <t>是否允许打0.5</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>队伍 选手排名参考数值</t>
-  </si>
-  <si>
-    <t>对垒规避原则 裁判规避原则...</t>
+    <t>value</t>
+  </si>
+  <si>
+    <t>参考实际数据</t>
+  </si>
+  <si>
+    <t>规则实际数据</t>
   </si>
   <si>
     <t>startrange</t>
@@ -766,15 +775,6 @@
     <t>打分区间</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>参考实际数据</t>
-  </si>
-  <si>
-    <t>规则实际数据</t>
-  </si>
-  <si>
     <t>endrange</t>
   </si>
   <si>
@@ -799,31 +799,37 @@
     <t>总轮次</t>
   </si>
   <si>
+    <t>t_eventcyclingrace</t>
+  </si>
+  <si>
+    <t>循环赛</t>
+  </si>
+  <si>
     <t>t_eventcyclingracedetail</t>
   </si>
   <si>
     <t>循环赛场次详情</t>
   </si>
   <si>
-    <t>t_eventcyclingrace</t>
-  </si>
-  <si>
-    <t>循环赛</t>
-  </si>
-  <si>
     <t>赛事组别</t>
   </si>
   <si>
+    <t>pairrule</t>
+  </si>
+  <si>
+    <t>配对规则</t>
+  </si>
+  <si>
     <t>cyclingraceId</t>
   </si>
   <si>
     <t>循环赛id</t>
   </si>
   <si>
-    <t>pairrule</t>
-  </si>
-  <si>
-    <t>配对规则</t>
+    <t>currentround</t>
+  </si>
+  <si>
+    <t>当前轮次</t>
   </si>
   <si>
     <t>screenings</t>
@@ -832,28 +838,28 @@
     <t>场次</t>
   </si>
   <si>
-    <t>currentround</t>
-  </si>
-  <si>
-    <t>当前轮次</t>
+    <t>nextround</t>
+  </si>
+  <si>
+    <t>下一轮</t>
   </si>
   <si>
     <t>starttime</t>
   </si>
   <si>
-    <t>nextround</t>
-  </si>
-  <si>
-    <t>下一轮</t>
+    <t>cyclingracestatus</t>
+  </si>
+  <si>
+    <t>当前循环赛状态</t>
   </si>
   <si>
     <t>endtime</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>当前循环赛状态</t>
+    <t>t_eventknockout</t>
+  </si>
+  <si>
+    <t>淘汰赛</t>
   </si>
   <si>
     <t>t_eventknockoutavoidrule</t>
@@ -862,10 +868,7 @@
     <t>淘汰赛规避原则</t>
   </si>
   <si>
-    <t>t_eventknockout</t>
-  </si>
-  <si>
-    <t>淘汰赛</t>
+    <t>1/32 1/16 1/8</t>
   </si>
   <si>
     <t>knockoutId</t>
@@ -874,25 +877,31 @@
     <t>淘汰赛id</t>
   </si>
   <si>
-    <t>1/32 1/16 1/8</t>
-  </si>
-  <si>
     <t>trainerCount</t>
   </si>
   <si>
     <t>裁判数</t>
   </si>
   <si>
+    <t>knockoutstatus</t>
+  </si>
+  <si>
+    <t>t_match</t>
+  </si>
+  <si>
+    <t>对垒选手表</t>
+  </si>
+  <si>
     <t>t_match_trainer</t>
   </si>
   <si>
     <t>对垒教练表</t>
   </si>
   <si>
-    <t>t_match</t>
-  </si>
-  <si>
-    <t>对垒选手表</t>
+    <t>progroupId</t>
+  </si>
+  <si>
+    <t>正方</t>
   </si>
   <si>
     <t>matchId</t>
@@ -901,22 +910,16 @@
     <t>对垒表id</t>
   </si>
   <si>
-    <t>progroupId</t>
-  </si>
-  <si>
-    <t>正方</t>
+    <t>congroupId</t>
+  </si>
+  <si>
+    <t>反方</t>
   </si>
   <si>
     <t>trainerId</t>
   </si>
   <si>
     <t>教练id</t>
-  </si>
-  <si>
-    <t>congroupId</t>
-  </si>
-  <si>
-    <t>反方</t>
   </si>
   <si>
     <t>roomId</t>
@@ -2572,7 +2575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2615,7 +2618,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2938,8 +2948,8 @@
   <sheetPr/>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3131,7 +3141,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -3207,7 +3217,7 @@
       <c r="H7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="20" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -3245,7 +3255,7 @@
       <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="20" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -5225,13 +5235,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5308,10 +5318,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -5328,10 +5338,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5346,10 +5356,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5364,10 +5374,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>116</v>
@@ -5382,10 +5392,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -5400,10 +5410,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
@@ -5418,10 +5428,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -5436,10 +5446,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
@@ -5531,13 +5541,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -5594,10 +5604,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -5614,10 +5624,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -5702,7 +5712,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -5943,8 +5953,8 @@
   <sheetPr/>
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:H26"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5953,7 +5963,7 @@
     <col min="2" max="2" width="28.3833333333333" customWidth="1"/>
     <col min="8" max="8" width="10.6333333333333" customWidth="1"/>
     <col min="10" max="10" width="17.3833333333333" customWidth="1"/>
-    <col min="11" max="11" width="24.75" customWidth="1"/>
+    <col min="11" max="11" width="29.125" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="19" max="19" width="16.1333333333333" customWidth="1"/>
     <col min="20" max="20" width="22.5" customWidth="1"/>
@@ -6299,7 +6309,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:8">
+    <row r="11" ht="14" customHeight="1" spans="1:8">
       <c r="A11" s="8" t="s">
         <v>170</v>
       </c>
@@ -7727,118 +7737,120 @@
         <v>11</v>
       </c>
       <c r="W63" s="8"/>
-      <c r="X63" s="16"/>
+      <c r="X63" s="18"/>
       <c r="Y63" s="8"/>
       <c r="Z63" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="17">
+        <v>11</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="K64" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="9">
-        <v>1</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="J64" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>243</v>
-      </c>
       <c r="L64" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M64" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="T64" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="T64" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="U64" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="V64" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W64" s="8"/>
-      <c r="X64" s="16"/>
+      <c r="X64" s="18"/>
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D65" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M65" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="T65" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="T65" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="U65" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="V65" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W65" s="8"/>
-      <c r="X65" s="16"/>
+      <c r="X65" s="18"/>
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>31</v>
@@ -7885,13 +7897,13 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D67" s="9">
         <v>4</v>
@@ -7939,23 +7951,21 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D68" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="15" t="s">
-        <v>255</v>
-      </c>
+      <c r="H68" s="8"/>
       <c r="J68" s="8" t="s">
         <v>64</v>
       </c>
@@ -7990,47 +8000,49 @@
       <c r="Z68" s="8"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="9">
+        <v>1</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B70" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="9">
+      <c r="C70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="9">
         <v>4</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="9">
-        <v>0</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>49</v>
@@ -8038,90 +8050,82 @@
       <c r="D71" s="9">
         <v>0</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E71" s="9"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D72" s="9">
-        <v>1</v>
-      </c>
-      <c r="E72" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="74" spans="10:17">
-      <c r="J74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
+    <row r="73" spans="1:8">
+      <c r="A73" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="J75" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M75" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N75" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P75" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q75" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="J75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="10" t="s">
@@ -8148,26 +8152,30 @@
       <c r="H76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M76" s="9">
-        <v>11</v>
-      </c>
-      <c r="N76" s="8"/>
-      <c r="O76" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P76" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q76" s="8"/>
+      <c r="J76" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="8" t="s">
@@ -8191,10 +8199,10 @@
       </c>
       <c r="H77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>16</v>
@@ -8203,11 +8211,13 @@
         <v>11</v>
       </c>
       <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="O77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q77" s="8"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="8" t="s">
@@ -8229,10 +8239,10 @@
         <v>24</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>16</v>
@@ -8267,10 +8277,10 @@
         <v>24</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L79" s="8" t="s">
         <v>16</v>
@@ -8287,10 +8297,10 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>31</v>
@@ -8303,28 +8313,30 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M80" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
+      <c r="Q80" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>16</v>
@@ -8337,16 +8349,16 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M81" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
@@ -8355,10 +8367,10 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>16</v>
@@ -8371,10 +8383,10 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L82" s="8" t="s">
         <v>49</v>
@@ -8389,10 +8401,10 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>31</v>
@@ -8405,10 +8417,10 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L83" s="8" t="s">
         <v>49</v>
@@ -8416,7 +8428,7 @@
       <c r="M83" s="9">
         <v>0</v>
       </c>
-      <c r="N83" s="9"/>
+      <c r="N83" s="8"/>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
@@ -8439,10 +8451,10 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L84" s="8" t="s">
         <v>49</v>
@@ -8450,9 +8462,7 @@
       <c r="M84" s="9">
         <v>0</v>
       </c>
-      <c r="N84" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N84" s="9"/>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
@@ -8477,23 +8487,25 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M85" s="9">
-        <v>1</v>
-      </c>
-      <c r="N85" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:17">
       <c r="A86" s="8" t="s">
         <v>64</v>
       </c>
@@ -8510,66 +8522,56 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
+      <c r="J86" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M86" s="9">
+        <v>1</v>
+      </c>
+      <c r="N86" s="9"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="J88" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K88" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L88" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M88" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N88" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P88" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q88" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="J88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="10" t="s">
@@ -8596,26 +8598,30 @@
       <c r="H89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J89" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M89" s="9">
-        <v>11</v>
-      </c>
-      <c r="N89" s="8"/>
-      <c r="O89" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P89" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q89" s="8"/>
+      <c r="J89" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P89" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q89" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="8" t="s">
@@ -8639,10 +8645,10 @@
       </c>
       <c r="H90" s="8"/>
       <c r="J90" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>16</v>
@@ -8651,11 +8657,13 @@
         <v>11</v>
       </c>
       <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="O90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P90" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q90" s="8"/>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="8" t="s">
@@ -8677,15 +8685,15 @@
         <v>24</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="8">
+      <c r="M91" s="9">
         <v>11</v>
       </c>
       <c r="N91" s="8"/>
@@ -8705,7 +8713,7 @@
       <c r="C92" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="19">
         <v>11</v>
       </c>
       <c r="E92" s="8"/>
@@ -8715,19 +8723,19 @@
         <v>24</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M92" s="9">
+      <c r="M92" s="19">
         <v>11</v>
       </c>
       <c r="N92" s="8"/>
-      <c r="O92" s="16"/>
+      <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8" t="s">
         <v>24</v>
@@ -8735,10 +8743,10 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>31</v>
@@ -8751,10 +8759,10 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="L93" s="8" t="s">
         <v>16</v>
@@ -8763,13 +8771,15 @@
         <v>11</v>
       </c>
       <c r="N93" s="8"/>
-      <c r="O93" s="16"/>
+      <c r="O93" s="18"/>
       <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
+      <c r="Q93" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>48</v>
@@ -8785,25 +8795,25 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="J94" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M94" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N94" s="8"/>
-      <c r="O94" s="16"/>
+      <c r="O94" s="18"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>53</v>
@@ -8819,19 +8829,19 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="J95" s="8" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M95" s="9">
-        <v>0</v>
-      </c>
-      <c r="N95" s="9"/>
-      <c r="O95" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="N95" s="8"/>
+      <c r="O95" s="18"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
     </row>
@@ -8853,10 +8863,10 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="J96" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L96" s="8" t="s">
         <v>49</v>
@@ -8864,16 +8874,14 @@
       <c r="M96" s="9">
         <v>0</v>
       </c>
-      <c r="N96" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N96" s="9"/>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="8" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>33</v>
@@ -8889,23 +8897,25 @@
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="J97" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M97" s="9">
-        <v>1</v>
-      </c>
-      <c r="N97" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:17">
       <c r="A98" s="8" t="s">
         <v>56</v>
       </c>
@@ -8922,6 +8932,22 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
+      <c r="J98" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M98" s="9">
+        <v>1</v>
+      </c>
+      <c r="N98" s="9"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="8" t="s">
@@ -8961,65 +8987,39 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="10:17">
-      <c r="J101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-    </row>
     <row r="102" spans="1:17">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
-      <c r="J102" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K102" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L102" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P102" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q102" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="J102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="5" t="s">
@@ -9046,26 +9046,30 @@
       <c r="H103" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J103" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K103" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L103" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M103" s="9">
-        <v>11</v>
-      </c>
-      <c r="N103" s="8"/>
-      <c r="O103" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P103" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q103" s="8"/>
+      <c r="J103" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M103" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N103" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P103" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q103" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="8" t="s">
@@ -9089,10 +9093,10 @@
       </c>
       <c r="H104" s="8"/>
       <c r="J104" s="8" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>16</v>
@@ -9101,11 +9105,13 @@
         <v>11</v>
       </c>
       <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="O104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q104" s="8"/>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
@@ -9127,10 +9133,10 @@
         <v>24</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="L105" s="8" t="s">
         <v>16</v>
@@ -9165,10 +9171,10 @@
         <v>24</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>16</v>
@@ -9185,10 +9191,10 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>16</v>
@@ -9203,10 +9209,10 @@
         <v>24</v>
       </c>
       <c r="J107" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="K107" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="L107" s="8" t="s">
         <v>16</v>
@@ -9223,10 +9229,10 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>16</v>
@@ -9241,28 +9247,30 @@
         <v>24</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>57</v>
+        <v>298</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M108" s="9">
-        <v>0</v>
-      </c>
-      <c r="N108" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
-      <c r="Q108" s="8"/>
+      <c r="Q108" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>16</v>
@@ -9277,10 +9285,10 @@
         <v>24</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L109" s="8" t="s">
         <v>49</v>
@@ -9288,16 +9296,14 @@
       <c r="M109" s="9">
         <v>0</v>
       </c>
-      <c r="N109" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N109" s="9"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>131</v>
@@ -9313,28 +9319,30 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="J110" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M110" s="9">
-        <v>1</v>
-      </c>
-      <c r="N110" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:17">
       <c r="A111" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>16</v>
@@ -9346,10 +9354,26 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
+      <c r="J111" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M111" s="9">
+        <v>1</v>
+      </c>
+      <c r="N111" s="9"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>48</v>
@@ -9367,7 +9391,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>53</v>
@@ -9385,10 +9409,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>16</v>
@@ -9462,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -9478,13 +9502,13 @@
         <v>0</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
@@ -9546,13 +9570,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -9643,10 +9667,10 @@
         <v>24</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="T120" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U120" s="8" t="s">
         <v>16</v>
@@ -9739,10 +9763,10 @@
         <v>24</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>16</v>
@@ -9757,10 +9781,10 @@
         <v>24</v>
       </c>
       <c r="S122" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="T122" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U122" s="8" t="s">
         <v>16</v>
@@ -9833,10 +9857,10 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>16</v>
@@ -9851,10 +9875,10 @@
         <v>24</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L124" s="8" t="s">
         <v>16</v>
@@ -9867,10 +9891,10 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="S124" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="T124" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="U124" s="8" t="s">
         <v>16</v>
@@ -9888,7 +9912,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>16</v>
@@ -9904,7 +9928,7 @@
         <v>114</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L125" s="8" t="s">
         <v>116</v>
@@ -9920,7 +9944,7 @@
         <v>114</v>
       </c>
       <c r="T125" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U125" s="8" t="s">
         <v>116</v>
@@ -9938,7 +9962,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>116</v>
@@ -10112,13 +10136,13 @@
         <v>0</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -10130,13 +10154,13 @@
         <v>0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -10273,10 +10297,10 @@
         <v>24</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>31</v>
@@ -10312,7 +10336,7 @@
         <v>50</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>21</v>
@@ -10327,10 +10351,10 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>31</v>
@@ -10343,10 +10367,10 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="J137" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>16</v>
@@ -10361,10 +10385,10 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>16</v>
@@ -10382,7 +10406,7 @@
         <v>108</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L138" s="8" t="s">
         <v>21</v>
@@ -10512,12 +10536,12 @@
     <mergeCell ref="D60:H60"/>
     <mergeCell ref="M60:Q60"/>
     <mergeCell ref="V60:Z60"/>
-    <mergeCell ref="M74:Q74"/>
     <mergeCell ref="D75:H75"/>
-    <mergeCell ref="M87:Q87"/>
+    <mergeCell ref="M75:Q75"/>
     <mergeCell ref="D88:H88"/>
-    <mergeCell ref="M101:Q101"/>
+    <mergeCell ref="M88:Q88"/>
     <mergeCell ref="D102:H102"/>
+    <mergeCell ref="M102:Q102"/>
     <mergeCell ref="M117:Q117"/>
     <mergeCell ref="V117:Z117"/>
     <mergeCell ref="D119:H119"/>
@@ -10554,13 +10578,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="14"/>
@@ -10620,7 +10644,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10635,10 +10659,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10653,10 +10677,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10739,13 +10763,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="14"/>
@@ -10805,7 +10829,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10820,10 +10844,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -10902,13 +10926,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="14"/>
@@ -11004,7 +11028,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -11019,10 +11043,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -11037,7 +11061,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>87</v>
@@ -11055,10 +11079,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -11076,7 +11100,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>49</v>
@@ -11157,13 +11181,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="14"/>
@@ -11220,10 +11244,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -11240,10 +11264,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>21</v>
@@ -11258,10 +11282,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -11276,10 +11300,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -11294,10 +11318,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -11312,10 +11336,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -11331,13 +11355,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="14"/>
@@ -11346,10 +11370,10 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>16</v>
@@ -11444,10 +11468,10 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>16</v>
@@ -11478,10 +11502,10 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>16</v>
@@ -11520,13 +11544,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="14"/>
@@ -11619,10 +11643,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -11639,10 +11663,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -11662,7 +11686,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -11746,13 +11770,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="14"/>
@@ -11812,7 +11836,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>21</v>
@@ -11845,10 +11869,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>21</v>
@@ -11865,10 +11889,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -11885,7 +11909,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>33</v>
@@ -11962,13 +11986,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="14"/>
@@ -12025,10 +12049,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>21</v>
@@ -12046,7 +12070,7 @@
         <v>108</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>21</v>
@@ -12064,7 +12088,7 @@
         <v>185</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>21</v>
@@ -12138,13 +12162,13 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -12237,10 +12261,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>21</v>
@@ -12258,7 +12282,7 @@
         <v>108</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>21</v>
@@ -12276,7 +12300,7 @@
         <v>185</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>21</v>
@@ -12350,13 +12374,13 @@
         <v>0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -12366,13 +12390,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -12473,10 +12497,10 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>21</v>
@@ -12489,10 +12513,10 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="J99" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L99" s="8" t="s">
         <v>16</v>
@@ -12512,7 +12536,7 @@
         <v>108</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>21</v>
@@ -12525,10 +12549,10 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="J100" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>21</v>
@@ -12543,10 +12567,10 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>49</v>
@@ -12559,10 +12583,10 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>16</v>
@@ -12579,10 +12603,10 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>49</v>
@@ -12706,13 +12730,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -12787,10 +12811,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>31</v>
@@ -12805,10 +12829,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>21</v>
@@ -12823,10 +12847,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>21</v>
@@ -12841,10 +12865,10 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>21</v>
@@ -12859,10 +12883,10 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>39</v>
@@ -12976,13 +13000,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13057,10 +13081,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -13075,10 +13099,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -13093,10 +13117,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
@@ -13111,10 +13135,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -13129,10 +13153,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -13147,10 +13171,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -13165,10 +13189,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
@@ -13262,13 +13286,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -13278,13 +13302,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -13388,7 +13412,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -13423,10 +13447,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -13441,10 +13465,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>16</v>
@@ -13461,10 +13485,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -13480,7 +13504,7 @@
         <v>50</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>21</v>
@@ -13495,10 +13519,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>116</v>
@@ -13511,10 +13535,10 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>16</v>
@@ -13529,10 +13553,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>31</v>
@@ -13545,10 +13569,10 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>116</v>
@@ -13563,10 +13587,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>49</v>
@@ -13579,10 +13603,10 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>116</v>
@@ -13597,10 +13621,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>116</v>
@@ -13613,10 +13637,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>16</v>
@@ -13631,10 +13655,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>116</v>
@@ -13647,10 +13671,10 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>116</v>
@@ -13665,10 +13689,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -13681,10 +13705,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>116</v>
@@ -13702,7 +13726,7 @@
         <v>108</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>21</v>
@@ -13735,10 +13759,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -13843,13 +13867,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -13859,13 +13883,13 @@
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -13966,10 +13990,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -13984,10 +14008,10 @@
         <v>24</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>16</v>
@@ -14004,10 +14028,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -14020,10 +14044,10 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>31</v>
@@ -14038,10 +14062,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>21</v>
@@ -14054,10 +14078,10 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>21</v>
@@ -14072,10 +14096,10 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -14088,10 +14112,10 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>21</v>
@@ -14106,10 +14130,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -14233,13 +14257,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -14296,10 +14320,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
@@ -14316,10 +14340,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -14334,10 +14358,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -14352,10 +14376,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -14429,13 +14453,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -14445,13 +14469,13 @@
         <v>0</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -14461,13 +14485,13 @@
         <v>0</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -14612,10 +14636,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>31</v>
@@ -14627,13 +14651,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>16</v>
@@ -14646,10 +14670,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>16</v>
@@ -14664,10 +14688,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -14680,10 +14704,10 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>16</v>
@@ -14696,10 +14720,10 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>21</v>
@@ -14714,10 +14738,10 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -14730,10 +14754,10 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>16</v>
@@ -14764,10 +14788,10 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>21</v>
@@ -14780,10 +14804,10 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L67" s="8" t="s">
         <v>16</v>
@@ -14816,7 +14840,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>33</v>
@@ -14992,13 +15016,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15058,7 +15082,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -15130,13 +15154,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -15196,7 +15220,7 @@
         <v>177</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -15214,7 +15238,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -15286,13 +15310,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -15372,7 +15396,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -15446,13 +15470,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -15549,10 +15573,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -15567,10 +15591,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>21</v>
@@ -15588,7 +15612,7 @@
         <v>183</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>39</v>
@@ -15662,13 +15686,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -15725,10 +15749,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>31</v>
@@ -15743,10 +15767,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -15761,10 +15785,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>21</v>
@@ -15866,13 +15890,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15932,7 +15956,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -15949,10 +15973,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -15969,10 +15993,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16048,13 +16072,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -16111,10 +16135,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -16131,10 +16155,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -16151,10 +16175,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -16230,13 +16254,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -16293,10 +16317,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
@@ -16311,10 +16335,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -16329,10 +16353,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
@@ -16449,13 +16473,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16465,13 +16489,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -16575,7 +16599,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -16591,7 +16615,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>21</v>
@@ -16606,10 +16630,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -16622,10 +16646,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>39</v>
@@ -16640,10 +16664,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16656,10 +16680,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -16674,10 +16698,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -16690,10 +16714,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>21</v>
@@ -16708,10 +16732,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -16724,10 +16748,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -16847,13 +16871,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -16910,10 +16934,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -16928,10 +16952,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -16946,10 +16970,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -16964,10 +16988,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -16982,10 +17006,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -17000,10 +17024,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -17018,10 +17042,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -17036,10 +17060,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -17054,10 +17078,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -17072,10 +17096,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -17090,10 +17114,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -17108,10 +17132,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -17126,10 +17150,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -17144,10 +17168,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -17162,10 +17186,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -17175,19 +17199,19 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -17202,10 +17226,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -17279,13 +17303,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -17299,7 +17323,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -17400,10 +17424,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>16</v>
@@ -17418,10 +17442,10 @@
         <v>24</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>16</v>
@@ -17438,10 +17462,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -17565,13 +17589,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -17628,10 +17652,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>16</v>
@@ -17648,10 +17672,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>116</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624">
   <si>
     <t>表名</t>
   </si>
@@ -508,6 +508,18 @@
     <t>赛事名称</t>
   </si>
   <si>
+    <t>eventType</t>
+  </si>
+  <si>
+    <t>赛事类型</t>
+  </si>
+  <si>
+    <t>eventTypeName</t>
+  </si>
+  <si>
+    <t>赛事类型名称</t>
+  </si>
+  <si>
     <t>starteventdate</t>
   </si>
   <si>
@@ -541,6 +553,12 @@
     <t>退费截止时间</t>
   </si>
   <si>
+    <t>t_eventattachment</t>
+  </si>
+  <si>
+    <t>赛事附件表（可有可无）</t>
+  </si>
+  <si>
     <t>赛事描述</t>
   </si>
   <si>
@@ -550,12 +568,6 @@
     <t>赛场地址</t>
   </si>
   <si>
-    <t>t_eventattachment</t>
-  </si>
-  <si>
-    <t>赛事附件表（可有可无）</t>
-  </si>
-  <si>
     <t>countryId</t>
   </si>
   <si>
@@ -568,6 +580,12 @@
     <t>省份id</t>
   </si>
   <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>附件路径</t>
+  </si>
+  <si>
     <t>cityId</t>
   </si>
   <si>
@@ -580,18 +598,6 @@
     <t>是否国际</t>
   </si>
   <si>
-    <t>filepath</t>
-  </si>
-  <si>
-    <t>附件路径</t>
-  </si>
-  <si>
-    <t>eventType</t>
-  </si>
-  <si>
-    <t>赛事类型</t>
-  </si>
-  <si>
     <t>eventLevel</t>
   </si>
   <si>
@@ -655,16 +661,28 @@
     <t>最大年级</t>
   </si>
   <si>
+    <t>eventGroupId</t>
+  </si>
+  <si>
+    <t>赛事组别id</t>
+  </si>
+  <si>
+    <t>minPoints</t>
+  </si>
+  <si>
+    <t>最小积分</t>
+  </si>
+  <si>
     <t>signtime</t>
   </si>
   <si>
     <t>签到时间</t>
   </si>
   <si>
-    <t>minPoints</t>
-  </si>
-  <si>
-    <t>最小积分</t>
+    <t>maxPoints</t>
+  </si>
+  <si>
+    <t>最大积分</t>
   </si>
   <si>
     <t>signdate</t>
@@ -673,21 +691,15 @@
     <t>签到日期</t>
   </si>
   <si>
-    <t>maxPoints</t>
-  </si>
-  <si>
-    <t>最大积分</t>
+    <t>mintimes</t>
+  </si>
+  <si>
+    <t>最小比赛次数</t>
   </si>
   <si>
     <t>eventSignStatus</t>
   </si>
   <si>
-    <t>mintimes</t>
-  </si>
-  <si>
-    <t>最小比赛次数</t>
-  </si>
-  <si>
     <t>maxtimes</t>
   </si>
   <si>
@@ -713,9 +725,6 @@
   </si>
   <si>
     <t>eventgroupId</t>
-  </si>
-  <si>
-    <t>赛事组别id</t>
   </si>
   <si>
     <t>选手id</t>
@@ -1898,7 +1907,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1923,13 +1932,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2433,10 +2435,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2445,137 +2447,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2626,7 +2628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3141,7 +3142,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -3217,7 +3218,7 @@
       <c r="H7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="8" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -3255,7 +3256,7 @@
       <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -5235,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5318,10 +5319,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -5338,10 +5339,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -5356,10 +5357,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5374,10 +5375,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>116</v>
@@ -5392,10 +5393,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>21</v>
@@ -5410,10 +5411,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
@@ -5428,10 +5429,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -5446,10 +5447,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
@@ -5541,13 +5542,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -5604,10 +5605,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -5624,10 +5625,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -5953,8 +5954,8 @@
   <sheetPr/>
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6211,10 +6212,10 @@
         <v>162</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -6240,22 +6241,22 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="17">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="J8" s="8" t="s">
         <v>64</v>
       </c>
@@ -6275,13 +6276,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -6299,7 +6300,7 @@
         <v>169</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -6317,7 +6318,7 @@
         <v>171</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -6329,16 +6330,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="D12" s="9">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -6347,16 +6348,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="D13" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -6366,13 +6367,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -6381,16 +6382,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="8" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14" s="9">
-        <v>11</v>
+        <v>4000</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -6429,10 +6430,10 @@
         <v>180</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D15" s="9">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -6503,10 +6504,10 @@
         <v>184</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D17" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -6537,10 +6538,10 @@
         <v>188</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -6571,10 +6572,10 @@
         <v>190</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D19" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -6601,16 +6602,16 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="D20" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -6635,38 +6636,38 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D21" s="9">
-        <v>400</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" s="9">
-        <v>11</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>400</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -6679,10 +6680,10 @@
         <v>195</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -6691,28 +6692,28 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>49</v>
@@ -6720,43 +6721,61 @@
       <c r="D25" s="9">
         <v>0</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -6766,13 +6785,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -6851,7 +6870,7 @@
       </c>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>15</v>
@@ -6914,7 +6933,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -6927,10 +6946,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>31</v>
@@ -6945,10 +6964,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>16</v>
@@ -6966,7 +6985,7 @@
         <v>22</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>16</v>
@@ -6981,10 +7000,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>16</v>
@@ -6998,31 +7017,31 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="J35" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0</v>
+      <c r="J35" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="17">
+        <v>11</v>
       </c>
       <c r="N35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>116</v>
@@ -7037,28 +7056,30 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="M36" s="9">
         <v>0</v>
       </c>
-      <c r="N36" s="8"/>
+      <c r="N36" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>116</v>
@@ -7073,16 +7094,16 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="M37" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -7091,10 +7112,10 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>16</v>
@@ -7109,28 +7130,28 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -7145,10 +7166,10 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>49</v>
@@ -7156,19 +7177,17 @@
       <c r="M39" s="9">
         <v>0</v>
       </c>
-      <c r="N39" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N39" s="9"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -7181,23 +7200,25 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M40" s="9">
-        <v>1</v>
-      </c>
-      <c r="N40" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
         <v>56</v>
       </c>
@@ -7214,6 +7235,22 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
+      <c r="J41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" s="9">
+        <v>1</v>
+      </c>
+      <c r="N41" s="9"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
@@ -7262,13 +7299,13 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -7348,7 +7385,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
@@ -7368,7 +7405,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>21</v>
@@ -7383,10 +7420,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>16</v>
@@ -7404,7 +7441,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>16</v>
@@ -7418,12 +7455,12 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>33</v>
@@ -7506,13 +7543,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -7522,13 +7559,13 @@
         <v>0</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -7538,13 +7575,13 @@
         <v>0</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
@@ -7745,10 +7782,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="16" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>16</v>
@@ -7763,10 +7800,10 @@
         <v>24</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>16</v>
@@ -7779,10 +7816,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>16</v>
@@ -7797,10 +7834,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>39</v>
@@ -7813,10 +7850,10 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>16</v>
@@ -7829,10 +7866,10 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>16</v>
@@ -7847,10 +7884,10 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>31</v>
@@ -7897,10 +7934,10 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>31</v>
@@ -7951,10 +7988,10 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>16</v>
@@ -8001,10 +8038,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>39</v>
@@ -8016,15 +8053,15 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="15" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>16</v>
@@ -8098,13 +8135,13 @@
         <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -8114,13 +8151,13 @@
         <v>0</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -8259,10 +8296,10 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>16</v>
@@ -8277,10 +8314,10 @@
         <v>24</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L79" s="8" t="s">
         <v>16</v>
@@ -8297,10 +8334,10 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>31</v>
@@ -8313,10 +8350,10 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L80" s="8" t="s">
         <v>16</v>
@@ -8333,10 +8370,10 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>16</v>
@@ -8349,10 +8386,10 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L81" s="8" t="s">
         <v>16</v>
@@ -8367,10 +8404,10 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>16</v>
@@ -8383,7 +8420,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>48</v>
@@ -8401,10 +8438,10 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>31</v>
@@ -8417,7 +8454,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>53</v>
@@ -8544,13 +8581,13 @@
         <v>0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -8560,13 +8597,13 @@
         <v>0</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -8705,10 +8742,10 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>16</v>
@@ -8723,10 +8760,10 @@
         <v>24</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>16</v>
@@ -8743,10 +8780,10 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>31</v>
@@ -8759,10 +8796,10 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L93" s="8" t="s">
         <v>16</v>
@@ -8779,7 +8816,7 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>48</v>
@@ -8795,10 +8832,10 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="J94" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L94" s="8" t="s">
         <v>16</v>
@@ -8813,7 +8850,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>53</v>
@@ -8829,10 +8866,10 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="J95" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L95" s="8" t="s">
         <v>16</v>
@@ -8847,10 +8884,10 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>16</v>
@@ -8881,7 +8918,7 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>33</v>
@@ -8992,13 +9029,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -9008,13 +9045,13 @@
         <v>0</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -9153,10 +9190,10 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>16</v>
@@ -9171,10 +9208,10 @@
         <v>24</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>16</v>
@@ -9191,10 +9228,10 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>16</v>
@@ -9209,10 +9246,10 @@
         <v>24</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L107" s="8" t="s">
         <v>16</v>
@@ -9229,10 +9266,10 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>16</v>
@@ -9247,10 +9284,10 @@
         <v>24</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>16</v>
@@ -9267,10 +9304,10 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>16</v>
@@ -9303,7 +9340,7 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>131</v>
@@ -9339,10 +9376,10 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>16</v>
@@ -9373,7 +9410,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>48</v>
@@ -9391,7 +9428,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>53</v>
@@ -9409,10 +9446,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>16</v>
@@ -9486,13 +9523,13 @@
         <v>0</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -9502,13 +9539,13 @@
         <v>0</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="U117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
@@ -9570,13 +9607,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -9667,10 +9704,10 @@
         <v>24</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="T120" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="U120" s="8" t="s">
         <v>16</v>
@@ -9707,10 +9744,10 @@
       </c>
       <c r="H121" s="8"/>
       <c r="J121" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L121" s="8" t="s">
         <v>16</v>
@@ -9725,10 +9762,10 @@
         <v>24</v>
       </c>
       <c r="S121" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="T121" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="U121" s="8" t="s">
         <v>16</v>
@@ -9763,10 +9800,10 @@
         <v>24</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>16</v>
@@ -9781,10 +9818,10 @@
         <v>24</v>
       </c>
       <c r="S122" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T122" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="U122" s="8" t="s">
         <v>16</v>
@@ -9801,10 +9838,10 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>16</v>
@@ -9822,7 +9859,7 @@
         <v>22</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L123" s="8" t="s">
         <v>16</v>
@@ -9840,7 +9877,7 @@
         <v>22</v>
       </c>
       <c r="T123" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="U123" s="8" t="s">
         <v>16</v>
@@ -9857,10 +9894,10 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>16</v>
@@ -9875,10 +9912,10 @@
         <v>24</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L124" s="8" t="s">
         <v>16</v>
@@ -9891,10 +9928,10 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="S124" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="T124" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="U124" s="8" t="s">
         <v>16</v>
@@ -9912,7 +9949,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>16</v>
@@ -9928,7 +9965,7 @@
         <v>114</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L125" s="8" t="s">
         <v>116</v>
@@ -9944,7 +9981,7 @@
         <v>114</v>
       </c>
       <c r="T125" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="U125" s="8" t="s">
         <v>116</v>
@@ -9962,7 +9999,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>116</v>
@@ -10136,13 +10173,13 @@
         <v>0</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -10154,13 +10191,13 @@
         <v>0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -10297,10 +10334,10 @@
         <v>24</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>31</v>
@@ -10315,10 +10352,10 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>16</v>
@@ -10336,7 +10373,7 @@
         <v>50</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>21</v>
@@ -10351,10 +10388,10 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>31</v>
@@ -10367,10 +10404,10 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="J137" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>16</v>
@@ -10385,10 +10422,10 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>16</v>
@@ -10406,7 +10443,7 @@
         <v>108</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L138" s="8" t="s">
         <v>21</v>
@@ -10578,13 +10615,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="14"/>
@@ -10644,7 +10681,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -10659,10 +10696,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>31</v>
@@ -10677,10 +10714,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -10763,13 +10800,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="14"/>
@@ -10829,7 +10866,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -10844,10 +10881,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -10926,13 +10963,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="14"/>
@@ -11028,7 +11065,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -11043,10 +11080,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -11061,7 +11098,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>87</v>
@@ -11079,10 +11116,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -11100,7 +11137,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>49</v>
@@ -11181,13 +11218,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="14"/>
@@ -11244,10 +11281,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
@@ -11264,10 +11301,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>21</v>
@@ -11282,10 +11319,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -11300,10 +11337,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -11318,10 +11355,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -11336,10 +11373,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -11355,13 +11392,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="14"/>
@@ -11370,10 +11407,10 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="8" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>16</v>
@@ -11468,10 +11505,10 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>16</v>
@@ -11502,10 +11539,10 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>16</v>
@@ -11544,13 +11581,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="14"/>
@@ -11643,10 +11680,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -11663,10 +11700,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -11686,7 +11723,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -11770,13 +11807,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="14"/>
@@ -11836,7 +11873,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>21</v>
@@ -11869,10 +11906,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>21</v>
@@ -11889,10 +11926,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -11909,7 +11946,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>33</v>
@@ -11986,13 +12023,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="14"/>
@@ -12049,10 +12086,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>21</v>
@@ -12070,7 +12107,7 @@
         <v>108</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>21</v>
@@ -12088,7 +12125,7 @@
         <v>185</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>21</v>
@@ -12162,13 +12199,13 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -12246,7 +12283,7 @@
         <v>124</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>16</v>
@@ -12261,10 +12298,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>21</v>
@@ -12282,7 +12319,7 @@
         <v>108</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>21</v>
@@ -12300,7 +12337,7 @@
         <v>185</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>21</v>
@@ -12374,13 +12411,13 @@
         <v>0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -12390,13 +12427,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -12497,10 +12534,10 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>21</v>
@@ -12513,10 +12550,10 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="J99" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L99" s="8" t="s">
         <v>16</v>
@@ -12536,7 +12573,7 @@
         <v>108</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>21</v>
@@ -12549,10 +12586,10 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="J100" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>21</v>
@@ -12567,10 +12604,10 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>49</v>
@@ -12583,10 +12620,10 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>16</v>
@@ -12603,10 +12640,10 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>49</v>
@@ -12730,13 +12767,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -12811,10 +12848,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="15" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>31</v>
@@ -12829,10 +12866,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="15" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>21</v>
@@ -12847,10 +12884,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="15" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>21</v>
@@ -12865,10 +12902,10 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>21</v>
@@ -12883,10 +12920,10 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>39</v>
@@ -13000,13 +13037,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -13081,10 +13118,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -13099,10 +13136,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -13117,10 +13154,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
@@ -13135,10 +13172,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -13153,10 +13190,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -13171,10 +13208,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -13189,10 +13226,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
@@ -13286,13 +13323,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -13302,13 +13339,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -13412,7 +13449,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -13447,10 +13484,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
@@ -13465,10 +13502,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>16</v>
@@ -13485,10 +13522,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>31</v>
@@ -13504,7 +13541,7 @@
         <v>50</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>21</v>
@@ -13519,10 +13556,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="8" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>116</v>
@@ -13535,10 +13572,10 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>16</v>
@@ -13553,10 +13590,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>31</v>
@@ -13569,10 +13606,10 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>116</v>
@@ -13587,10 +13624,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>49</v>
@@ -13603,10 +13640,10 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>116</v>
@@ -13621,10 +13658,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>116</v>
@@ -13637,10 +13674,10 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>16</v>
@@ -13655,10 +13692,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>116</v>
@@ -13671,10 +13708,10 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>116</v>
@@ -13689,10 +13726,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>39</v>
@@ -13705,10 +13742,10 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>116</v>
@@ -13726,7 +13763,7 @@
         <v>108</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>21</v>
@@ -13759,10 +13796,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -13867,13 +13904,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -13883,13 +13920,13 @@
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -13990,10 +14027,10 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
@@ -14008,10 +14045,10 @@
         <v>24</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>16</v>
@@ -14028,10 +14065,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>21</v>
@@ -14044,10 +14081,10 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>31</v>
@@ -14062,10 +14099,10 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>21</v>
@@ -14078,10 +14115,10 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>21</v>
@@ -14096,10 +14133,10 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -14112,10 +14149,10 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>21</v>
@@ -14130,10 +14167,10 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>21</v>
@@ -14257,13 +14294,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -14320,10 +14357,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
@@ -14340,10 +14377,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
@@ -14358,10 +14395,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
@@ -14376,10 +14413,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
@@ -14453,13 +14490,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -14469,13 +14506,13 @@
         <v>0</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -14485,13 +14522,13 @@
         <v>0</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -14636,10 +14673,10 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>31</v>
@@ -14651,13 +14688,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>16</v>
@@ -14670,10 +14707,10 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="S64" s="8" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>16</v>
@@ -14688,10 +14725,10 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>16</v>
@@ -14704,10 +14741,10 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>16</v>
@@ -14720,10 +14757,10 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="S65" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>21</v>
@@ -14738,10 +14775,10 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>21</v>
@@ -14754,10 +14791,10 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>16</v>
@@ -14788,10 +14825,10 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>21</v>
@@ -14804,10 +14841,10 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L67" s="8" t="s">
         <v>16</v>
@@ -14840,7 +14877,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="8" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>33</v>
@@ -15016,13 +15053,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15082,7 +15119,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -15154,13 +15191,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -15217,10 +15254,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -15238,7 +15275,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -15310,13 +15347,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -15373,10 +15410,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -15396,7 +15433,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -15470,13 +15507,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -15533,10 +15570,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>16</v>
@@ -15553,10 +15590,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>16</v>
@@ -15573,10 +15610,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -15591,10 +15628,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>21</v>
@@ -15609,10 +15646,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>39</v>
@@ -15686,13 +15723,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -15749,10 +15786,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>31</v>
@@ -15767,10 +15804,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -15785,10 +15822,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>21</v>
@@ -15890,13 +15927,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -15956,7 +15993,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -15973,10 +16010,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -15993,10 +16030,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16072,13 +16109,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -16135,10 +16172,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -16155,10 +16192,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -16175,10 +16212,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -16254,13 +16291,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -16317,10 +16354,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
@@ -16335,10 +16372,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -16353,10 +16390,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
@@ -16473,13 +16510,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16489,13 +16526,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -16599,7 +16636,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -16615,7 +16652,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>21</v>
@@ -16630,10 +16667,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -16646,10 +16683,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>39</v>
@@ -16664,10 +16701,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -16680,10 +16717,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -16698,10 +16735,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -16714,10 +16751,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>21</v>
@@ -16732,10 +16769,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -16748,10 +16785,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="J8" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="K8" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -16871,13 +16908,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -16934,10 +16971,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -16952,10 +16989,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -16970,10 +17007,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -16988,10 +17025,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -17006,10 +17043,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
@@ -17024,10 +17061,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -17042,10 +17079,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>21</v>
@@ -17060,10 +17097,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -17078,10 +17115,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
@@ -17096,10 +17133,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -17114,10 +17151,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -17132,10 +17169,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
@@ -17150,10 +17187,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -17168,10 +17205,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>31</v>
@@ -17186,10 +17223,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -17199,19 +17236,19 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -17226,10 +17263,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -17303,13 +17340,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -17323,7 +17360,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -17424,10 +17461,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>16</v>
@@ -17442,10 +17479,10 @@
         <v>24</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>16</v>
@@ -17462,10 +17499,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>21</v>
@@ -17589,13 +17626,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -17652,10 +17689,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>16</v>
@@ -17672,10 +17709,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>116</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -430,6 +430,9 @@
     <t>报名详情表</t>
   </si>
   <si>
+    <t>eventGroupId</t>
+  </si>
+  <si>
     <t>赛事组别Id</t>
   </si>
   <si>
@@ -659,9 +662,6 @@
   </si>
   <si>
     <t>最大年级</t>
-  </si>
-  <si>
-    <t>eventGroupId</t>
   </si>
   <si>
     <t>赛事组别id</t>
@@ -2950,7 +2950,7 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5013,10 +5013,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="8" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>16</v>
@@ -5053,10 +5053,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>116</v>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>21</v>
@@ -5091,10 +5091,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>31</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>31</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>39</v>
@@ -5713,7 +5713,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -5729,13 +5729,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5835,7 +5835,7 @@
         <v>124</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
@@ -5850,10 +5850,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>39</v>
@@ -5954,7 +5954,7 @@
   <sheetPr/>
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
@@ -5975,13 +5975,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5991,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -6101,7 +6101,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -6116,7 +6116,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>123</v>
@@ -6139,7 +6139,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>21</v>
@@ -6157,7 +6157,7 @@
         <v>108</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>21</v>
@@ -6175,7 +6175,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -6206,10 +6206,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>31</v>
@@ -6276,13 +6276,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -6294,13 +6294,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -6312,13 +6312,13 @@
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -6330,13 +6330,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -6348,13 +6348,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -6367,13 +6367,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -6385,7 +6385,7 @@
         <v>108</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>21</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>21</v>
@@ -6462,10 +6462,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>16</v>
@@ -6498,10 +6498,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
@@ -6514,10 +6514,10 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>21</v>
@@ -6532,10 +6532,10 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -6566,10 +6566,10 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>39</v>
@@ -6602,10 +6602,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>31</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>116</v>
@@ -6654,10 +6654,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
@@ -6674,10 +6674,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>16</v>
@@ -6692,13 +6692,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D24" s="9">
         <v>4</v>
@@ -6769,13 +6769,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -6785,13 +6785,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="H31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>15</v>
@@ -6933,7 +6933,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>21</v>
@@ -6946,10 +6946,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>31</v>
@@ -6964,10 +6964,10 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>16</v>
@@ -6985,7 +6985,7 @@
         <v>22</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>16</v>
@@ -7000,10 +7000,10 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>16</v>
@@ -7018,7 +7018,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="J35" s="16" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>213</v>
@@ -7100,7 +7100,7 @@
         <v>221</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M37" s="9">
         <v>0</v>
@@ -10596,8 +10596,8 @@
   <sheetPr/>
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12122,7 +12122,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>362</v>
@@ -12262,7 +12262,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>123</v>
@@ -12280,7 +12280,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="8" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>265</v>
@@ -12334,7 +12334,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>362</v>
@@ -15254,7 +15254,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>515</v>
@@ -15410,10 +15410,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
@@ -15570,10 +15570,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>16</v>
@@ -15590,10 +15590,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>16</v>
@@ -15646,7 +15646,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>525</v>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="3"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -2950,7 +2950,7 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="A81" sqref="A79:A81"/>
     </sh